--- a/TrainRoute.xlsx
+++ b/TrainRoute.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
@@ -2976,8 +2976,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3166,7 +3166,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3201,7 +3200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3377,14 +3375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
     <col min="2" max="4" width="18" style="3" customWidth="1"/>
@@ -3402,7 +3400,7 @@
     <col min="16" max="16" width="12.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>984</v>
       </c>
@@ -3454,7 +3452,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3499,7 +3497,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3541,7 +3539,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3583,7 +3581,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -3625,7 +3623,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -3667,7 +3665,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -3709,7 +3707,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3751,7 +3749,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -3793,7 +3791,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -3835,7 +3833,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -3877,7 +3875,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3919,7 +3917,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -4003,7 +4001,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -4045,7 +4043,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
@@ -4087,7 +4085,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -4132,7 +4130,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -4174,7 +4172,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -4216,7 +4214,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -4300,7 +4298,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -4342,7 +4340,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -4426,7 +4424,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -4471,7 +4469,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75">
       <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
@@ -4513,7 +4511,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75">
       <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
@@ -4555,7 +4553,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75">
       <c r="A28" s="3" t="s">
         <v>79</v>
       </c>
@@ -4597,7 +4595,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75">
       <c r="A29" s="3" t="s">
         <v>80</v>
       </c>
@@ -4639,7 +4637,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75">
       <c r="A30" s="3" t="s">
         <v>81</v>
       </c>
@@ -4681,7 +4679,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
@@ -4723,7 +4721,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75">
       <c r="A32" s="3" t="s">
         <v>83</v>
       </c>
@@ -4765,7 +4763,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15.75">
       <c r="A33" s="3" t="s">
         <v>84</v>
       </c>
@@ -4807,7 +4805,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15.75">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -4849,7 +4847,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15.75">
       <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="3" t="s">
         <v>94</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -4975,7 +4973,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="3" t="s">
         <v>96</v>
       </c>
@@ -5017,7 +5015,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="3" t="s">
         <v>97</v>
       </c>
@@ -5059,7 +5057,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="3" t="s">
         <v>98</v>
       </c>
@@ -5101,7 +5099,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="3" t="s">
         <v>99</v>
       </c>
@@ -5146,7 +5144,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="3" t="s">
         <v>135</v>
       </c>
@@ -5188,7 +5186,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="3" t="s">
         <v>136</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="3" t="s">
         <v>137</v>
       </c>
@@ -5272,7 +5270,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="3" t="s">
         <v>138</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="3" t="s">
         <v>139</v>
       </c>
@@ -5356,7 +5354,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="3" t="s">
         <v>110</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="3" t="s">
         <v>111</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="3" t="s">
         <v>140</v>
       </c>
@@ -5482,7 +5480,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="3" t="s">
         <v>141</v>
       </c>
@@ -5524,7 +5522,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="3" t="s">
         <v>142</v>
       </c>
@@ -5566,7 +5564,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="3" t="s">
         <v>143</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="3" t="s">
         <v>144</v>
       </c>
@@ -5650,7 +5648,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="3" t="s">
         <v>123</v>
       </c>
@@ -5692,7 +5690,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="3" t="s">
         <v>124</v>
       </c>
@@ -5734,7 +5732,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="3" t="s">
         <v>145</v>
       </c>
@@ -5776,7 +5774,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="3" t="s">
         <v>146</v>
       </c>
@@ -5818,7 +5816,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="3" t="s">
         <v>147</v>
       </c>
@@ -5860,7 +5858,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="3" t="s">
         <v>148</v>
       </c>
@@ -5902,7 +5900,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="3" t="s">
         <v>149</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="3" t="s">
         <v>131</v>
       </c>
@@ -5989,7 +5987,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="3" t="s">
         <v>132</v>
       </c>
@@ -6034,7 +6032,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="3" t="s">
         <v>150</v>
       </c>
@@ -6079,7 +6077,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="3" t="s">
         <v>151</v>
       </c>
@@ -6124,7 +6122,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="3" t="s">
         <v>152</v>
       </c>
@@ -6169,7 +6167,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="3" t="s">
         <v>153</v>
       </c>
@@ -6214,7 +6212,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
@@ -6259,7 +6257,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="3" t="s">
         <v>167</v>
       </c>
@@ -6304,7 +6302,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="3" t="s">
         <v>168</v>
       </c>
@@ -6349,7 +6347,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="3" t="s">
         <v>169</v>
       </c>
@@ -6394,7 +6392,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="3" t="s">
         <v>175</v>
       </c>
@@ -6436,7 +6434,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="3" t="s">
         <v>176</v>
       </c>
@@ -6478,7 +6476,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="3" t="s">
         <v>177</v>
       </c>
@@ -6520,7 +6518,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="3" t="s">
         <v>178</v>
       </c>
@@ -6562,7 +6560,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="3" t="s">
         <v>181</v>
       </c>
@@ -6604,7 +6602,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="3" t="s">
         <v>182</v>
       </c>
@@ -6646,7 +6644,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="3" t="s">
         <v>183</v>
       </c>
@@ -6688,7 +6686,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="3" t="s">
         <v>184</v>
       </c>
@@ -6730,7 +6728,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="3" t="s">
         <v>185</v>
       </c>
@@ -6772,7 +6770,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="3" t="s">
         <v>186</v>
       </c>
@@ -6814,7 +6812,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="3" t="s">
         <v>187</v>
       </c>
@@ -6856,7 +6854,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="3" t="s">
         <v>188</v>
       </c>
@@ -6898,7 +6896,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="3" t="s">
         <v>189</v>
       </c>
@@ -6940,7 +6938,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="3" t="s">
         <v>190</v>
       </c>
@@ -6982,7 +6980,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="3" t="s">
         <v>191</v>
       </c>
@@ -7024,7 +7022,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="3" t="s">
         <v>192</v>
       </c>
@@ -7066,7 +7064,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="3" t="s">
         <v>193</v>
       </c>
@@ -7108,7 +7106,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="3" t="s">
         <v>194</v>
       </c>
@@ -7150,7 +7148,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="3" t="s">
         <v>195</v>
       </c>
@@ -7192,7 +7190,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="3" t="s">
         <v>196</v>
       </c>
@@ -7234,7 +7232,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="3" t="s">
         <v>197</v>
       </c>
@@ -7276,7 +7274,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="3" t="s">
         <v>201</v>
       </c>
@@ -7318,7 +7316,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="3" t="s">
         <v>205</v>
       </c>
@@ -7360,7 +7358,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="3" t="s">
         <v>208</v>
       </c>
@@ -7402,7 +7400,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="3" t="s">
         <v>209</v>
       </c>
@@ -7444,7 +7442,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="3" t="s">
         <v>210</v>
       </c>
@@ -7486,7 +7484,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="3" t="s">
         <v>211</v>
       </c>
@@ -7528,7 +7526,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="3" t="s">
         <v>212</v>
       </c>
@@ -7570,7 +7568,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="3" t="s">
         <v>218</v>
       </c>
@@ -7612,7 +7610,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="3" t="s">
         <v>219</v>
       </c>
@@ -7654,7 +7652,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="3" t="s">
         <v>220</v>
       </c>
@@ -7696,7 +7694,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="3" t="s">
         <v>221</v>
       </c>
@@ -7738,7 +7736,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="15.75">
       <c r="A103" s="3" t="s">
         <v>222</v>
       </c>
@@ -7780,7 +7778,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="15.75">
       <c r="A104" s="3" t="s">
         <v>223</v>
       </c>
@@ -7822,7 +7820,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="15.75">
       <c r="A105" s="3" t="s">
         <v>224</v>
       </c>
@@ -7864,7 +7862,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="15.75">
       <c r="A106" s="3" t="s">
         <v>225</v>
       </c>
@@ -7906,7 +7904,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="15.75">
       <c r="A107" s="3" t="s">
         <v>242</v>
       </c>
@@ -7951,7 +7949,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="15.75">
       <c r="A108" s="3" t="s">
         <v>243</v>
       </c>
@@ -7993,7 +7991,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="15.75">
       <c r="A109" s="3" t="s">
         <v>244</v>
       </c>
@@ -8035,7 +8033,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="15.75">
       <c r="A110" s="3" t="s">
         <v>245</v>
       </c>
@@ -8077,7 +8075,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="15.75">
       <c r="A111" s="3" t="s">
         <v>246</v>
       </c>
@@ -8119,7 +8117,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="15.75">
       <c r="A112" s="3" t="s">
         <v>247</v>
       </c>
@@ -8161,7 +8159,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="15.75">
       <c r="A113" s="3" t="s">
         <v>248</v>
       </c>
@@ -8203,7 +8201,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="15.75">
       <c r="A114" s="3" t="s">
         <v>250</v>
       </c>
@@ -8245,7 +8243,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="15.75">
       <c r="A115" s="3" t="s">
         <v>251</v>
       </c>
@@ -8287,7 +8285,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="15.75">
       <c r="A116" s="3" t="s">
         <v>252</v>
       </c>
@@ -8329,7 +8327,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="15.75">
       <c r="A117" s="3" t="s">
         <v>253</v>
       </c>
@@ -8371,7 +8369,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="15.75">
       <c r="A118" s="3" t="s">
         <v>254</v>
       </c>
@@ -8413,7 +8411,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="15.75">
       <c r="A119" s="3" t="s">
         <v>255</v>
       </c>
@@ -8455,7 +8453,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="15.75">
       <c r="A120" s="3" t="s">
         <v>256</v>
       </c>
@@ -8497,7 +8495,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="15.75">
       <c r="A121" s="3" t="s">
         <v>257</v>
       </c>
@@ -8542,7 +8540,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="15.75">
       <c r="A122" s="3" t="s">
         <v>261</v>
       </c>
@@ -8584,7 +8582,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="15.75">
       <c r="A123" s="3" t="s">
         <v>260</v>
       </c>
@@ -8626,7 +8624,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="15.75">
       <c r="A124" s="3" t="s">
         <v>259</v>
       </c>
@@ -8668,7 +8666,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="15.75">
       <c r="A125" s="3" t="s">
         <v>262</v>
       </c>
@@ -8710,7 +8708,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="15.75">
       <c r="A126" s="3" t="s">
         <v>263</v>
       </c>
@@ -8752,7 +8750,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="15.75">
       <c r="A127" s="3" t="s">
         <v>264</v>
       </c>
@@ -8794,7 +8792,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="15.75">
       <c r="A128" s="3" t="s">
         <v>265</v>
       </c>
@@ -8836,7 +8834,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="15.75">
       <c r="A129" s="3" t="s">
         <v>266</v>
       </c>
@@ -8878,7 +8876,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="15.75">
       <c r="A130" s="3" t="s">
         <v>275</v>
       </c>
@@ -8920,7 +8918,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="15.75">
       <c r="A131" s="3" t="s">
         <v>276</v>
       </c>
@@ -8962,7 +8960,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="15.75">
       <c r="A132" s="3" t="s">
         <v>277</v>
       </c>
@@ -9004,7 +9002,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="15.75">
       <c r="A133" s="3" t="s">
         <v>278</v>
       </c>
@@ -9046,7 +9044,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="15.75">
       <c r="A134" s="3" t="s">
         <v>279</v>
       </c>
@@ -9088,7 +9086,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="15.75">
       <c r="A135" s="3" t="s">
         <v>280</v>
       </c>
@@ -9130,7 +9128,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>281</v>
       </c>
@@ -9172,7 +9170,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>282</v>
       </c>
@@ -9217,7 +9215,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="15.75">
       <c r="A138" t="s">
         <v>286</v>
       </c>
@@ -9262,7 +9260,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="15.75">
       <c r="A139" s="3" t="s">
         <v>290</v>
       </c>
@@ -9307,7 +9305,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="15.75">
       <c r="A140" s="3" t="s">
         <v>292</v>
       </c>
@@ -9352,7 +9350,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="15.75">
       <c r="A141" s="3" t="s">
         <v>287</v>
       </c>
@@ -9397,7 +9395,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="15.75">
       <c r="A142" s="3" t="s">
         <v>294</v>
       </c>
@@ -9442,7 +9440,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="15.75">
       <c r="A143" s="3" t="s">
         <v>296</v>
       </c>
@@ -9487,7 +9485,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="15.75">
       <c r="A144" s="3" t="s">
         <v>298</v>
       </c>
@@ -9532,7 +9530,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="15.75">
       <c r="A145" s="3" t="s">
         <v>300</v>
       </c>
@@ -9577,7 +9575,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="15.75">
       <c r="A146" s="3" t="s">
         <v>302</v>
       </c>
@@ -9622,7 +9620,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="15.75">
       <c r="A147" s="3" t="s">
         <v>303</v>
       </c>
@@ -9667,7 +9665,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="15.75">
       <c r="A148" s="3" t="s">
         <v>304</v>
       </c>
@@ -9712,7 +9710,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="15.75">
       <c r="A149" s="3" t="s">
         <v>305</v>
       </c>
@@ -9757,7 +9755,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="15.75">
       <c r="A150" s="3" t="s">
         <v>306</v>
       </c>
@@ -9802,7 +9800,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="15.75">
       <c r="A151" s="3" t="s">
         <v>307</v>
       </c>
@@ -9847,7 +9845,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="15.75">
       <c r="A152" s="3" t="s">
         <v>308</v>
       </c>
@@ -9892,7 +9890,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="15.75">
       <c r="A153" s="3" t="s">
         <v>309</v>
       </c>
@@ -9937,7 +9935,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="15.75">
       <c r="A154" s="3" t="s">
         <v>310</v>
       </c>
@@ -9982,7 +9980,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="15.75">
       <c r="A155" s="3" t="s">
         <v>311</v>
       </c>
@@ -10027,7 +10025,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="15.75">
       <c r="A156" s="3" t="s">
         <v>316</v>
       </c>
@@ -10072,7 +10070,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="15.75">
       <c r="A157" s="5" t="s">
         <v>317</v>
       </c>
@@ -10117,7 +10115,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="15.75">
       <c r="A158" s="3" t="s">
         <v>321</v>
       </c>
@@ -10142,7 +10140,7 @@
       </c>
       <c r="L158" s="11"/>
     </row>
-    <row r="159" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="15.75">
       <c r="A159" s="3" t="s">
         <v>325</v>
       </c>
@@ -10167,7 +10165,7 @@
       </c>
       <c r="L159" s="11"/>
     </row>
-    <row r="160" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="15.75">
       <c r="A160" s="3" t="s">
         <v>326</v>
       </c>
@@ -10195,7 +10193,7 @@
       </c>
       <c r="L160" s="11"/>
     </row>
-    <row r="161" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.75">
       <c r="A161" s="3" t="s">
         <v>329</v>
       </c>
@@ -10223,7 +10221,7 @@
       </c>
       <c r="L161" s="11"/>
     </row>
-    <row r="162" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.75">
       <c r="A162" s="3" t="s">
         <v>334</v>
       </c>
@@ -10251,7 +10249,7 @@
       </c>
       <c r="L162" s="11"/>
     </row>
-    <row r="163" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.75">
       <c r="A163" s="3" t="s">
         <v>337</v>
       </c>
@@ -10279,7 +10277,7 @@
       </c>
       <c r="L163" s="11"/>
     </row>
-    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.75">
       <c r="A164" s="3" t="s">
         <v>339</v>
       </c>
@@ -10307,7 +10305,7 @@
       </c>
       <c r="L164" s="11"/>
     </row>
-    <row r="165" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.75">
       <c r="A165" s="3" t="s">
         <v>343</v>
       </c>
@@ -10335,7 +10333,7 @@
       </c>
       <c r="L165" s="11"/>
     </row>
-    <row r="166" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.75">
       <c r="A166" s="3" t="s">
         <v>349</v>
       </c>
@@ -10363,7 +10361,7 @@
       </c>
       <c r="L166" s="11"/>
     </row>
-    <row r="167" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.75">
       <c r="A167" s="3" t="s">
         <v>353</v>
       </c>
@@ -10391,7 +10389,7 @@
       </c>
       <c r="L167" s="11"/>
     </row>
-    <row r="168" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.75">
       <c r="A168" s="3" t="s">
         <v>355</v>
       </c>
@@ -10419,7 +10417,7 @@
       </c>
       <c r="L168" s="11"/>
     </row>
-    <row r="169" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.75">
       <c r="A169" s="3" t="s">
         <v>358</v>
       </c>
@@ -10447,7 +10445,7 @@
       </c>
       <c r="L169" s="11"/>
     </row>
-    <row r="170" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.75">
       <c r="A170" s="3" t="s">
         <v>361</v>
       </c>
@@ -10475,7 +10473,7 @@
       </c>
       <c r="L170" s="11"/>
     </row>
-    <row r="171" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.75">
       <c r="A171" s="3" t="s">
         <v>364</v>
       </c>
@@ -10503,7 +10501,7 @@
       </c>
       <c r="L171" s="11"/>
     </row>
-    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.75">
       <c r="A172" s="3" t="s">
         <v>367</v>
       </c>
@@ -10531,7 +10529,7 @@
       </c>
       <c r="L172" s="11"/>
     </row>
-    <row r="173" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.75">
       <c r="A173" s="3" t="s">
         <v>369</v>
       </c>
@@ -10559,7 +10557,7 @@
       </c>
       <c r="L173" s="11"/>
     </row>
-    <row r="174" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.75">
       <c r="A174" s="3" t="s">
         <v>370</v>
       </c>
@@ -10587,7 +10585,7 @@
       </c>
       <c r="L174" s="11"/>
     </row>
-    <row r="175" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.75">
       <c r="A175" s="3" t="s">
         <v>372</v>
       </c>
@@ -10615,7 +10613,7 @@
       </c>
       <c r="L175" s="11"/>
     </row>
-    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.75">
       <c r="A176" s="3" t="s">
         <v>374</v>
       </c>
@@ -10643,7 +10641,7 @@
       </c>
       <c r="L176" s="11"/>
     </row>
-    <row r="177" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="15.75">
       <c r="A177" s="3" t="s">
         <v>377</v>
       </c>
@@ -10671,7 +10669,7 @@
       </c>
       <c r="L177" s="11"/>
     </row>
-    <row r="178" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="15.75">
       <c r="A178" s="3" t="s">
         <v>379</v>
       </c>
@@ -10699,7 +10697,7 @@
       </c>
       <c r="L178" s="11"/>
     </row>
-    <row r="179" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="15.75">
       <c r="A179" s="3" t="s">
         <v>382</v>
       </c>
@@ -10727,7 +10725,7 @@
       </c>
       <c r="L179" s="11"/>
     </row>
-    <row r="180" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="15.75">
       <c r="A180" s="3" t="s">
         <v>385</v>
       </c>
@@ -10755,7 +10753,7 @@
       </c>
       <c r="L180" s="11"/>
     </row>
-    <row r="181" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="15.75">
       <c r="A181" s="3" t="s">
         <v>386</v>
       </c>
@@ -10783,7 +10781,7 @@
       </c>
       <c r="L181" s="11"/>
     </row>
-    <row r="182" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="15.75">
       <c r="A182" s="3" t="s">
         <v>388</v>
       </c>
@@ -10811,7 +10809,7 @@
       </c>
       <c r="L182" s="11"/>
     </row>
-    <row r="183" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="15.75">
       <c r="A183" s="3" t="s">
         <v>389</v>
       </c>
@@ -10839,7 +10837,7 @@
       </c>
       <c r="L183" s="11"/>
     </row>
-    <row r="184" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="15.75">
       <c r="A184" s="3" t="s">
         <v>392</v>
       </c>
@@ -10867,7 +10865,7 @@
       </c>
       <c r="L184" s="11"/>
     </row>
-    <row r="185" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="15.75">
       <c r="A185" s="3" t="s">
         <v>393</v>
       </c>
@@ -10895,7 +10893,7 @@
       </c>
       <c r="L185" s="11"/>
     </row>
-    <row r="186" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="15.75">
       <c r="A186" s="3" t="s">
         <v>395</v>
       </c>
@@ -10923,7 +10921,7 @@
       </c>
       <c r="L186" s="11"/>
     </row>
-    <row r="187" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="15.75">
       <c r="A187" s="3" t="s">
         <v>396</v>
       </c>
@@ -10951,7 +10949,7 @@
       </c>
       <c r="L187" s="11"/>
     </row>
-    <row r="188" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="15.75">
       <c r="A188" s="3" t="s">
         <v>397</v>
       </c>
@@ -10979,7 +10977,7 @@
       </c>
       <c r="L188" s="11"/>
     </row>
-    <row r="189" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="15.75">
       <c r="A189" s="3" t="s">
         <v>400</v>
       </c>
@@ -11007,7 +11005,7 @@
       </c>
       <c r="L189" s="11"/>
     </row>
-    <row r="190" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="15.75">
       <c r="A190" s="3" t="s">
         <v>402</v>
       </c>
@@ -11035,7 +11033,7 @@
       </c>
       <c r="L190" s="11"/>
     </row>
-    <row r="191" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="15.75">
       <c r="A191" s="3" t="s">
         <v>404</v>
       </c>
@@ -11063,7 +11061,7 @@
       </c>
       <c r="L191" s="11"/>
     </row>
-    <row r="192" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="15.75">
       <c r="A192" s="3" t="s">
         <v>408</v>
       </c>
@@ -11091,7 +11089,7 @@
       </c>
       <c r="L192" s="11"/>
     </row>
-    <row r="193" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15.75">
       <c r="A193" s="3" t="s">
         <v>410</v>
       </c>
@@ -11119,7 +11117,7 @@
       </c>
       <c r="L193" s="11"/>
     </row>
-    <row r="194" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15.75">
       <c r="A194" s="3" t="s">
         <v>413</v>
       </c>
@@ -11147,7 +11145,7 @@
       </c>
       <c r="L194" s="11"/>
     </row>
-    <row r="195" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15.75">
       <c r="A195" s="3" t="s">
         <v>414</v>
       </c>
@@ -11175,7 +11173,7 @@
       </c>
       <c r="L195" s="11"/>
     </row>
-    <row r="196" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="15.75">
       <c r="A196" s="3" t="s">
         <v>417</v>
       </c>
@@ -11203,7 +11201,7 @@
       </c>
       <c r="L196" s="11"/>
     </row>
-    <row r="197" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="15.75">
       <c r="A197" s="3" t="s">
         <v>418</v>
       </c>
@@ -11231,7 +11229,7 @@
       </c>
       <c r="L197" s="11"/>
     </row>
-    <row r="198" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15.75">
       <c r="A198" s="3" t="s">
         <v>419</v>
       </c>
@@ -11259,7 +11257,7 @@
       </c>
       <c r="L198" s="11"/>
     </row>
-    <row r="199" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15.75">
       <c r="A199" s="3" t="s">
         <v>424</v>
       </c>
@@ -11287,7 +11285,7 @@
       </c>
       <c r="L199" s="11"/>
     </row>
-    <row r="200" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15.75">
       <c r="A200" s="3" t="s">
         <v>427</v>
       </c>
@@ -11315,7 +11313,7 @@
       </c>
       <c r="L200" s="11"/>
     </row>
-    <row r="201" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15.75">
       <c r="A201" s="3" t="s">
         <v>430</v>
       </c>
@@ -11343,7 +11341,7 @@
       </c>
       <c r="L201" s="11"/>
     </row>
-    <row r="202" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15.75">
       <c r="A202" s="3" t="s">
         <v>431</v>
       </c>
@@ -11371,7 +11369,7 @@
       </c>
       <c r="L202" s="11"/>
     </row>
-    <row r="203" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15.75">
       <c r="A203" s="3" t="s">
         <v>432</v>
       </c>
@@ -11399,7 +11397,7 @@
       </c>
       <c r="L203" s="11"/>
     </row>
-    <row r="204" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15.75">
       <c r="A204" s="3" t="s">
         <v>434</v>
       </c>
@@ -11427,7 +11425,7 @@
       </c>
       <c r="L204" s="11"/>
     </row>
-    <row r="205" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15.75">
       <c r="A205" s="3" t="s">
         <v>435</v>
       </c>
@@ -11455,7 +11453,7 @@
       </c>
       <c r="L205" s="11"/>
     </row>
-    <row r="206" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15.75">
       <c r="A206" s="3" t="s">
         <v>436</v>
       </c>
@@ -11483,7 +11481,7 @@
       </c>
       <c r="L206" s="11"/>
     </row>
-    <row r="207" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15.75">
       <c r="A207" s="3" t="s">
         <v>438</v>
       </c>
@@ -11511,7 +11509,7 @@
       </c>
       <c r="L207" s="11"/>
     </row>
-    <row r="208" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15.75">
       <c r="A208" s="3" t="s">
         <v>112</v>
       </c>
@@ -11539,7 +11537,7 @@
       </c>
       <c r="L208" s="11"/>
     </row>
-    <row r="209" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.75">
       <c r="A209" s="3" t="s">
         <v>113</v>
       </c>
@@ -11567,7 +11565,7 @@
       </c>
       <c r="L209" s="11"/>
     </row>
-    <row r="210" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.75">
       <c r="A210" s="3" t="s">
         <v>442</v>
       </c>
@@ -11595,7 +11593,7 @@
       </c>
       <c r="L210" s="11"/>
     </row>
-    <row r="211" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.75">
       <c r="A211" s="3" t="s">
         <v>444</v>
       </c>
@@ -11623,7 +11621,7 @@
       </c>
       <c r="L211" s="11"/>
     </row>
-    <row r="212" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.75">
       <c r="A212" s="3" t="s">
         <v>445</v>
       </c>
@@ -11651,7 +11649,7 @@
       </c>
       <c r="L212" s="11"/>
     </row>
-    <row r="213" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.75">
       <c r="A213" s="3" t="s">
         <v>446</v>
       </c>
@@ -11679,7 +11677,7 @@
       </c>
       <c r="L213" s="11"/>
     </row>
-    <row r="214" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.75">
       <c r="A214" s="3" t="s">
         <v>447</v>
       </c>
@@ -11707,7 +11705,7 @@
       </c>
       <c r="L214" s="11"/>
     </row>
-    <row r="215" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.75">
       <c r="A215" s="3" t="s">
         <v>450</v>
       </c>
@@ -11735,7 +11733,7 @@
       </c>
       <c r="L215" s="11"/>
     </row>
-    <row r="216" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.75">
       <c r="A216" s="3" t="s">
         <v>451</v>
       </c>
@@ -11763,7 +11761,7 @@
       </c>
       <c r="L216" s="11"/>
     </row>
-    <row r="217" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.75">
       <c r="A217" s="3" t="s">
         <v>452</v>
       </c>
@@ -11791,7 +11789,7 @@
       </c>
       <c r="L217" s="11"/>
     </row>
-    <row r="218" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.75">
       <c r="A218" s="3" t="s">
         <v>453</v>
       </c>
@@ -11819,7 +11817,7 @@
       </c>
       <c r="L218" s="11"/>
     </row>
-    <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.75">
       <c r="A219" s="3" t="s">
         <v>458</v>
       </c>
@@ -11847,7 +11845,7 @@
       </c>
       <c r="L219" s="11"/>
     </row>
-    <row r="220" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.75">
       <c r="A220" s="3" t="s">
         <v>461</v>
       </c>
@@ -11875,7 +11873,7 @@
       </c>
       <c r="L220" s="11"/>
     </row>
-    <row r="221" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.75">
       <c r="A221" s="3" t="s">
         <v>465</v>
       </c>
@@ -11903,7 +11901,7 @@
       </c>
       <c r="L221" s="11"/>
     </row>
-    <row r="222" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.75">
       <c r="A222" s="3" t="s">
         <v>467</v>
       </c>
@@ -11931,7 +11929,7 @@
       </c>
       <c r="L222" s="11"/>
     </row>
-    <row r="223" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.75">
       <c r="A223" s="3" t="s">
         <v>471</v>
       </c>
@@ -11959,7 +11957,7 @@
       </c>
       <c r="L223" s="11"/>
     </row>
-    <row r="224" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.75">
       <c r="A224" s="3" t="s">
         <v>475</v>
       </c>
@@ -11987,7 +11985,7 @@
       </c>
       <c r="L224" s="11"/>
     </row>
-    <row r="225" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="15.75">
       <c r="A225" s="3" t="s">
         <v>478</v>
       </c>
@@ -12015,7 +12013,7 @@
       </c>
       <c r="L225" s="11"/>
     </row>
-    <row r="226" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="15.75">
       <c r="A226" s="3" t="s">
         <v>480</v>
       </c>
@@ -12043,7 +12041,7 @@
       </c>
       <c r="L226" s="11"/>
     </row>
-    <row r="227" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="15.75">
       <c r="A227" s="3" t="s">
         <v>483</v>
       </c>
@@ -12071,7 +12069,7 @@
       </c>
       <c r="L227" s="11"/>
     </row>
-    <row r="228" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="15.75">
       <c r="A228" s="3" t="s">
         <v>485</v>
       </c>
@@ -12099,7 +12097,7 @@
       </c>
       <c r="L228" s="11"/>
     </row>
-    <row r="229" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="15.75">
       <c r="A229" s="3" t="s">
         <v>487</v>
       </c>
@@ -12127,7 +12125,7 @@
       </c>
       <c r="L229" s="11"/>
     </row>
-    <row r="230" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="15.75">
       <c r="A230" s="3" t="s">
         <v>490</v>
       </c>
@@ -12155,7 +12153,7 @@
       </c>
       <c r="L230" s="11"/>
     </row>
-    <row r="231" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="15.75">
       <c r="A231" s="3" t="s">
         <v>491</v>
       </c>
@@ -12183,7 +12181,7 @@
       </c>
       <c r="L231" s="11"/>
     </row>
-    <row r="232" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="15.75">
       <c r="A232" s="3" t="s">
         <v>492</v>
       </c>
@@ -12211,7 +12209,7 @@
       </c>
       <c r="L232" s="11"/>
     </row>
-    <row r="233" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="15.75">
       <c r="A233" s="3" t="s">
         <v>493</v>
       </c>
@@ -12239,7 +12237,7 @@
       </c>
       <c r="L233" s="11"/>
     </row>
-    <row r="234" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="15.75">
       <c r="A234" s="3" t="s">
         <v>499</v>
       </c>
@@ -12267,7 +12265,7 @@
       </c>
       <c r="L234" s="11"/>
     </row>
-    <row r="235" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="15.75">
       <c r="A235" s="3" t="s">
         <v>502</v>
       </c>
@@ -12295,7 +12293,7 @@
       </c>
       <c r="L235" s="11"/>
     </row>
-    <row r="236" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="15.75">
       <c r="A236" s="3" t="s">
         <v>507</v>
       </c>
@@ -12323,7 +12321,7 @@
       </c>
       <c r="L236" s="11"/>
     </row>
-    <row r="237" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="15.75">
       <c r="A237" s="3" t="s">
         <v>508</v>
       </c>
@@ -12351,7 +12349,7 @@
       </c>
       <c r="L237" s="11"/>
     </row>
-    <row r="238" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="15.75">
       <c r="A238" s="3" t="s">
         <v>510</v>
       </c>
@@ -12379,7 +12377,7 @@
       </c>
       <c r="L238" s="11"/>
     </row>
-    <row r="239" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="15.75">
       <c r="A239" s="3" t="s">
         <v>511</v>
       </c>
@@ -12407,7 +12405,7 @@
       </c>
       <c r="L239" s="11"/>
     </row>
-    <row r="240" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="15.75">
       <c r="A240" s="3" t="s">
         <v>513</v>
       </c>
@@ -12435,7 +12433,7 @@
       </c>
       <c r="L240" s="11"/>
     </row>
-    <row r="241" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="15.75">
       <c r="A241" s="3" t="s">
         <v>517</v>
       </c>
@@ -12463,7 +12461,7 @@
       </c>
       <c r="L241" s="11"/>
     </row>
-    <row r="242" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="15.75">
       <c r="A242" s="3" t="s">
         <v>520</v>
       </c>
@@ -12491,7 +12489,7 @@
       </c>
       <c r="L242" s="11"/>
     </row>
-    <row r="243" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="15.75">
       <c r="A243" s="3" t="s">
         <v>524</v>
       </c>
@@ -12519,7 +12517,7 @@
       </c>
       <c r="L243" s="11"/>
     </row>
-    <row r="244" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="15.75">
       <c r="A244" s="3" t="s">
         <v>525</v>
       </c>
@@ -12547,7 +12545,7 @@
       </c>
       <c r="L244" s="11"/>
     </row>
-    <row r="245" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="15.75">
       <c r="A245" s="3" t="s">
         <v>526</v>
       </c>
@@ -12575,7 +12573,7 @@
       </c>
       <c r="L245" s="11"/>
     </row>
-    <row r="246" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="15.75">
       <c r="A246" s="3" t="s">
         <v>527</v>
       </c>
@@ -12603,7 +12601,7 @@
       </c>
       <c r="L246" s="11"/>
     </row>
-    <row r="247" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="15.75">
       <c r="A247" s="3" t="s">
         <v>528</v>
       </c>
@@ -12631,7 +12629,7 @@
       </c>
       <c r="L247" s="11"/>
     </row>
-    <row r="248" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="15.75">
       <c r="A248" s="3" t="s">
         <v>529</v>
       </c>
@@ -12659,7 +12657,7 @@
       </c>
       <c r="L248" s="11"/>
     </row>
-    <row r="249" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="15.75">
       <c r="A249" s="3" t="s">
         <v>530</v>
       </c>
@@ -12687,7 +12685,7 @@
       </c>
       <c r="L249" s="11"/>
     </row>
-    <row r="250" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="15.75">
       <c r="A250" s="3" t="s">
         <v>538</v>
       </c>
@@ -12715,7 +12713,7 @@
       </c>
       <c r="L250" s="11"/>
     </row>
-    <row r="251" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="15.75">
       <c r="A251" s="3" t="s">
         <v>539</v>
       </c>
@@ -12743,7 +12741,7 @@
       </c>
       <c r="L251" s="11"/>
     </row>
-    <row r="252" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="15.75">
       <c r="A252" s="3" t="s">
         <v>540</v>
       </c>
@@ -12771,7 +12769,7 @@
       </c>
       <c r="L252" s="11"/>
     </row>
-    <row r="253" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="15.75">
       <c r="A253" s="3" t="s">
         <v>544</v>
       </c>
@@ -12799,7 +12797,7 @@
       </c>
       <c r="L253" s="11"/>
     </row>
-    <row r="254" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="15.75">
       <c r="A254" s="3" t="s">
         <v>547</v>
       </c>
@@ -12827,7 +12825,7 @@
       </c>
       <c r="L254" s="11"/>
     </row>
-    <row r="255" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="15.75">
       <c r="A255" s="3" t="s">
         <v>549</v>
       </c>
@@ -12855,7 +12853,7 @@
       </c>
       <c r="L255" s="11"/>
     </row>
-    <row r="256" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="15.75">
       <c r="A256" s="3" t="s">
         <v>550</v>
       </c>
@@ -12883,7 +12881,7 @@
       </c>
       <c r="L256" s="11"/>
     </row>
-    <row r="257" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="15.75">
       <c r="A257" s="3" t="s">
         <v>555</v>
       </c>
@@ -12911,7 +12909,7 @@
       </c>
       <c r="L257" s="11"/>
     </row>
-    <row r="258" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="15.75">
       <c r="A258" s="3" t="s">
         <v>556</v>
       </c>
@@ -12939,7 +12937,7 @@
       </c>
       <c r="L258" s="11"/>
     </row>
-    <row r="259" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="15.75">
       <c r="A259" s="3" t="s">
         <v>557</v>
       </c>
@@ -12967,7 +12965,7 @@
       </c>
       <c r="L259" s="11"/>
     </row>
-    <row r="260" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" ht="15.75">
       <c r="A260" s="3" t="s">
         <v>558</v>
       </c>
@@ -12995,7 +12993,7 @@
       </c>
       <c r="L260" s="11"/>
     </row>
-    <row r="261" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" ht="15.75">
       <c r="A261" s="3" t="s">
         <v>559</v>
       </c>
@@ -13023,7 +13021,7 @@
       </c>
       <c r="L261" s="11"/>
     </row>
-    <row r="262" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="15.75">
       <c r="A262" s="3" t="s">
         <v>560</v>
       </c>
@@ -13051,7 +13049,7 @@
       </c>
       <c r="L262" s="11"/>
     </row>
-    <row r="263" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" ht="15.75">
       <c r="A263" s="3" t="s">
         <v>561</v>
       </c>
@@ -13079,7 +13077,7 @@
       </c>
       <c r="L263" s="11"/>
     </row>
-    <row r="264" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="15.75">
       <c r="A264" s="3" t="s">
         <v>562</v>
       </c>
@@ -13107,7 +13105,7 @@
       </c>
       <c r="L264" s="11"/>
     </row>
-    <row r="265" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" ht="15.75">
       <c r="A265" s="3" t="s">
         <v>563</v>
       </c>
@@ -13135,7 +13133,7 @@
       </c>
       <c r="L265" s="11"/>
     </row>
-    <row r="266" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="15.75">
       <c r="A266" s="3" t="s">
         <v>565</v>
       </c>
@@ -13163,7 +13161,7 @@
       </c>
       <c r="L266" s="11"/>
     </row>
-    <row r="267" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" ht="15.75">
       <c r="A267" s="3" t="s">
         <v>566</v>
       </c>
@@ -13191,7 +13189,7 @@
       </c>
       <c r="L267" s="11"/>
     </row>
-    <row r="268" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" ht="15.75">
       <c r="A268" s="3" t="s">
         <v>567</v>
       </c>
@@ -13219,7 +13217,7 @@
       </c>
       <c r="L268" s="11"/>
     </row>
-    <row r="269" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="15.75">
       <c r="A269" s="3" t="s">
         <v>568</v>
       </c>
@@ -13247,7 +13245,7 @@
       </c>
       <c r="L269" s="11"/>
     </row>
-    <row r="270" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="15.75">
       <c r="A270" s="3" t="s">
         <v>573</v>
       </c>
@@ -13275,7 +13273,7 @@
       </c>
       <c r="L270" s="11"/>
     </row>
-    <row r="271" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" ht="15.75">
       <c r="A271" s="3" t="s">
         <v>574</v>
       </c>
@@ -13303,7 +13301,7 @@
       </c>
       <c r="L271" s="11"/>
     </row>
-    <row r="272" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" ht="15.75">
       <c r="A272" s="3" t="s">
         <v>575</v>
       </c>
@@ -13331,7 +13329,7 @@
       </c>
       <c r="L272" s="11"/>
     </row>
-    <row r="273" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="15.75">
       <c r="A273" s="3" t="s">
         <v>576</v>
       </c>
@@ -13359,7 +13357,7 @@
       </c>
       <c r="L273" s="11"/>
     </row>
-    <row r="274" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" ht="15.75">
       <c r="A274" s="3" t="s">
         <v>578</v>
       </c>
@@ -13387,7 +13385,7 @@
       </c>
       <c r="L274" s="11"/>
     </row>
-    <row r="275" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="15.75">
       <c r="A275" s="3" t="s">
         <v>581</v>
       </c>
@@ -13415,7 +13413,7 @@
       </c>
       <c r="L275" s="11"/>
     </row>
-    <row r="276" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="15.75">
       <c r="A276" s="3" t="s">
         <v>584</v>
       </c>
@@ -13443,7 +13441,7 @@
       </c>
       <c r="L276" s="11"/>
     </row>
-    <row r="277" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="15.75">
       <c r="A277" s="3" t="s">
         <v>585</v>
       </c>
@@ -13471,7 +13469,7 @@
       </c>
       <c r="L277" s="11"/>
     </row>
-    <row r="278" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" ht="15.75">
       <c r="A278" s="3" t="s">
         <v>588</v>
       </c>
@@ -13499,7 +13497,7 @@
       </c>
       <c r="L278" s="11"/>
     </row>
-    <row r="279" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" ht="15.75">
       <c r="A279" s="3" t="s">
         <v>596</v>
       </c>
@@ -13527,7 +13525,7 @@
       </c>
       <c r="L279" s="11"/>
     </row>
-    <row r="280" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" ht="15.75">
       <c r="A280" s="3" t="s">
         <v>597</v>
       </c>
@@ -13555,7 +13553,7 @@
       </c>
       <c r="L280" s="11"/>
     </row>
-    <row r="281" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" ht="15.75">
       <c r="A281" s="3" t="s">
         <v>598</v>
       </c>
@@ -13583,7 +13581,7 @@
       </c>
       <c r="L281" s="11"/>
     </row>
-    <row r="282" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" ht="15.75">
       <c r="A282" s="3" t="s">
         <v>599</v>
       </c>
@@ -13611,7 +13609,7 @@
       </c>
       <c r="L282" s="11"/>
     </row>
-    <row r="283" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" ht="15.75">
       <c r="A283" s="3" t="s">
         <v>595</v>
       </c>
@@ -13639,7 +13637,7 @@
       </c>
       <c r="L283" s="11"/>
     </row>
-    <row r="284" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" ht="15.75">
       <c r="A284" s="3" t="s">
         <v>600</v>
       </c>
@@ -13667,7 +13665,7 @@
       </c>
       <c r="L284" s="11"/>
     </row>
-    <row r="285" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" ht="15.75">
       <c r="A285" s="3" t="s">
         <v>601</v>
       </c>
@@ -13695,7 +13693,7 @@
       </c>
       <c r="L285" s="11"/>
     </row>
-    <row r="286" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" ht="15.75">
       <c r="A286" s="3" t="s">
         <v>602</v>
       </c>
@@ -13723,7 +13721,7 @@
       </c>
       <c r="L286" s="11"/>
     </row>
-    <row r="287" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" ht="15.75">
       <c r="A287" s="3" t="s">
         <v>603</v>
       </c>
@@ -13751,7 +13749,7 @@
       </c>
       <c r="L287" s="11"/>
     </row>
-    <row r="288" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="15.75">
       <c r="A288" s="3" t="s">
         <v>621</v>
       </c>
@@ -13779,7 +13777,7 @@
       </c>
       <c r="L288" s="11"/>
     </row>
-    <row r="289" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" ht="15.75">
       <c r="A289" s="3" t="s">
         <v>623</v>
       </c>
@@ -13807,7 +13805,7 @@
       </c>
       <c r="L289" s="11"/>
     </row>
-    <row r="290" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="15.75">
       <c r="A290" s="3" t="s">
         <v>626</v>
       </c>
@@ -13835,7 +13833,7 @@
       </c>
       <c r="L290" s="11"/>
     </row>
-    <row r="291" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="15.75">
       <c r="A291" s="3" t="s">
         <v>629</v>
       </c>
@@ -13863,7 +13861,7 @@
       </c>
       <c r="L291" s="11"/>
     </row>
-    <row r="292" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" ht="15.75">
       <c r="A292" s="3" t="s">
         <v>631</v>
       </c>
@@ -13891,7 +13889,7 @@
       </c>
       <c r="L292" s="11"/>
     </row>
-    <row r="293" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" ht="15.75">
       <c r="A293" s="3" t="s">
         <v>632</v>
       </c>
@@ -13919,7 +13917,7 @@
       </c>
       <c r="L293" s="11"/>
     </row>
-    <row r="294" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" ht="15.75">
       <c r="A294" s="3" t="s">
         <v>633</v>
       </c>
@@ -13947,7 +13945,7 @@
       </c>
       <c r="L294" s="11"/>
     </row>
-    <row r="295" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="15.75">
       <c r="A295" s="3" t="s">
         <v>634</v>
       </c>
@@ -13975,7 +13973,7 @@
       </c>
       <c r="L295" s="11"/>
     </row>
-    <row r="296" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="15.75">
       <c r="A296" s="3" t="s">
         <v>635</v>
       </c>
@@ -14003,7 +14001,7 @@
       </c>
       <c r="L296" s="11"/>
     </row>
-    <row r="297" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" ht="15.75">
       <c r="A297" s="3" t="s">
         <v>639</v>
       </c>
@@ -14031,7 +14029,7 @@
       </c>
       <c r="L297" s="11"/>
     </row>
-    <row r="298" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" ht="15.75">
       <c r="A298" s="3" t="s">
         <v>641</v>
       </c>
@@ -14059,7 +14057,7 @@
       </c>
       <c r="L298" s="11"/>
     </row>
-    <row r="299" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" ht="15.75">
       <c r="A299" s="3" t="s">
         <v>643</v>
       </c>
@@ -14087,7 +14085,7 @@
       </c>
       <c r="L299" s="11"/>
     </row>
-    <row r="300" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" ht="15.75">
       <c r="A300" s="3" t="s">
         <v>645</v>
       </c>
@@ -14115,7 +14113,7 @@
       </c>
       <c r="L300" s="11"/>
     </row>
-    <row r="301" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" ht="15.75">
       <c r="A301" s="3" t="s">
         <v>647</v>
       </c>
@@ -14143,7 +14141,7 @@
       </c>
       <c r="L301" s="11"/>
     </row>
-    <row r="302" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" ht="15.75">
       <c r="A302" s="3" t="s">
         <v>650</v>
       </c>
@@ -14171,7 +14169,7 @@
       </c>
       <c r="L302" s="11"/>
     </row>
-    <row r="303" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" ht="15.75">
       <c r="A303" s="3" t="s">
         <v>652</v>
       </c>
@@ -14199,7 +14197,7 @@
       </c>
       <c r="L303" s="11"/>
     </row>
-    <row r="304" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" ht="15.75">
       <c r="A304" s="3" t="s">
         <v>653</v>
       </c>
@@ -14227,7 +14225,7 @@
       </c>
       <c r="L304" s="11"/>
     </row>
-    <row r="305" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" ht="15.75">
       <c r="A305" s="3" t="s">
         <v>656</v>
       </c>
@@ -14255,7 +14253,7 @@
       </c>
       <c r="L305" s="11"/>
     </row>
-    <row r="306" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" ht="15.75">
       <c r="A306" s="3" t="s">
         <v>659</v>
       </c>
@@ -14283,7 +14281,7 @@
       </c>
       <c r="L306" s="11"/>
     </row>
-    <row r="307" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" ht="15.75">
       <c r="A307" s="3" t="s">
         <v>660</v>
       </c>
@@ -14311,7 +14309,7 @@
       </c>
       <c r="L307" s="11"/>
     </row>
-    <row r="308" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" ht="15.75">
       <c r="A308" s="3" t="s">
         <v>665</v>
       </c>
@@ -14339,7 +14337,7 @@
       </c>
       <c r="L308" s="11"/>
     </row>
-    <row r="309" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" ht="15.75">
       <c r="A309" s="3" t="s">
         <v>668</v>
       </c>
@@ -14367,7 +14365,7 @@
       </c>
       <c r="L309" s="11"/>
     </row>
-    <row r="310" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" ht="15.75">
       <c r="A310" s="3" t="s">
         <v>671</v>
       </c>
@@ -14395,7 +14393,7 @@
       </c>
       <c r="L310" s="11"/>
     </row>
-    <row r="311" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" ht="15.75">
       <c r="A311" s="3" t="s">
         <v>674</v>
       </c>
@@ -14423,7 +14421,7 @@
       </c>
       <c r="L311" s="11"/>
     </row>
-    <row r="312" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" ht="15.75">
       <c r="A312" s="3" t="s">
         <v>676</v>
       </c>
@@ -14451,7 +14449,7 @@
       </c>
       <c r="L312" s="11"/>
     </row>
-    <row r="313" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" ht="15.75">
       <c r="A313" s="3" t="s">
         <v>678</v>
       </c>
@@ -14479,7 +14477,7 @@
       </c>
       <c r="L313" s="11"/>
     </row>
-    <row r="314" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" ht="15.75">
       <c r="A314" s="3" t="s">
         <v>680</v>
       </c>
@@ -14507,7 +14505,7 @@
       </c>
       <c r="L314" s="11"/>
     </row>
-    <row r="315" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" ht="15.75">
       <c r="A315" s="3" t="s">
         <v>683</v>
       </c>
@@ -14535,7 +14533,7 @@
       </c>
       <c r="L315" s="11"/>
     </row>
-    <row r="316" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" ht="15.75">
       <c r="A316" s="3" t="s">
         <v>685</v>
       </c>
@@ -14563,7 +14561,7 @@
       </c>
       <c r="L316" s="11"/>
     </row>
-    <row r="317" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" ht="15.75">
       <c r="A317" s="3" t="s">
         <v>687</v>
       </c>
@@ -14591,7 +14589,7 @@
       </c>
       <c r="L317" s="11"/>
     </row>
-    <row r="318" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" ht="15.75">
       <c r="A318" s="3" t="s">
         <v>688</v>
       </c>
@@ -14619,7 +14617,7 @@
       </c>
       <c r="L318" s="11"/>
     </row>
-    <row r="319" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" ht="15.75">
       <c r="A319" s="3" t="s">
         <v>689</v>
       </c>
@@ -14647,7 +14645,7 @@
       </c>
       <c r="L319" s="11"/>
     </row>
-    <row r="320" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" ht="15.75">
       <c r="A320" s="3" t="s">
         <v>690</v>
       </c>
@@ -14675,7 +14673,7 @@
       </c>
       <c r="L320" s="11"/>
     </row>
-    <row r="321" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" ht="15.75">
       <c r="A321" s="3" t="s">
         <v>694</v>
       </c>
@@ -14703,7 +14701,7 @@
       </c>
       <c r="L321" s="11"/>
     </row>
-    <row r="322" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" ht="15.75">
       <c r="A322" s="3" t="s">
         <v>695</v>
       </c>
@@ -14731,7 +14729,7 @@
       </c>
       <c r="L322" s="11"/>
     </row>
-    <row r="323" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" ht="15.75">
       <c r="A323" s="3" t="s">
         <v>696</v>
       </c>
@@ -14759,7 +14757,7 @@
       </c>
       <c r="L323" s="11"/>
     </row>
-    <row r="324" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" ht="15.75">
       <c r="A324" s="3" t="s">
         <v>700</v>
       </c>
@@ -14787,7 +14785,7 @@
       </c>
       <c r="L324" s="11"/>
     </row>
-    <row r="325" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" ht="15.75">
       <c r="A325" s="3" t="s">
         <v>702</v>
       </c>
@@ -14815,7 +14813,7 @@
       </c>
       <c r="L325" s="11"/>
     </row>
-    <row r="326" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" ht="15.75">
       <c r="A326" s="3" t="s">
         <v>704</v>
       </c>
@@ -14843,7 +14841,7 @@
       </c>
       <c r="L326" s="11"/>
     </row>
-    <row r="327" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" ht="15.75">
       <c r="A327" s="3" t="s">
         <v>705</v>
       </c>
@@ -14871,7 +14869,7 @@
       </c>
       <c r="L327" s="11"/>
     </row>
-    <row r="328" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" ht="15.75">
       <c r="A328" s="3" t="s">
         <v>706</v>
       </c>
@@ -14899,7 +14897,7 @@
       </c>
       <c r="L328" s="11"/>
     </row>
-    <row r="329" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" ht="15.75">
       <c r="A329" s="3" t="s">
         <v>710</v>
       </c>
@@ -14927,7 +14925,7 @@
       </c>
       <c r="L329" s="11"/>
     </row>
-    <row r="330" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" ht="15.75">
       <c r="A330" s="3" t="s">
         <v>711</v>
       </c>
@@ -14955,7 +14953,7 @@
       </c>
       <c r="L330" s="11"/>
     </row>
-    <row r="331" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" ht="15.75">
       <c r="A331" s="3" t="s">
         <v>712</v>
       </c>
@@ -14983,7 +14981,7 @@
       </c>
       <c r="L331" s="11"/>
     </row>
-    <row r="332" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" ht="15.75">
       <c r="A332" s="3" t="s">
         <v>713</v>
       </c>
@@ -15011,7 +15009,7 @@
       </c>
       <c r="L332" s="11"/>
     </row>
-    <row r="333" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" ht="15.75">
       <c r="A333" s="3" t="s">
         <v>714</v>
       </c>
@@ -15039,7 +15037,7 @@
       </c>
       <c r="L333" s="11"/>
     </row>
-    <row r="334" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" ht="15.75">
       <c r="A334" s="3" t="s">
         <v>720</v>
       </c>
@@ -15067,7 +15065,7 @@
       </c>
       <c r="L334" s="11"/>
     </row>
-    <row r="335" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" ht="15.75">
       <c r="A335" s="3" t="s">
         <v>721</v>
       </c>
@@ -15095,7 +15093,7 @@
       </c>
       <c r="L335" s="11"/>
     </row>
-    <row r="336" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" ht="15.75">
       <c r="A336" s="3" t="s">
         <v>722</v>
       </c>
@@ -15123,7 +15121,7 @@
       </c>
       <c r="L336" s="11"/>
     </row>
-    <row r="337" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" ht="15.75">
       <c r="A337" s="3" t="s">
         <v>723</v>
       </c>
@@ -15151,7 +15149,7 @@
       </c>
       <c r="L337" s="11"/>
     </row>
-    <row r="338" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" ht="15.75">
       <c r="A338" s="3" t="s">
         <v>724</v>
       </c>
@@ -15179,7 +15177,7 @@
       </c>
       <c r="L338" s="11"/>
     </row>
-    <row r="339" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" ht="15.75">
       <c r="A339" s="3" t="s">
         <v>730</v>
       </c>
@@ -15207,7 +15205,7 @@
       </c>
       <c r="L339" s="11"/>
     </row>
-    <row r="340" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" ht="15.75">
       <c r="A340" s="3" t="s">
         <v>731</v>
       </c>
@@ -15235,7 +15233,7 @@
       </c>
       <c r="L340" s="11"/>
     </row>
-    <row r="341" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" ht="15.75">
       <c r="A341" s="3" t="s">
         <v>732</v>
       </c>
@@ -15263,7 +15261,7 @@
       </c>
       <c r="L341" s="11"/>
     </row>
-    <row r="342" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" ht="15.75">
       <c r="A342" s="3" t="s">
         <v>733</v>
       </c>
@@ -15291,7 +15289,7 @@
       </c>
       <c r="L342" s="11"/>
     </row>
-    <row r="343" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" ht="15.75">
       <c r="A343" s="3" t="s">
         <v>734</v>
       </c>
@@ -15319,7 +15317,7 @@
       </c>
       <c r="L343" s="11"/>
     </row>
-    <row r="344" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" ht="15.75">
       <c r="A344" s="3" t="s">
         <v>740</v>
       </c>
@@ -15347,7 +15345,7 @@
       </c>
       <c r="L344" s="11"/>
     </row>
-    <row r="345" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" ht="15.75">
       <c r="A345" s="3" t="s">
         <v>741</v>
       </c>
@@ -15375,7 +15373,7 @@
       </c>
       <c r="L345" s="11"/>
     </row>
-    <row r="346" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" ht="15.75">
       <c r="A346" s="3" t="s">
         <v>742</v>
       </c>
@@ -15403,7 +15401,7 @@
       </c>
       <c r="L346" s="11"/>
     </row>
-    <row r="347" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" ht="15.75">
       <c r="A347" s="3" t="s">
         <v>743</v>
       </c>
@@ -15431,7 +15429,7 @@
       </c>
       <c r="L347" s="11"/>
     </row>
-    <row r="348" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" ht="15.75">
       <c r="A348" s="3" t="s">
         <v>744</v>
       </c>
@@ -15459,7 +15457,7 @@
       </c>
       <c r="L348" s="11"/>
     </row>
-    <row r="349" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" ht="15.75">
       <c r="A349" s="3" t="s">
         <v>197</v>
       </c>
@@ -15487,7 +15485,7 @@
       </c>
       <c r="L349" s="11"/>
     </row>
-    <row r="350" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" ht="15.75">
       <c r="A350" s="3" t="s">
         <v>751</v>
       </c>
@@ -15515,7 +15513,7 @@
       </c>
       <c r="L350" s="11"/>
     </row>
-    <row r="351" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" ht="15.75">
       <c r="A351" s="3" t="s">
         <v>753</v>
       </c>
@@ -15543,7 +15541,7 @@
       </c>
       <c r="L351" s="11"/>
     </row>
-    <row r="352" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" ht="15.75">
       <c r="A352" s="3" t="s">
         <v>755</v>
       </c>
@@ -15571,7 +15569,7 @@
       </c>
       <c r="L352" s="11"/>
     </row>
-    <row r="353" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" ht="15.75">
       <c r="A353" s="3" t="s">
         <v>756</v>
       </c>
@@ -15599,7 +15597,7 @@
       </c>
       <c r="L353" s="11"/>
     </row>
-    <row r="354" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" ht="15.75">
       <c r="A354" s="3" t="s">
         <v>759</v>
       </c>
@@ -15627,7 +15625,7 @@
       </c>
       <c r="L354" s="11"/>
     </row>
-    <row r="355" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" ht="15.75">
       <c r="A355" s="3" t="s">
         <v>760</v>
       </c>
@@ -15655,7 +15653,7 @@
       </c>
       <c r="L355" s="11"/>
     </row>
-    <row r="356" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" ht="15.75">
       <c r="A356" s="3" t="s">
         <v>763</v>
       </c>
@@ -15683,7 +15681,7 @@
       </c>
       <c r="L356" s="11"/>
     </row>
-    <row r="357" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" ht="15.75">
       <c r="A357" s="3" t="s">
         <v>764</v>
       </c>
@@ -15711,7 +15709,7 @@
       </c>
       <c r="L357" s="11"/>
     </row>
-    <row r="358" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" ht="15.75">
       <c r="A358" s="3" t="s">
         <v>769</v>
       </c>
@@ -15736,7 +15734,7 @@
       </c>
       <c r="L358" s="11"/>
     </row>
-    <row r="359" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" ht="15.75">
       <c r="A359" s="3" t="s">
         <v>771</v>
       </c>
@@ -15764,7 +15762,7 @@
       </c>
       <c r="L359" s="11"/>
     </row>
-    <row r="360" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" ht="15.75">
       <c r="A360" s="3" t="s">
         <v>774</v>
       </c>
@@ -15792,7 +15790,7 @@
       </c>
       <c r="L360" s="11"/>
     </row>
-    <row r="361" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" ht="15.75">
       <c r="A361" s="3" t="s">
         <v>778</v>
       </c>
@@ -15820,7 +15818,7 @@
       </c>
       <c r="L361" s="11"/>
     </row>
-    <row r="362" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" ht="15.75">
       <c r="A362" s="3" t="s">
         <v>781</v>
       </c>
@@ -15848,7 +15846,7 @@
       </c>
       <c r="L362" s="11"/>
     </row>
-    <row r="363" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" ht="15.75">
       <c r="A363" s="3" t="s">
         <v>784</v>
       </c>
@@ -15876,7 +15874,7 @@
       </c>
       <c r="L363" s="11"/>
     </row>
-    <row r="364" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" ht="15.75">
       <c r="A364" s="3" t="s">
         <v>787</v>
       </c>
@@ -15904,7 +15902,7 @@
       </c>
       <c r="L364" s="11"/>
     </row>
-    <row r="365" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" ht="15.75">
       <c r="A365" s="3" t="s">
         <v>789</v>
       </c>
@@ -15932,7 +15930,7 @@
       </c>
       <c r="L365" s="11"/>
     </row>
-    <row r="366" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" ht="15.75">
       <c r="A366" s="3" t="s">
         <v>792</v>
       </c>
@@ -15960,7 +15958,7 @@
       </c>
       <c r="L366" s="11"/>
     </row>
-    <row r="367" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" ht="15.75">
       <c r="A367" s="3" t="s">
         <v>795</v>
       </c>
@@ -15988,7 +15986,7 @@
       </c>
       <c r="L367" s="11"/>
     </row>
-    <row r="368" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" ht="15.75">
       <c r="A368" s="3" t="s">
         <v>798</v>
       </c>
@@ -16016,7 +16014,7 @@
       </c>
       <c r="L368" s="11"/>
     </row>
-    <row r="369" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" ht="15.75">
       <c r="A369" s="3" t="s">
         <v>802</v>
       </c>
@@ -16047,7 +16045,7 @@
       </c>
       <c r="L369" s="11"/>
     </row>
-    <row r="370" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" ht="15.75">
       <c r="A370" s="3" t="s">
         <v>803</v>
       </c>
@@ -16075,7 +16073,7 @@
       </c>
       <c r="L370" s="11"/>
     </row>
-    <row r="371" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" ht="15.75">
       <c r="A371" s="3" t="s">
         <v>806</v>
       </c>
@@ -16103,7 +16101,7 @@
       </c>
       <c r="L371" s="11"/>
     </row>
-    <row r="372" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" ht="15.75">
       <c r="A372" s="3" t="s">
         <v>809</v>
       </c>
@@ -16131,7 +16129,7 @@
       </c>
       <c r="L372" s="11"/>
     </row>
-    <row r="373" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" ht="15.75">
       <c r="A373" s="3" t="s">
         <v>812</v>
       </c>
@@ -16159,7 +16157,7 @@
       </c>
       <c r="L373" s="11"/>
     </row>
-    <row r="374" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" ht="15.75">
       <c r="A374" s="3" t="s">
         <v>816</v>
       </c>
@@ -16187,7 +16185,7 @@
       </c>
       <c r="L374" s="11"/>
     </row>
-    <row r="375" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" ht="15.75">
       <c r="A375" s="3" t="s">
         <v>817</v>
       </c>
@@ -16215,7 +16213,7 @@
       </c>
       <c r="L375" s="11"/>
     </row>
-    <row r="376" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" ht="15.75">
       <c r="A376" s="3" t="s">
         <v>818</v>
       </c>
@@ -16246,7 +16244,7 @@
       </c>
       <c r="L376" s="11"/>
     </row>
-    <row r="377" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" ht="15.75">
       <c r="A377" s="3" t="s">
         <v>819</v>
       </c>
@@ -16274,7 +16272,7 @@
       </c>
       <c r="L377" s="11"/>
     </row>
-    <row r="378" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" ht="15.75">
       <c r="A378" s="3" t="s">
         <v>820</v>
       </c>
@@ -16302,7 +16300,7 @@
       </c>
       <c r="L378" s="11"/>
     </row>
-    <row r="379" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" ht="15.75">
       <c r="A379" s="3" t="s">
         <v>821</v>
       </c>
@@ -16330,7 +16328,7 @@
       </c>
       <c r="L379" s="11"/>
     </row>
-    <row r="380" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" ht="15.75">
       <c r="A380" s="3" t="s">
         <v>822</v>
       </c>
@@ -16358,7 +16356,7 @@
       </c>
       <c r="L380" s="11"/>
     </row>
-    <row r="381" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" ht="15.75">
       <c r="A381" s="3" t="s">
         <v>831</v>
       </c>
@@ -16386,7 +16384,7 @@
       </c>
       <c r="L381" s="11"/>
     </row>
-    <row r="382" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" ht="15.75">
       <c r="A382" s="3" t="s">
         <v>832</v>
       </c>
@@ -16414,7 +16412,7 @@
       </c>
       <c r="L382" s="11"/>
     </row>
-    <row r="383" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" ht="15.75">
       <c r="A383" s="3" t="s">
         <v>833</v>
       </c>
@@ -16442,7 +16440,7 @@
       </c>
       <c r="L383" s="11"/>
     </row>
-    <row r="384" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" ht="15.75">
       <c r="A384" s="3" t="s">
         <v>834</v>
       </c>
@@ -16470,7 +16468,7 @@
       </c>
       <c r="L384" s="11"/>
     </row>
-    <row r="385" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" ht="15.75">
       <c r="A385" s="3" t="s">
         <v>835</v>
       </c>
@@ -16498,7 +16496,7 @@
       </c>
       <c r="L385" s="11"/>
     </row>
-    <row r="386" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" ht="15.75">
       <c r="A386" s="3" t="s">
         <v>841</v>
       </c>
@@ -16526,7 +16524,7 @@
       </c>
       <c r="L386" s="11"/>
     </row>
-    <row r="387" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" ht="15.75">
       <c r="A387" s="3" t="s">
         <v>845</v>
       </c>
@@ -16554,7 +16552,7 @@
       </c>
       <c r="L387" s="11"/>
     </row>
-    <row r="388" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" ht="15.75">
       <c r="A388" s="3" t="s">
         <v>848</v>
       </c>
@@ -16582,7 +16580,7 @@
       </c>
       <c r="L388" s="11"/>
     </row>
-    <row r="389" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" ht="15.75">
       <c r="A389" s="3" t="s">
         <v>849</v>
       </c>
@@ -16610,7 +16608,7 @@
       </c>
       <c r="L389" s="11"/>
     </row>
-    <row r="390" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" ht="15.75">
       <c r="A390" s="3" t="s">
         <v>850</v>
       </c>
@@ -16638,7 +16636,7 @@
       </c>
       <c r="L390" s="11"/>
     </row>
-    <row r="391" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" ht="15.75">
       <c r="A391" s="3" t="s">
         <v>852</v>
       </c>
@@ -16666,7 +16664,7 @@
       </c>
       <c r="L391" s="11"/>
     </row>
-    <row r="392" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" ht="15.75">
       <c r="A392" s="3" t="s">
         <v>855</v>
       </c>
@@ -16694,7 +16692,7 @@
       </c>
       <c r="L392" s="11"/>
     </row>
-    <row r="393" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" ht="15.75">
       <c r="A393" s="3" t="s">
         <v>201</v>
       </c>
@@ -16722,7 +16720,7 @@
       </c>
       <c r="L393" s="11"/>
     </row>
-    <row r="394" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" ht="15.75">
       <c r="A394" s="3" t="s">
         <v>857</v>
       </c>
@@ -16750,7 +16748,7 @@
       </c>
       <c r="L394" s="11"/>
     </row>
-    <row r="395" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" ht="15.75">
       <c r="A395" s="3" t="s">
         <v>859</v>
       </c>
@@ -16778,7 +16776,7 @@
       </c>
       <c r="L395" s="11"/>
     </row>
-    <row r="396" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" ht="15.75">
       <c r="A396" s="3" t="s">
         <v>862</v>
       </c>
@@ -16806,7 +16804,7 @@
       </c>
       <c r="L396" s="11"/>
     </row>
-    <row r="397" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" ht="15.75">
       <c r="A397" s="3" t="s">
         <v>863</v>
       </c>
@@ -16834,7 +16832,7 @@
       </c>
       <c r="L397" s="11"/>
     </row>
-    <row r="398" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" ht="15.75">
       <c r="A398" s="3" t="s">
         <v>866</v>
       </c>
@@ -16862,7 +16860,7 @@
       </c>
       <c r="L398" s="11"/>
     </row>
-    <row r="399" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" ht="15.75">
       <c r="A399" s="3" t="s">
         <v>868</v>
       </c>
@@ -16890,7 +16888,7 @@
       </c>
       <c r="L399" s="11"/>
     </row>
-    <row r="400" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" ht="15.75">
       <c r="A400" s="3" t="s">
         <v>869</v>
       </c>
@@ -16918,7 +16916,7 @@
       </c>
       <c r="L400" s="11"/>
     </row>
-    <row r="401" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" ht="15.75">
       <c r="A401" s="3" t="s">
         <v>872</v>
       </c>
@@ -16946,7 +16944,7 @@
       </c>
       <c r="L401" s="11"/>
     </row>
-    <row r="402" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" ht="15.75">
       <c r="A402" s="3" t="s">
         <v>874</v>
       </c>
@@ -16977,7 +16975,7 @@
       </c>
       <c r="L402" s="11"/>
     </row>
-    <row r="403" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" ht="15.75">
       <c r="A403" s="3" t="s">
         <v>876</v>
       </c>
@@ -17005,7 +17003,7 @@
       </c>
       <c r="L403" s="11"/>
     </row>
-    <row r="404" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" ht="15.75">
       <c r="A404" s="3" t="s">
         <v>878</v>
       </c>
@@ -17036,7 +17034,7 @@
       </c>
       <c r="L404" s="11"/>
     </row>
-    <row r="405" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" ht="15.75">
       <c r="A405" s="3" t="s">
         <v>880</v>
       </c>
@@ -17064,7 +17062,7 @@
       </c>
       <c r="L405" s="11"/>
     </row>
-    <row r="406" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" ht="15.75">
       <c r="A406" s="3" t="s">
         <v>882</v>
       </c>
@@ -17095,7 +17093,7 @@
       </c>
       <c r="L406" s="11"/>
     </row>
-    <row r="407" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" ht="15.75">
       <c r="A407" s="3" t="s">
         <v>884</v>
       </c>
@@ -17123,7 +17121,7 @@
       </c>
       <c r="L407" s="11"/>
     </row>
-    <row r="408" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" ht="15.75">
       <c r="A408" s="3" t="s">
         <v>886</v>
       </c>
@@ -17151,7 +17149,7 @@
       </c>
       <c r="L408" s="11"/>
     </row>
-    <row r="409" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" ht="15.75">
       <c r="A409" s="3" t="s">
         <v>888</v>
       </c>
@@ -17179,7 +17177,7 @@
       </c>
       <c r="L409" s="11"/>
     </row>
-    <row r="410" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" ht="15.75">
       <c r="A410" s="3" t="s">
         <v>889</v>
       </c>
@@ -17207,7 +17205,7 @@
       </c>
       <c r="L410" s="11"/>
     </row>
-    <row r="411" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" ht="15.75">
       <c r="A411" s="3" t="s">
         <v>890</v>
       </c>
@@ -17235,7 +17233,7 @@
       </c>
       <c r="L411" s="11"/>
     </row>
-    <row r="412" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" ht="15.75">
       <c r="A412" s="3" t="s">
         <v>894</v>
       </c>
@@ -17263,7 +17261,7 @@
       </c>
       <c r="L412" s="11"/>
     </row>
-    <row r="413" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" ht="15.75">
       <c r="A413" s="3" t="s">
         <v>895</v>
       </c>
@@ -17291,7 +17289,7 @@
       </c>
       <c r="L413" s="11"/>
     </row>
-    <row r="414" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" ht="15.75">
       <c r="A414" s="3" t="s">
         <v>896</v>
       </c>
@@ -17319,7 +17317,7 @@
       </c>
       <c r="L414" s="11"/>
     </row>
-    <row r="415" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" ht="15.75">
       <c r="A415" s="3" t="s">
         <v>897</v>
       </c>
@@ -17347,7 +17345,7 @@
       </c>
       <c r="L415" s="11"/>
     </row>
-    <row r="416" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" ht="15.75">
       <c r="A416" s="3" t="s">
         <v>902</v>
       </c>
@@ -17375,7 +17373,7 @@
       </c>
       <c r="L416" s="11"/>
     </row>
-    <row r="417" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="15.75">
       <c r="A417" s="3" t="s">
         <v>903</v>
       </c>
@@ -17403,7 +17401,7 @@
       </c>
       <c r="L417" s="11"/>
     </row>
-    <row r="418" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="15.75">
       <c r="A418" s="3" t="s">
         <v>904</v>
       </c>
@@ -17431,7 +17429,7 @@
       </c>
       <c r="L418" s="11"/>
     </row>
-    <row r="419" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="15.75">
       <c r="A419" s="3" t="s">
         <v>905</v>
       </c>
@@ -17459,7 +17457,7 @@
       </c>
       <c r="L419" s="11"/>
     </row>
-    <row r="420" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="15.75">
       <c r="A420" s="3" t="s">
         <v>910</v>
       </c>
@@ -17487,7 +17485,7 @@
       </c>
       <c r="L420" s="11"/>
     </row>
-    <row r="421" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" ht="15.75">
       <c r="A421" s="3" t="s">
         <v>911</v>
       </c>
@@ -17515,7 +17513,7 @@
       </c>
       <c r="L421" s="11"/>
     </row>
-    <row r="422" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="15.75">
       <c r="A422" s="3" t="s">
         <v>912</v>
       </c>
@@ -17543,7 +17541,7 @@
       </c>
       <c r="L422" s="11"/>
     </row>
-    <row r="423" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="15.75">
       <c r="A423" s="3" t="s">
         <v>913</v>
       </c>
@@ -17571,7 +17569,7 @@
       </c>
       <c r="L423" s="11"/>
     </row>
-    <row r="424" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="15.75">
       <c r="A424" s="3" t="s">
         <v>967</v>
       </c>
@@ -17616,7 +17614,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" ht="15.75">
       <c r="A425" s="3" t="s">
         <v>922</v>
       </c>
@@ -17644,7 +17642,7 @@
       </c>
       <c r="L425" s="11"/>
     </row>
-    <row r="426" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="15.75">
       <c r="A426" s="3" t="s">
         <v>924</v>
       </c>
@@ -17672,7 +17670,7 @@
       </c>
       <c r="L426" s="11"/>
     </row>
-    <row r="427" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="15.75">
       <c r="A427" s="3" t="s">
         <v>926</v>
       </c>
@@ -17700,7 +17698,7 @@
       </c>
       <c r="L427" s="11"/>
     </row>
-    <row r="428" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="15.75">
       <c r="A428" s="3" t="s">
         <v>929</v>
       </c>
@@ -17728,7 +17726,7 @@
       </c>
       <c r="L428" s="11"/>
     </row>
-    <row r="429" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="15.75">
       <c r="A429" s="3" t="s">
         <v>932</v>
       </c>
@@ -17756,7 +17754,7 @@
       </c>
       <c r="L429" s="11"/>
     </row>
-    <row r="430" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="15.75">
       <c r="A430" s="3" t="s">
         <v>935</v>
       </c>
@@ -17791,24 +17789,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrainRoute.xlsx
+++ b/TrainRoute.xlsx
@@ -3062,7 +3062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3071,7 +3071,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3378,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3431,7 +3430,7 @@
       <c r="J1" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>977</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -3449,8 +3448,8 @@
       <c r="P1" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="15.75">
       <c r="A2" s="3" t="s">
@@ -3478,7 +3477,7 @@
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>962</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -3494,8 +3493,8 @@
         <v>963</v>
       </c>
       <c r="Q2" s="3"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
       <c r="A3" s="3" t="s">
@@ -3523,7 +3522,7 @@
       <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -3565,7 +3564,7 @@
       <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -3607,7 +3606,7 @@
       <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -3649,7 +3648,7 @@
       <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -3691,7 +3690,7 @@
       <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -3733,7 +3732,7 @@
       <c r="J8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -3775,7 +3774,7 @@
       <c r="J9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -3817,7 +3816,7 @@
       <c r="J10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -3859,7 +3858,7 @@
       <c r="J11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -3901,7 +3900,7 @@
       <c r="J12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -3943,7 +3942,7 @@
       <c r="J13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -3985,7 +3984,7 @@
       <c r="J14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -4027,7 +4026,7 @@
       <c r="J15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -4069,7 +4068,7 @@
       <c r="J16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -4114,7 +4113,7 @@
       <c r="K17" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -4156,7 +4155,7 @@
       <c r="J18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -4198,7 +4197,7 @@
       <c r="J19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -4240,7 +4239,7 @@
       <c r="J20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -4282,7 +4281,7 @@
       <c r="J21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -4324,7 +4323,7 @@
       <c r="J22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -4366,7 +4365,7 @@
       <c r="J23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -4408,7 +4407,7 @@
       <c r="J24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -4453,7 +4452,7 @@
       <c r="K25" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -4495,7 +4494,7 @@
       <c r="J26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -4537,7 +4536,7 @@
       <c r="J27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -4579,7 +4578,7 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -4621,13 +4620,13 @@
       <c r="J29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N29" s="7" t="s">
+      <c r="L29" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>963</v>
       </c>
       <c r="O29" s="3" t="s">
@@ -4663,13 +4662,13 @@
       <c r="J30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N30" s="7" t="s">
+      <c r="L30" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>962</v>
       </c>
       <c r="O30" s="3" t="s">
@@ -4705,13 +4704,13 @@
       <c r="J31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N31" s="7" t="s">
+      <c r="L31" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>962</v>
       </c>
       <c r="O31" s="3" t="s">
@@ -4747,13 +4746,13 @@
       <c r="J32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N32" s="7" t="s">
+      <c r="L32" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>962</v>
       </c>
       <c r="O32" s="3" t="s">
@@ -4789,13 +4788,13 @@
       <c r="J33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N33" s="7" t="s">
+      <c r="L33" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>962</v>
       </c>
       <c r="O33" s="3" t="s">
@@ -4831,19 +4830,19 @@
       <c r="J34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -4873,7 +4872,7 @@
       <c r="J35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -4915,19 +4914,19 @@
       <c r="J36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O36" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -4957,19 +4956,19 @@
       <c r="J37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="O37" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -4999,19 +4998,19 @@
       <c r="J38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P38" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -5041,19 +5040,19 @@
       <c r="J39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O39" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -5083,19 +5082,19 @@
       <c r="J40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -5128,19 +5127,19 @@
       <c r="K41" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -5170,7 +5169,7 @@
       <c r="J42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M42" s="3" t="s">
@@ -5212,7 +5211,7 @@
       <c r="J43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M43" s="3" t="s">
@@ -5254,7 +5253,7 @@
       <c r="J44" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -5296,7 +5295,7 @@
       <c r="J45" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M45" s="3" t="s">
@@ -5338,7 +5337,7 @@
       <c r="J46" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M46" s="3" t="s">
@@ -5380,7 +5379,7 @@
       <c r="J47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M47" s="3" t="s">
@@ -5422,7 +5421,7 @@
       <c r="J48" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M48" s="3" t="s">
@@ -5464,7 +5463,7 @@
       <c r="J49" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -5506,7 +5505,7 @@
       <c r="J50" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M50" s="3" t="s">
@@ -5548,7 +5547,7 @@
       <c r="J51" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M51" s="3" t="s">
@@ -5590,7 +5589,7 @@
       <c r="J52" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M52" s="3" t="s">
@@ -5632,7 +5631,7 @@
       <c r="J53" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M53" s="3" t="s">
@@ -5674,7 +5673,7 @@
       <c r="J54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M54" s="3" t="s">
@@ -5716,7 +5715,7 @@
       <c r="J55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M55" s="3" t="s">
@@ -5758,7 +5757,7 @@
       <c r="J56" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M56" s="3" t="s">
@@ -5800,7 +5799,7 @@
       <c r="J57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M57" s="3" t="s">
@@ -5842,7 +5841,7 @@
       <c r="J58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M58" s="3" t="s">
@@ -5884,7 +5883,7 @@
       <c r="J59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -5926,7 +5925,7 @@
       <c r="J60" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L60" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M60" s="3" t="s">
@@ -5971,7 +5970,7 @@
       <c r="K61" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="L61" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M61" s="3" t="s">
@@ -6016,7 +6015,7 @@
       <c r="K62" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L62" s="11" t="s">
+      <c r="L62" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M62" s="3" t="s">
@@ -6061,7 +6060,7 @@
       <c r="K63" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M63" s="3" t="s">
@@ -6106,7 +6105,7 @@
       <c r="K64" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L64" s="11" t="s">
+      <c r="L64" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M64" s="3" t="s">
@@ -6151,7 +6150,7 @@
       <c r="K65" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L65" s="11" t="s">
+      <c r="L65" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M65" s="3" t="s">
@@ -6196,7 +6195,7 @@
       <c r="K66" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="L66" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M66" s="3" t="s">
@@ -6241,7 +6240,7 @@
       <c r="K67" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M67" s="3" t="s">
@@ -6286,7 +6285,7 @@
       <c r="K68" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L68" s="11" t="s">
+      <c r="L68" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M68" s="3" t="s">
@@ -6331,7 +6330,7 @@
       <c r="K69" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="L69" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -6376,7 +6375,7 @@
       <c r="K70" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L70" s="11" t="s">
+      <c r="L70" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M70" s="3" t="s">
@@ -6418,7 +6417,7 @@
       <c r="J71" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L71" s="11" t="s">
+      <c r="L71" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M71" s="3" t="s">
@@ -6460,7 +6459,7 @@
       <c r="J72" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L72" s="11" t="s">
+      <c r="L72" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M72" s="3" t="s">
@@ -6502,7 +6501,7 @@
       <c r="J73" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L73" s="11" t="s">
+      <c r="L73" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M73" s="3" t="s">
@@ -6544,7 +6543,7 @@
       <c r="J74" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L74" s="11" t="s">
+      <c r="L74" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M74" s="3" t="s">
@@ -6586,7 +6585,7 @@
       <c r="J75" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L75" s="11" t="s">
+      <c r="L75" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M75" s="3" t="s">
@@ -6628,7 +6627,7 @@
       <c r="J76" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L76" s="11" t="s">
+      <c r="L76" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M76" s="3" t="s">
@@ -6670,7 +6669,7 @@
       <c r="J77" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L77" s="11" t="s">
+      <c r="L77" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M77" s="3" t="s">
@@ -6712,7 +6711,7 @@
       <c r="J78" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L78" s="11" t="s">
+      <c r="L78" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M78" s="3" t="s">
@@ -6754,7 +6753,7 @@
       <c r="J79" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L79" s="11" t="s">
+      <c r="L79" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M79" s="3" t="s">
@@ -6796,7 +6795,7 @@
       <c r="J80" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L80" s="11" t="s">
+      <c r="L80" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M80" s="3" t="s">
@@ -6838,7 +6837,7 @@
       <c r="J81" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M81" s="3" t="s">
@@ -6880,7 +6879,7 @@
       <c r="J82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L82" s="11" t="s">
+      <c r="L82" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M82" s="3" t="s">
@@ -6922,7 +6921,7 @@
       <c r="J83" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L83" s="11" t="s">
+      <c r="L83" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M83" s="3" t="s">
@@ -6964,7 +6963,7 @@
       <c r="J84" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M84" s="3" t="s">
@@ -7006,7 +7005,7 @@
       <c r="J85" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L85" s="11" t="s">
+      <c r="L85" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M85" s="3" t="s">
@@ -7048,7 +7047,7 @@
       <c r="J86" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="L86" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M86" s="3" t="s">
@@ -7090,7 +7089,7 @@
       <c r="J87" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L87" s="11" t="s">
+      <c r="L87" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M87" s="3" t="s">
@@ -7132,7 +7131,7 @@
       <c r="J88" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L88" s="11" t="s">
+      <c r="L88" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M88" s="3" t="s">
@@ -7174,7 +7173,7 @@
       <c r="J89" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L89" s="11" t="s">
+      <c r="L89" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M89" s="3" t="s">
@@ -7216,7 +7215,7 @@
       <c r="J90" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L90" s="11" t="s">
+      <c r="L90" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M90" s="3" t="s">
@@ -7258,10 +7257,10 @@
       <c r="J91" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L91" s="11" t="s">
+      <c r="L91" s="10" t="s">
         <v>961</v>
       </c>
-      <c r="M91" s="7" t="s">
+      <c r="M91" s="6" t="s">
         <v>961</v>
       </c>
       <c r="N91" s="3" t="s">
@@ -7300,10 +7299,10 @@
       <c r="J92" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="10" t="s">
         <v>961</v>
       </c>
-      <c r="M92" s="7" t="s">
+      <c r="M92" s="6" t="s">
         <v>961</v>
       </c>
       <c r="N92" s="3" t="s">
@@ -7342,7 +7341,7 @@
       <c r="J93" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L93" s="11" t="s">
+      <c r="L93" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M93" s="3" t="s">
@@ -7384,10 +7383,10 @@
       <c r="J94" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L94" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M94" s="7" t="s">
+      <c r="L94" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M94" s="6" t="s">
         <v>962</v>
       </c>
       <c r="N94" s="3" t="s">
@@ -7426,16 +7425,16 @@
       <c r="J95" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L95" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M95" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N95" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O95" s="7" t="s">
+      <c r="L95" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O95" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P95" s="3" t="s">
@@ -7468,16 +7467,16 @@
       <c r="J96" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L96" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M96" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N96" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O96" s="7" t="s">
+      <c r="L96" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O96" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P96" s="3" t="s">
@@ -7510,16 +7509,16 @@
       <c r="J97" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L97" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N97" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O97" s="7" t="s">
+      <c r="L97" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O97" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P97" s="3" t="s">
@@ -7552,16 +7551,16 @@
       <c r="J98" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L98" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M98" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N98" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O98" s="7" t="s">
+      <c r="L98" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O98" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P98" s="3" t="s">
@@ -7594,16 +7593,16 @@
       <c r="J99" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L99" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M99" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N99" s="7" t="s">
+      <c r="L99" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N99" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O99" s="7" t="s">
+      <c r="O99" s="6" t="s">
         <v>963</v>
       </c>
       <c r="P99" s="3" t="s">
@@ -7636,16 +7635,16 @@
       <c r="J100" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L100" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M100" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N100" s="7" t="s">
+      <c r="L100" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N100" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O100" s="7" t="s">
+      <c r="O100" s="6" t="s">
         <v>964</v>
       </c>
       <c r="P100" s="3" t="s">
@@ -7678,19 +7677,19 @@
       <c r="J101" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L101" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M101" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N101" s="7" t="s">
+      <c r="L101" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N101" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="O101" s="7" t="s">
+      <c r="O101" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="P101" s="7" t="s">
+      <c r="P101" s="6" t="s">
         <v>963</v>
       </c>
     </row>
@@ -7720,16 +7719,16 @@
       <c r="J102" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="L102" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M102" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N102" s="7" t="s">
+      <c r="L102" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N102" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O102" s="7" t="s">
+      <c r="O102" s="6" t="s">
         <v>963</v>
       </c>
       <c r="P102" s="3" t="s">
@@ -7762,16 +7761,16 @@
       <c r="J103" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L103" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M103" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N103" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O103" s="7" t="s">
+      <c r="L103" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O103" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P103" s="3" t="s">
@@ -7804,16 +7803,16 @@
       <c r="J104" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="L104" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M104" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N104" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O104" s="7" t="s">
+      <c r="L104" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O104" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P104" s="3" t="s">
@@ -7846,16 +7845,16 @@
       <c r="J105" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="L105" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M105" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N105" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O105" s="7" t="s">
+      <c r="L105" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O105" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P105" s="3" t="s">
@@ -7888,16 +7887,16 @@
       <c r="J106" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L106" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M106" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N106" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O106" s="7" t="s">
+      <c r="L106" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O106" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P106" s="3" t="s">
@@ -7933,7 +7932,7 @@
       <c r="K107" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L107" s="11" t="s">
+      <c r="L107" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M107" s="3" t="s">
@@ -7975,7 +7974,7 @@
       <c r="J108" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L108" s="11" t="s">
+      <c r="L108" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M108" s="3" t="s">
@@ -8017,16 +8016,16 @@
       <c r="J109" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L109" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M109" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N109" s="7" t="s">
+      <c r="L109" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N109" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O109" s="7" t="s">
+      <c r="O109" s="6" t="s">
         <v>963</v>
       </c>
       <c r="P109" s="3" t="s">
@@ -8059,7 +8058,7 @@
       <c r="J110" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L110" s="11" t="s">
+      <c r="L110" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M110" s="3" t="s">
@@ -8101,7 +8100,7 @@
       <c r="J111" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L111" s="11" t="s">
+      <c r="L111" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M111" s="3" t="s">
@@ -8143,7 +8142,7 @@
       <c r="J112" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L112" s="11" t="s">
+      <c r="L112" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M112" s="3" t="s">
@@ -8185,7 +8184,7 @@
       <c r="J113" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L113" s="11" t="s">
+      <c r="L113" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M113" s="3" t="s">
@@ -8227,7 +8226,7 @@
       <c r="J114" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L114" s="11" t="s">
+      <c r="L114" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M114" s="3" t="s">
@@ -8269,16 +8268,16 @@
       <c r="J115" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L115" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M115" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N115" s="7" t="s">
+      <c r="L115" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N115" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O115" s="7" t="s">
+      <c r="O115" s="6" t="s">
         <v>963</v>
       </c>
       <c r="P115" s="3" t="s">
@@ -8311,16 +8310,16 @@
       <c r="J116" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L116" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M116" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N116" s="7" t="s">
+      <c r="L116" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N116" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O116" s="7" t="s">
+      <c r="O116" s="6" t="s">
         <v>963</v>
       </c>
       <c r="P116" s="3" t="s">
@@ -8353,7 +8352,7 @@
       <c r="J117" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L117" s="11" t="s">
+      <c r="L117" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M117" s="3" t="s">
@@ -8395,7 +8394,7 @@
       <c r="J118" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L118" s="11" t="s">
+      <c r="L118" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M118" s="3" t="s">
@@ -8437,7 +8436,7 @@
       <c r="J119" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L119" s="11" t="s">
+      <c r="L119" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M119" s="3" t="s">
@@ -8479,7 +8478,7 @@
       <c r="J120" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L120" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M120" s="3" t="s">
@@ -8524,7 +8523,7 @@
       <c r="K121" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="L121" s="11" t="s">
+      <c r="L121" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M121" s="3" t="s">
@@ -8566,7 +8565,7 @@
       <c r="J122" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L122" s="11" t="s">
+      <c r="L122" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M122" s="3" t="s">
@@ -8608,7 +8607,7 @@
       <c r="J123" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L123" s="11" t="s">
+      <c r="L123" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M123" s="3" t="s">
@@ -8650,7 +8649,7 @@
       <c r="J124" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L124" s="11" t="s">
+      <c r="L124" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M124" s="3" t="s">
@@ -8692,7 +8691,7 @@
       <c r="J125" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="L125" s="11" t="s">
+      <c r="L125" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M125" s="3" t="s">
@@ -8734,7 +8733,7 @@
       <c r="J126" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L126" s="11" t="s">
+      <c r="L126" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M126" s="3" t="s">
@@ -8776,7 +8775,7 @@
       <c r="J127" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="L127" s="11" t="s">
+      <c r="L127" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M127" s="3" t="s">
@@ -8818,7 +8817,7 @@
       <c r="J128" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="L128" s="11" t="s">
+      <c r="L128" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M128" s="3" t="s">
@@ -8860,7 +8859,7 @@
       <c r="J129" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L129" s="11" t="s">
+      <c r="L129" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M129" s="3" t="s">
@@ -8902,19 +8901,19 @@
       <c r="J130" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L130" s="11" t="s">
+      <c r="L130" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M130" s="7" t="s">
+      <c r="M130" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N130" s="7" t="s">
+      <c r="N130" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O130" s="7" t="s">
+      <c r="O130" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P130" s="7" t="s">
+      <c r="P130" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -8944,7 +8943,7 @@
       <c r="J131" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L131" s="11" t="s">
+      <c r="L131" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M131" s="3" t="s">
@@ -8986,19 +8985,19 @@
       <c r="J132" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L132" s="11" t="s">
+      <c r="L132" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M132" s="7" t="s">
+      <c r="M132" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N132" s="7" t="s">
+      <c r="N132" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O132" s="7" t="s">
+      <c r="O132" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P132" s="7" t="s">
+      <c r="P132" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -9028,19 +9027,19 @@
       <c r="J133" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L133" s="11" t="s">
+      <c r="L133" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M133" s="7" t="s">
+      <c r="M133" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N133" s="7" t="s">
+      <c r="N133" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O133" s="7" t="s">
+      <c r="O133" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P133" s="7" t="s">
+      <c r="P133" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -9070,19 +9069,19 @@
       <c r="J134" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L134" s="11" t="s">
+      <c r="L134" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M134" s="7" t="s">
+      <c r="M134" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N134" s="7" t="s">
+      <c r="N134" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O134" s="7" t="s">
+      <c r="O134" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P134" s="7" t="s">
+      <c r="P134" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -9112,19 +9111,19 @@
       <c r="J135" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L135" s="11" t="s">
+      <c r="L135" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M135" s="7" t="s">
+      <c r="M135" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N135" s="7" t="s">
+      <c r="N135" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O135" s="7" t="s">
+      <c r="O135" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P135" s="7" t="s">
+      <c r="P135" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -9154,19 +9153,19 @@
       <c r="J136" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L136" s="11" t="s">
+      <c r="L136" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M136" s="7" t="s">
+      <c r="M136" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N136" s="7" t="s">
+      <c r="N136" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O136" s="7" t="s">
+      <c r="O136" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P136" s="7" t="s">
+      <c r="P136" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -9199,19 +9198,19 @@
       <c r="K137" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="L137" s="11" t="s">
+      <c r="L137" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="M137" s="7" t="s">
+      <c r="M137" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N137" s="7" t="s">
+      <c r="N137" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="O137" s="7" t="s">
+      <c r="O137" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="P137" s="7" t="s">
+      <c r="P137" s="6" t="s">
         <v>966</v>
       </c>
     </row>
@@ -9244,10 +9243,10 @@
       <c r="J138" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L138" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M138" s="7" t="s">
+      <c r="L138" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M138" s="6" t="s">
         <v>962</v>
       </c>
       <c r="N138" s="3" t="s">
@@ -9289,13 +9288,13 @@
       <c r="J139" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L139" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M139" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N139" s="7" t="s">
+      <c r="L139" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N139" s="6" t="s">
         <v>963</v>
       </c>
       <c r="O139" s="3" t="s">
@@ -9334,13 +9333,13 @@
       <c r="J140" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L140" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M140" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N140" s="7" t="s">
+      <c r="L140" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N140" s="6" t="s">
         <v>963</v>
       </c>
       <c r="O140" s="3" t="s">
@@ -9379,13 +9378,13 @@
       <c r="J141" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M141" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N141" s="7" t="s">
+      <c r="L141" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N141" s="6" t="s">
         <v>963</v>
       </c>
       <c r="O141" s="3" t="s">
@@ -9424,16 +9423,16 @@
       <c r="J142" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L142" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M142" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N142" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O142" s="7" t="s">
+      <c r="L142" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O142" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P142" s="3" t="s">
@@ -9469,16 +9468,16 @@
       <c r="J143" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L143" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M143" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N143" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O143" s="7" t="s">
+      <c r="L143" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O143" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P143" s="3" t="s">
@@ -9514,16 +9513,16 @@
       <c r="J144" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L144" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M144" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N144" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O144" s="7" t="s">
+      <c r="L144" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O144" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P144" s="3" t="s">
@@ -9559,16 +9558,16 @@
       <c r="J145" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L145" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M145" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N145" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O145" s="7" t="s">
+      <c r="L145" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O145" s="6" t="s">
         <v>962</v>
       </c>
       <c r="P145" s="3" t="s">
@@ -9604,19 +9603,19 @@
       <c r="J146" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L146" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M146" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N146" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O146" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="P146" s="7" t="s">
+      <c r="L146" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P146" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9649,19 +9648,19 @@
       <c r="J147" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L147" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M147" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N147" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O147" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="P147" s="7" t="s">
+      <c r="L147" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P147" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9694,19 +9693,19 @@
       <c r="J148" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L148" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M148" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N148" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O148" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="P148" s="7" t="s">
+      <c r="L148" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M148" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N148" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O148" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P148" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9739,19 +9738,19 @@
       <c r="J149" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L149" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M149" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N149" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O149" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="P149" s="7" t="s">
+      <c r="L149" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N149" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P149" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9784,19 +9783,19 @@
       <c r="J150" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L150" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M150" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N150" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O150" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="P150" s="7" t="s">
+      <c r="L150" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O150" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P150" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9829,19 +9828,19 @@
       <c r="J151" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L151" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M151" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N151" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O151" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="P151" s="7" t="s">
+      <c r="L151" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P151" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9874,19 +9873,19 @@
       <c r="J152" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L152" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M152" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N152" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O152" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="P152" s="7" t="s">
+      <c r="L152" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O152" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P152" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9919,19 +9918,19 @@
       <c r="J153" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L153" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M153" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N153" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="O153" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="P153" s="7" t="s">
+      <c r="L153" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P153" s="6" t="s">
         <v>962</v>
       </c>
     </row>
@@ -9964,16 +9963,16 @@
       <c r="J154" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L154" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M154" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N154" s="7" t="s">
+      <c r="L154" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N154" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O154" s="7" t="s">
+      <c r="O154" s="6" t="s">
         <v>963</v>
       </c>
       <c r="P154" s="3" t="s">
@@ -10009,16 +10008,16 @@
       <c r="J155" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="L155" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M155" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N155" s="7" t="s">
+      <c r="L155" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N155" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O155" s="7" t="s">
+      <c r="O155" s="6" t="s">
         <v>964</v>
       </c>
       <c r="P155" s="3" t="s">
@@ -10054,7 +10053,7 @@
       <c r="J156" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L156" s="11" t="s">
+      <c r="L156" s="10" t="s">
         <v>961</v>
       </c>
       <c r="M156" s="3" t="s">
@@ -10099,16 +10098,16 @@
       <c r="J157" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L157" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="M157" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="N157" s="7" t="s">
+      <c r="L157" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="M157" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="N157" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O157" s="7" t="s">
+      <c r="O157" s="6" t="s">
         <v>963</v>
       </c>
       <c r="P157" s="3" t="s">
@@ -10138,7 +10137,7 @@
       <c r="J158" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="L158" s="11"/>
+      <c r="L158" s="10"/>
     </row>
     <row r="159" spans="1:16" ht="15.75">
       <c r="A159" s="3" t="s">
@@ -10163,7 +10162,7 @@
       <c r="J159" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="L159" s="11"/>
+      <c r="L159" s="10"/>
     </row>
     <row r="160" spans="1:16" ht="15.75">
       <c r="A160" s="3" t="s">
@@ -10191,7 +10190,7 @@
       <c r="J160" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="L160" s="11"/>
+      <c r="L160" s="10"/>
     </row>
     <row r="161" spans="1:12" ht="15.75">
       <c r="A161" s="3" t="s">
@@ -10219,7 +10218,7 @@
       <c r="J161" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L161" s="11"/>
+      <c r="L161" s="10"/>
     </row>
     <row r="162" spans="1:12" ht="15.75">
       <c r="A162" s="3" t="s">
@@ -10247,7 +10246,7 @@
       <c r="J162" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L162" s="11"/>
+      <c r="L162" s="10"/>
     </row>
     <row r="163" spans="1:12" ht="15.75">
       <c r="A163" s="3" t="s">
@@ -10275,7 +10274,7 @@
       <c r="J163" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="L163" s="11"/>
+      <c r="L163" s="10"/>
     </row>
     <row r="164" spans="1:12" ht="15.75">
       <c r="A164" s="3" t="s">
@@ -10303,7 +10302,7 @@
       <c r="J164" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L164" s="11"/>
+      <c r="L164" s="10"/>
     </row>
     <row r="165" spans="1:12" ht="15.75">
       <c r="A165" s="3" t="s">
@@ -10331,7 +10330,7 @@
       <c r="J165" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="L165" s="11"/>
+      <c r="L165" s="10"/>
     </row>
     <row r="166" spans="1:12" ht="15.75">
       <c r="A166" s="3" t="s">
@@ -10359,7 +10358,7 @@
       <c r="J166" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="L166" s="11"/>
+      <c r="L166" s="10"/>
     </row>
     <row r="167" spans="1:12" ht="15.75">
       <c r="A167" s="3" t="s">
@@ -10387,7 +10386,7 @@
       <c r="J167" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L167" s="11"/>
+      <c r="L167" s="10"/>
     </row>
     <row r="168" spans="1:12" ht="15.75">
       <c r="A168" s="3" t="s">
@@ -10415,7 +10414,7 @@
       <c r="J168" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="L168" s="11"/>
+      <c r="L168" s="10"/>
     </row>
     <row r="169" spans="1:12" ht="15.75">
       <c r="A169" s="3" t="s">
@@ -10443,7 +10442,7 @@
       <c r="J169" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="L169" s="11"/>
+      <c r="L169" s="10"/>
     </row>
     <row r="170" spans="1:12" ht="15.75">
       <c r="A170" s="3" t="s">
@@ -10471,7 +10470,7 @@
       <c r="J170" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="L170" s="11"/>
+      <c r="L170" s="10"/>
     </row>
     <row r="171" spans="1:12" ht="15.75">
       <c r="A171" s="3" t="s">
@@ -10499,7 +10498,7 @@
       <c r="J171" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="L171" s="11"/>
+      <c r="L171" s="10"/>
     </row>
     <row r="172" spans="1:12" ht="15.75">
       <c r="A172" s="3" t="s">
@@ -10527,7 +10526,7 @@
       <c r="J172" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="L172" s="11"/>
+      <c r="L172" s="10"/>
     </row>
     <row r="173" spans="1:12" ht="15.75">
       <c r="A173" s="3" t="s">
@@ -10555,7 +10554,7 @@
       <c r="J173" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L173" s="11"/>
+      <c r="L173" s="10"/>
     </row>
     <row r="174" spans="1:12" ht="15.75">
       <c r="A174" s="3" t="s">
@@ -10583,7 +10582,7 @@
       <c r="J174" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L174" s="11"/>
+      <c r="L174" s="10"/>
     </row>
     <row r="175" spans="1:12" ht="15.75">
       <c r="A175" s="3" t="s">
@@ -10611,7 +10610,7 @@
       <c r="J175" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="L175" s="11"/>
+      <c r="L175" s="10"/>
     </row>
     <row r="176" spans="1:12" ht="15.75">
       <c r="A176" s="3" t="s">
@@ -10639,7 +10638,7 @@
       <c r="J176" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L176" s="11"/>
+      <c r="L176" s="10"/>
     </row>
     <row r="177" spans="1:12" ht="15.75">
       <c r="A177" s="3" t="s">
@@ -10667,7 +10666,7 @@
       <c r="J177" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L177" s="11"/>
+      <c r="L177" s="10"/>
     </row>
     <row r="178" spans="1:12" ht="15.75">
       <c r="A178" s="3" t="s">
@@ -10695,7 +10694,7 @@
       <c r="J178" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L178" s="11"/>
+      <c r="L178" s="10"/>
     </row>
     <row r="179" spans="1:12" ht="15.75">
       <c r="A179" s="3" t="s">
@@ -10723,7 +10722,7 @@
       <c r="J179" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L179" s="11"/>
+      <c r="L179" s="10"/>
     </row>
     <row r="180" spans="1:12" ht="15.75">
       <c r="A180" s="3" t="s">
@@ -10751,7 +10750,7 @@
       <c r="J180" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="L180" s="11"/>
+      <c r="L180" s="10"/>
     </row>
     <row r="181" spans="1:12" ht="15.75">
       <c r="A181" s="3" t="s">
@@ -10779,7 +10778,7 @@
       <c r="J181" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="L181" s="11"/>
+      <c r="L181" s="10"/>
     </row>
     <row r="182" spans="1:12" ht="15.75">
       <c r="A182" s="3" t="s">
@@ -10807,7 +10806,7 @@
       <c r="J182" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L182" s="11"/>
+      <c r="L182" s="10"/>
     </row>
     <row r="183" spans="1:12" ht="15.75">
       <c r="A183" s="3" t="s">
@@ -10835,7 +10834,7 @@
       <c r="J183" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L183" s="11"/>
+      <c r="L183" s="10"/>
     </row>
     <row r="184" spans="1:12" ht="15.75">
       <c r="A184" s="3" t="s">
@@ -10863,7 +10862,7 @@
       <c r="J184" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L184" s="11"/>
+      <c r="L184" s="10"/>
     </row>
     <row r="185" spans="1:12" ht="15.75">
       <c r="A185" s="3" t="s">
@@ -10891,7 +10890,7 @@
       <c r="J185" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="L185" s="11"/>
+      <c r="L185" s="10"/>
     </row>
     <row r="186" spans="1:12" ht="15.75">
       <c r="A186" s="3" t="s">
@@ -10919,7 +10918,7 @@
       <c r="J186" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L186" s="11"/>
+      <c r="L186" s="10"/>
     </row>
     <row r="187" spans="1:12" ht="15.75">
       <c r="A187" s="3" t="s">
@@ -10947,7 +10946,7 @@
       <c r="J187" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="L187" s="11"/>
+      <c r="L187" s="10"/>
     </row>
     <row r="188" spans="1:12" ht="15.75">
       <c r="A188" s="3" t="s">
@@ -10975,7 +10974,7 @@
       <c r="J188" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L188" s="11"/>
+      <c r="L188" s="10"/>
     </row>
     <row r="189" spans="1:12" ht="15.75">
       <c r="A189" s="3" t="s">
@@ -11003,7 +11002,7 @@
       <c r="J189" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L189" s="11"/>
+      <c r="L189" s="10"/>
     </row>
     <row r="190" spans="1:12" ht="15.75">
       <c r="A190" s="3" t="s">
@@ -11031,7 +11030,7 @@
       <c r="J190" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L190" s="11"/>
+      <c r="L190" s="10"/>
     </row>
     <row r="191" spans="1:12" ht="15.75">
       <c r="A191" s="3" t="s">
@@ -11059,7 +11058,7 @@
       <c r="J191" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="L191" s="11"/>
+      <c r="L191" s="10"/>
     </row>
     <row r="192" spans="1:12" ht="15.75">
       <c r="A192" s="3" t="s">
@@ -11087,7 +11086,7 @@
       <c r="J192" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="L192" s="11"/>
+      <c r="L192" s="10"/>
     </row>
     <row r="193" spans="1:12" ht="15.75">
       <c r="A193" s="3" t="s">
@@ -11115,7 +11114,7 @@
       <c r="J193" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L193" s="11"/>
+      <c r="L193" s="10"/>
     </row>
     <row r="194" spans="1:12" ht="15.75">
       <c r="A194" s="3" t="s">
@@ -11143,7 +11142,7 @@
       <c r="J194" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="L194" s="11"/>
+      <c r="L194" s="10"/>
     </row>
     <row r="195" spans="1:12" ht="15.75">
       <c r="A195" s="3" t="s">
@@ -11171,7 +11170,7 @@
       <c r="J195" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L195" s="11"/>
+      <c r="L195" s="10"/>
     </row>
     <row r="196" spans="1:12" ht="15.75">
       <c r="A196" s="3" t="s">
@@ -11199,7 +11198,7 @@
       <c r="J196" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="L196" s="11"/>
+      <c r="L196" s="10"/>
     </row>
     <row r="197" spans="1:12" ht="15.75">
       <c r="A197" s="3" t="s">
@@ -11227,7 +11226,7 @@
       <c r="J197" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="L197" s="11"/>
+      <c r="L197" s="10"/>
     </row>
     <row r="198" spans="1:12" ht="15.75">
       <c r="A198" s="3" t="s">
@@ -11255,7 +11254,7 @@
       <c r="J198" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="L198" s="11"/>
+      <c r="L198" s="10"/>
     </row>
     <row r="199" spans="1:12" ht="15.75">
       <c r="A199" s="3" t="s">
@@ -11283,7 +11282,7 @@
       <c r="J199" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L199" s="11"/>
+      <c r="L199" s="10"/>
     </row>
     <row r="200" spans="1:12" ht="15.75">
       <c r="A200" s="3" t="s">
@@ -11311,7 +11310,7 @@
       <c r="J200" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="L200" s="11"/>
+      <c r="L200" s="10"/>
     </row>
     <row r="201" spans="1:12" ht="15.75">
       <c r="A201" s="3" t="s">
@@ -11339,7 +11338,7 @@
       <c r="J201" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="L201" s="11"/>
+      <c r="L201" s="10"/>
     </row>
     <row r="202" spans="1:12" ht="15.75">
       <c r="A202" s="3" t="s">
@@ -11367,7 +11366,7 @@
       <c r="J202" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="L202" s="11"/>
+      <c r="L202" s="10"/>
     </row>
     <row r="203" spans="1:12" ht="15.75">
       <c r="A203" s="3" t="s">
@@ -11395,7 +11394,7 @@
       <c r="J203" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="L203" s="11"/>
+      <c r="L203" s="10"/>
     </row>
     <row r="204" spans="1:12" ht="15.75">
       <c r="A204" s="3" t="s">
@@ -11423,7 +11422,7 @@
       <c r="J204" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="L204" s="11"/>
+      <c r="L204" s="10"/>
     </row>
     <row r="205" spans="1:12" ht="15.75">
       <c r="A205" s="3" t="s">
@@ -11451,7 +11450,7 @@
       <c r="J205" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="L205" s="11"/>
+      <c r="L205" s="10"/>
     </row>
     <row r="206" spans="1:12" ht="15.75">
       <c r="A206" s="3" t="s">
@@ -11479,7 +11478,7 @@
       <c r="J206" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="L206" s="11"/>
+      <c r="L206" s="10"/>
     </row>
     <row r="207" spans="1:12" ht="15.75">
       <c r="A207" s="3" t="s">
@@ -11507,7 +11506,7 @@
       <c r="J207" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="L207" s="11"/>
+      <c r="L207" s="10"/>
     </row>
     <row r="208" spans="1:12" ht="15.75">
       <c r="A208" s="3" t="s">
@@ -11535,7 +11534,7 @@
       <c r="J208" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L208" s="11"/>
+      <c r="L208" s="10"/>
     </row>
     <row r="209" spans="1:12" ht="15.75">
       <c r="A209" s="3" t="s">
@@ -11563,7 +11562,7 @@
       <c r="J209" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L209" s="11"/>
+      <c r="L209" s="10"/>
     </row>
     <row r="210" spans="1:12" ht="15.75">
       <c r="A210" s="3" t="s">
@@ -11591,7 +11590,7 @@
       <c r="J210" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="L210" s="11"/>
+      <c r="L210" s="10"/>
     </row>
     <row r="211" spans="1:12" ht="15.75">
       <c r="A211" s="3" t="s">
@@ -11619,7 +11618,7 @@
       <c r="J211" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="L211" s="11"/>
+      <c r="L211" s="10"/>
     </row>
     <row r="212" spans="1:12" ht="15.75">
       <c r="A212" s="3" t="s">
@@ -11647,7 +11646,7 @@
       <c r="J212" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L212" s="11"/>
+      <c r="L212" s="10"/>
     </row>
     <row r="213" spans="1:12" ht="15.75">
       <c r="A213" s="3" t="s">
@@ -11675,7 +11674,7 @@
       <c r="J213" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L213" s="11"/>
+      <c r="L213" s="10"/>
     </row>
     <row r="214" spans="1:12" ht="15.75">
       <c r="A214" s="3" t="s">
@@ -11703,7 +11702,7 @@
       <c r="J214" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="L214" s="11"/>
+      <c r="L214" s="10"/>
     </row>
     <row r="215" spans="1:12" ht="15.75">
       <c r="A215" s="3" t="s">
@@ -11731,7 +11730,7 @@
       <c r="J215" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="L215" s="11"/>
+      <c r="L215" s="10"/>
     </row>
     <row r="216" spans="1:12" ht="15.75">
       <c r="A216" s="3" t="s">
@@ -11759,7 +11758,7 @@
       <c r="J216" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L216" s="11"/>
+      <c r="L216" s="10"/>
     </row>
     <row r="217" spans="1:12" ht="15.75">
       <c r="A217" s="3" t="s">
@@ -11787,7 +11786,7 @@
       <c r="J217" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L217" s="11"/>
+      <c r="L217" s="10"/>
     </row>
     <row r="218" spans="1:12" ht="15.75">
       <c r="A218" s="3" t="s">
@@ -11815,7 +11814,7 @@
       <c r="J218" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="L218" s="11"/>
+      <c r="L218" s="10"/>
     </row>
     <row r="219" spans="1:12" ht="15.75">
       <c r="A219" s="3" t="s">
@@ -11843,7 +11842,7 @@
       <c r="J219" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="L219" s="11"/>
+      <c r="L219" s="10"/>
     </row>
     <row r="220" spans="1:12" ht="15.75">
       <c r="A220" s="3" t="s">
@@ -11871,7 +11870,7 @@
       <c r="J220" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="L220" s="11"/>
+      <c r="L220" s="10"/>
     </row>
     <row r="221" spans="1:12" ht="15.75">
       <c r="A221" s="3" t="s">
@@ -11899,7 +11898,7 @@
       <c r="J221" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="L221" s="11"/>
+      <c r="L221" s="10"/>
     </row>
     <row r="222" spans="1:12" ht="15.75">
       <c r="A222" s="3" t="s">
@@ -11927,7 +11926,7 @@
       <c r="J222" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="L222" s="11"/>
+      <c r="L222" s="10"/>
     </row>
     <row r="223" spans="1:12" ht="15.75">
       <c r="A223" s="3" t="s">
@@ -11955,7 +11954,7 @@
       <c r="J223" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="L223" s="11"/>
+      <c r="L223" s="10"/>
     </row>
     <row r="224" spans="1:12" ht="15.75">
       <c r="A224" s="3" t="s">
@@ -11983,7 +11982,7 @@
       <c r="J224" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="L224" s="11"/>
+      <c r="L224" s="10"/>
     </row>
     <row r="225" spans="1:12" ht="15.75">
       <c r="A225" s="3" t="s">
@@ -12011,7 +12010,7 @@
       <c r="J225" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="L225" s="11"/>
+      <c r="L225" s="10"/>
     </row>
     <row r="226" spans="1:12" ht="15.75">
       <c r="A226" s="3" t="s">
@@ -12039,7 +12038,7 @@
       <c r="J226" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="L226" s="11"/>
+      <c r="L226" s="10"/>
     </row>
     <row r="227" spans="1:12" ht="15.75">
       <c r="A227" s="3" t="s">
@@ -12067,7 +12066,7 @@
       <c r="J227" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L227" s="11"/>
+      <c r="L227" s="10"/>
     </row>
     <row r="228" spans="1:12" ht="15.75">
       <c r="A228" s="3" t="s">
@@ -12095,7 +12094,7 @@
       <c r="J228" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L228" s="11"/>
+      <c r="L228" s="10"/>
     </row>
     <row r="229" spans="1:12" ht="15.75">
       <c r="A229" s="3" t="s">
@@ -12123,7 +12122,7 @@
       <c r="J229" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="L229" s="11"/>
+      <c r="L229" s="10"/>
     </row>
     <row r="230" spans="1:12" ht="15.75">
       <c r="A230" s="3" t="s">
@@ -12151,7 +12150,7 @@
       <c r="J230" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="L230" s="11"/>
+      <c r="L230" s="10"/>
     </row>
     <row r="231" spans="1:12" ht="15.75">
       <c r="A231" s="3" t="s">
@@ -12179,7 +12178,7 @@
       <c r="J231" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L231" s="11"/>
+      <c r="L231" s="10"/>
     </row>
     <row r="232" spans="1:12" ht="15.75">
       <c r="A232" s="3" t="s">
@@ -12207,7 +12206,7 @@
       <c r="J232" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L232" s="11"/>
+      <c r="L232" s="10"/>
     </row>
     <row r="233" spans="1:12" ht="15.75">
       <c r="A233" s="3" t="s">
@@ -12235,7 +12234,7 @@
       <c r="J233" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="L233" s="11"/>
+      <c r="L233" s="10"/>
     </row>
     <row r="234" spans="1:12" ht="15.75">
       <c r="A234" s="3" t="s">
@@ -12263,7 +12262,7 @@
       <c r="J234" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="L234" s="11"/>
+      <c r="L234" s="10"/>
     </row>
     <row r="235" spans="1:12" ht="15.75">
       <c r="A235" s="3" t="s">
@@ -12291,7 +12290,7 @@
       <c r="J235" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="L235" s="11"/>
+      <c r="L235" s="10"/>
     </row>
     <row r="236" spans="1:12" ht="15.75">
       <c r="A236" s="3" t="s">
@@ -12319,7 +12318,7 @@
       <c r="J236" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L236" s="11"/>
+      <c r="L236" s="10"/>
     </row>
     <row r="237" spans="1:12" ht="15.75">
       <c r="A237" s="3" t="s">
@@ -12347,7 +12346,7 @@
       <c r="J237" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L237" s="11"/>
+      <c r="L237" s="10"/>
     </row>
     <row r="238" spans="1:12" ht="15.75">
       <c r="A238" s="3" t="s">
@@ -12375,7 +12374,7 @@
       <c r="J238" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="L238" s="11"/>
+      <c r="L238" s="10"/>
     </row>
     <row r="239" spans="1:12" ht="15.75">
       <c r="A239" s="3" t="s">
@@ -12403,7 +12402,7 @@
       <c r="J239" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="L239" s="11"/>
+      <c r="L239" s="10"/>
     </row>
     <row r="240" spans="1:12" ht="15.75">
       <c r="A240" s="3" t="s">
@@ -12431,7 +12430,7 @@
       <c r="J240" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="L240" s="11"/>
+      <c r="L240" s="10"/>
     </row>
     <row r="241" spans="1:12" ht="15.75">
       <c r="A241" s="3" t="s">
@@ -12459,7 +12458,7 @@
       <c r="J241" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="L241" s="11"/>
+      <c r="L241" s="10"/>
     </row>
     <row r="242" spans="1:12" ht="15.75">
       <c r="A242" s="3" t="s">
@@ -12487,7 +12486,7 @@
       <c r="J242" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="L242" s="11"/>
+      <c r="L242" s="10"/>
     </row>
     <row r="243" spans="1:12" ht="15.75">
       <c r="A243" s="3" t="s">
@@ -12515,7 +12514,7 @@
       <c r="J243" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L243" s="11"/>
+      <c r="L243" s="10"/>
     </row>
     <row r="244" spans="1:12" ht="15.75">
       <c r="A244" s="3" t="s">
@@ -12543,7 +12542,7 @@
       <c r="J244" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L244" s="11"/>
+      <c r="L244" s="10"/>
     </row>
     <row r="245" spans="1:12" ht="15.75">
       <c r="A245" s="3" t="s">
@@ -12571,7 +12570,7 @@
       <c r="J245" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="L245" s="11"/>
+      <c r="L245" s="10"/>
     </row>
     <row r="246" spans="1:12" ht="15.75">
       <c r="A246" s="3" t="s">
@@ -12599,7 +12598,7 @@
       <c r="J246" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="L246" s="11"/>
+      <c r="L246" s="10"/>
     </row>
     <row r="247" spans="1:12" ht="15.75">
       <c r="A247" s="3" t="s">
@@ -12627,7 +12626,7 @@
       <c r="J247" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="L247" s="11"/>
+      <c r="L247" s="10"/>
     </row>
     <row r="248" spans="1:12" ht="15.75">
       <c r="A248" s="3" t="s">
@@ -12655,7 +12654,7 @@
       <c r="J248" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="L248" s="11"/>
+      <c r="L248" s="10"/>
     </row>
     <row r="249" spans="1:12" ht="15.75">
       <c r="A249" s="3" t="s">
@@ -12683,7 +12682,7 @@
       <c r="J249" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="L249" s="11"/>
+      <c r="L249" s="10"/>
     </row>
     <row r="250" spans="1:12" ht="15.75">
       <c r="A250" s="3" t="s">
@@ -12711,7 +12710,7 @@
       <c r="J250" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L250" s="11"/>
+      <c r="L250" s="10"/>
     </row>
     <row r="251" spans="1:12" ht="15.75">
       <c r="A251" s="3" t="s">
@@ -12739,7 +12738,7 @@
       <c r="J251" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L251" s="11"/>
+      <c r="L251" s="10"/>
     </row>
     <row r="252" spans="1:12" ht="15.75">
       <c r="A252" s="3" t="s">
@@ -12767,7 +12766,7 @@
       <c r="J252" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L252" s="11"/>
+      <c r="L252" s="10"/>
     </row>
     <row r="253" spans="1:12" ht="15.75">
       <c r="A253" s="3" t="s">
@@ -12795,7 +12794,7 @@
       <c r="J253" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L253" s="11"/>
+      <c r="L253" s="10"/>
     </row>
     <row r="254" spans="1:12" ht="15.75">
       <c r="A254" s="3" t="s">
@@ -12823,7 +12822,7 @@
       <c r="J254" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L254" s="11"/>
+      <c r="L254" s="10"/>
     </row>
     <row r="255" spans="1:12" ht="15.75">
       <c r="A255" s="3" t="s">
@@ -12851,7 +12850,7 @@
       <c r="J255" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="L255" s="11"/>
+      <c r="L255" s="10"/>
     </row>
     <row r="256" spans="1:12" ht="15.75">
       <c r="A256" s="3" t="s">
@@ -12879,7 +12878,7 @@
       <c r="J256" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="L256" s="11"/>
+      <c r="L256" s="10"/>
     </row>
     <row r="257" spans="1:12" ht="15.75">
       <c r="A257" s="3" t="s">
@@ -12907,7 +12906,7 @@
       <c r="J257" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L257" s="11"/>
+      <c r="L257" s="10"/>
     </row>
     <row r="258" spans="1:12" ht="15.75">
       <c r="A258" s="3" t="s">
@@ -12935,7 +12934,7 @@
       <c r="J258" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L258" s="11"/>
+      <c r="L258" s="10"/>
     </row>
     <row r="259" spans="1:12" ht="15.75">
       <c r="A259" s="3" t="s">
@@ -12963,7 +12962,7 @@
       <c r="J259" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L259" s="11"/>
+      <c r="L259" s="10"/>
     </row>
     <row r="260" spans="1:12" ht="15.75">
       <c r="A260" s="3" t="s">
@@ -12991,7 +12990,7 @@
       <c r="J260" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L260" s="11"/>
+      <c r="L260" s="10"/>
     </row>
     <row r="261" spans="1:12" ht="15.75">
       <c r="A261" s="3" t="s">
@@ -13019,7 +13018,7 @@
       <c r="J261" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L261" s="11"/>
+      <c r="L261" s="10"/>
     </row>
     <row r="262" spans="1:12" ht="15.75">
       <c r="A262" s="3" t="s">
@@ -13047,7 +13046,7 @@
       <c r="J262" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L262" s="11"/>
+      <c r="L262" s="10"/>
     </row>
     <row r="263" spans="1:12" ht="15.75">
       <c r="A263" s="3" t="s">
@@ -13075,7 +13074,7 @@
       <c r="J263" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L263" s="11"/>
+      <c r="L263" s="10"/>
     </row>
     <row r="264" spans="1:12" ht="15.75">
       <c r="A264" s="3" t="s">
@@ -13103,7 +13102,7 @@
       <c r="J264" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L264" s="11"/>
+      <c r="L264" s="10"/>
     </row>
     <row r="265" spans="1:12" ht="15.75">
       <c r="A265" s="3" t="s">
@@ -13131,7 +13130,7 @@
       <c r="J265" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L265" s="11"/>
+      <c r="L265" s="10"/>
     </row>
     <row r="266" spans="1:12" ht="15.75">
       <c r="A266" s="3" t="s">
@@ -13159,7 +13158,7 @@
       <c r="J266" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L266" s="11"/>
+      <c r="L266" s="10"/>
     </row>
     <row r="267" spans="1:12" ht="15.75">
       <c r="A267" s="3" t="s">
@@ -13187,7 +13186,7 @@
       <c r="J267" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L267" s="11"/>
+      <c r="L267" s="10"/>
     </row>
     <row r="268" spans="1:12" ht="15.75">
       <c r="A268" s="3" t="s">
@@ -13215,7 +13214,7 @@
       <c r="J268" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L268" s="11"/>
+      <c r="L268" s="10"/>
     </row>
     <row r="269" spans="1:12" ht="15.75">
       <c r="A269" s="3" t="s">
@@ -13243,7 +13242,7 @@
       <c r="J269" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L269" s="11"/>
+      <c r="L269" s="10"/>
     </row>
     <row r="270" spans="1:12" ht="15.75">
       <c r="A270" s="3" t="s">
@@ -13271,7 +13270,7 @@
       <c r="J270" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L270" s="11"/>
+      <c r="L270" s="10"/>
     </row>
     <row r="271" spans="1:12" ht="15.75">
       <c r="A271" s="3" t="s">
@@ -13299,7 +13298,7 @@
       <c r="J271" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L271" s="11"/>
+      <c r="L271" s="10"/>
     </row>
     <row r="272" spans="1:12" ht="15.75">
       <c r="A272" s="3" t="s">
@@ -13327,7 +13326,7 @@
       <c r="J272" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L272" s="11"/>
+      <c r="L272" s="10"/>
     </row>
     <row r="273" spans="1:12" ht="15.75">
       <c r="A273" s="3" t="s">
@@ -13355,7 +13354,7 @@
       <c r="J273" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L273" s="11"/>
+      <c r="L273" s="10"/>
     </row>
     <row r="274" spans="1:12" ht="15.75">
       <c r="A274" s="3" t="s">
@@ -13383,7 +13382,7 @@
       <c r="J274" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="L274" s="11"/>
+      <c r="L274" s="10"/>
     </row>
     <row r="275" spans="1:12" ht="15.75">
       <c r="A275" s="3" t="s">
@@ -13411,7 +13410,7 @@
       <c r="J275" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L275" s="11"/>
+      <c r="L275" s="10"/>
     </row>
     <row r="276" spans="1:12" ht="15.75">
       <c r="A276" s="3" t="s">
@@ -13439,7 +13438,7 @@
       <c r="J276" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="L276" s="11"/>
+      <c r="L276" s="10"/>
     </row>
     <row r="277" spans="1:12" ht="15.75">
       <c r="A277" s="3" t="s">
@@ -13467,7 +13466,7 @@
       <c r="J277" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L277" s="11"/>
+      <c r="L277" s="10"/>
     </row>
     <row r="278" spans="1:12" ht="15.75">
       <c r="A278" s="3" t="s">
@@ -13495,7 +13494,7 @@
       <c r="J278" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="L278" s="11"/>
+      <c r="L278" s="10"/>
     </row>
     <row r="279" spans="1:12" ht="15.75">
       <c r="A279" s="3" t="s">
@@ -13523,7 +13522,7 @@
       <c r="J279" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L279" s="11"/>
+      <c r="L279" s="10"/>
     </row>
     <row r="280" spans="1:12" ht="15.75">
       <c r="A280" s="3" t="s">
@@ -13551,7 +13550,7 @@
       <c r="J280" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L280" s="11"/>
+      <c r="L280" s="10"/>
     </row>
     <row r="281" spans="1:12" ht="15.75">
       <c r="A281" s="3" t="s">
@@ -13579,7 +13578,7 @@
       <c r="J281" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L281" s="11"/>
+      <c r="L281" s="10"/>
     </row>
     <row r="282" spans="1:12" ht="15.75">
       <c r="A282" s="3" t="s">
@@ -13607,7 +13606,7 @@
       <c r="J282" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="L282" s="11"/>
+      <c r="L282" s="10"/>
     </row>
     <row r="283" spans="1:12" ht="15.75">
       <c r="A283" s="3" t="s">
@@ -13635,7 +13634,7 @@
       <c r="J283" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="L283" s="11"/>
+      <c r="L283" s="10"/>
     </row>
     <row r="284" spans="1:12" ht="15.75">
       <c r="A284" s="3" t="s">
@@ -13663,7 +13662,7 @@
       <c r="J284" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="L284" s="11"/>
+      <c r="L284" s="10"/>
     </row>
     <row r="285" spans="1:12" ht="15.75">
       <c r="A285" s="3" t="s">
@@ -13691,7 +13690,7 @@
       <c r="J285" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="L285" s="11"/>
+      <c r="L285" s="10"/>
     </row>
     <row r="286" spans="1:12" ht="15.75">
       <c r="A286" s="3" t="s">
@@ -13719,7 +13718,7 @@
       <c r="J286" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="L286" s="11"/>
+      <c r="L286" s="10"/>
     </row>
     <row r="287" spans="1:12" ht="15.75">
       <c r="A287" s="3" t="s">
@@ -13747,7 +13746,7 @@
       <c r="J287" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="L287" s="11"/>
+      <c r="L287" s="10"/>
     </row>
     <row r="288" spans="1:12" ht="15.75">
       <c r="A288" s="3" t="s">
@@ -13775,7 +13774,7 @@
       <c r="J288" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L288" s="11"/>
+      <c r="L288" s="10"/>
     </row>
     <row r="289" spans="1:12" ht="15.75">
       <c r="A289" s="3" t="s">
@@ -13803,7 +13802,7 @@
       <c r="J289" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L289" s="11"/>
+      <c r="L289" s="10"/>
     </row>
     <row r="290" spans="1:12" ht="15.75">
       <c r="A290" s="3" t="s">
@@ -13831,7 +13830,7 @@
       <c r="J290" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="L290" s="11"/>
+      <c r="L290" s="10"/>
     </row>
     <row r="291" spans="1:12" ht="15.75">
       <c r="A291" s="3" t="s">
@@ -13859,7 +13858,7 @@
       <c r="J291" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="L291" s="11"/>
+      <c r="L291" s="10"/>
     </row>
     <row r="292" spans="1:12" ht="15.75">
       <c r="A292" s="3" t="s">
@@ -13887,7 +13886,7 @@
       <c r="J292" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L292" s="11"/>
+      <c r="L292" s="10"/>
     </row>
     <row r="293" spans="1:12" ht="15.75">
       <c r="A293" s="3" t="s">
@@ -13915,7 +13914,7 @@
       <c r="J293" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L293" s="11"/>
+      <c r="L293" s="10"/>
     </row>
     <row r="294" spans="1:12" ht="15.75">
       <c r="A294" s="3" t="s">
@@ -13943,7 +13942,7 @@
       <c r="J294" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L294" s="11"/>
+      <c r="L294" s="10"/>
     </row>
     <row r="295" spans="1:12" ht="15.75">
       <c r="A295" s="3" t="s">
@@ -13971,7 +13970,7 @@
       <c r="J295" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="L295" s="11"/>
+      <c r="L295" s="10"/>
     </row>
     <row r="296" spans="1:12" ht="15.75">
       <c r="A296" s="3" t="s">
@@ -13999,7 +13998,7 @@
       <c r="J296" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="L296" s="11"/>
+      <c r="L296" s="10"/>
     </row>
     <row r="297" spans="1:12" ht="15.75">
       <c r="A297" s="3" t="s">
@@ -14027,7 +14026,7 @@
       <c r="J297" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L297" s="11"/>
+      <c r="L297" s="10"/>
     </row>
     <row r="298" spans="1:12" ht="15.75">
       <c r="A298" s="3" t="s">
@@ -14055,7 +14054,7 @@
       <c r="J298" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L298" s="11"/>
+      <c r="L298" s="10"/>
     </row>
     <row r="299" spans="1:12" ht="15.75">
       <c r="A299" s="3" t="s">
@@ -14083,7 +14082,7 @@
       <c r="J299" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="L299" s="11"/>
+      <c r="L299" s="10"/>
     </row>
     <row r="300" spans="1:12" ht="15.75">
       <c r="A300" s="3" t="s">
@@ -14111,7 +14110,7 @@
       <c r="J300" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="L300" s="11"/>
+      <c r="L300" s="10"/>
     </row>
     <row r="301" spans="1:12" ht="15.75">
       <c r="A301" s="3" t="s">
@@ -14139,7 +14138,7 @@
       <c r="J301" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L301" s="11"/>
+      <c r="L301" s="10"/>
     </row>
     <row r="302" spans="1:12" ht="15.75">
       <c r="A302" s="3" t="s">
@@ -14167,7 +14166,7 @@
       <c r="J302" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L302" s="11"/>
+      <c r="L302" s="10"/>
     </row>
     <row r="303" spans="1:12" ht="15.75">
       <c r="A303" s="3" t="s">
@@ -14195,7 +14194,7 @@
       <c r="J303" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L303" s="11"/>
+      <c r="L303" s="10"/>
     </row>
     <row r="304" spans="1:12" ht="15.75">
       <c r="A304" s="3" t="s">
@@ -14223,7 +14222,7 @@
       <c r="J304" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L304" s="11"/>
+      <c r="L304" s="10"/>
     </row>
     <row r="305" spans="1:12" ht="15.75">
       <c r="A305" s="3" t="s">
@@ -14251,7 +14250,7 @@
       <c r="J305" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="L305" s="11"/>
+      <c r="L305" s="10"/>
     </row>
     <row r="306" spans="1:12" ht="15.75">
       <c r="A306" s="3" t="s">
@@ -14279,7 +14278,7 @@
       <c r="J306" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L306" s="11"/>
+      <c r="L306" s="10"/>
     </row>
     <row r="307" spans="1:12" ht="15.75">
       <c r="A307" s="3" t="s">
@@ -14307,7 +14306,7 @@
       <c r="J307" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L307" s="11"/>
+      <c r="L307" s="10"/>
     </row>
     <row r="308" spans="1:12" ht="15.75">
       <c r="A308" s="3" t="s">
@@ -14335,7 +14334,7 @@
       <c r="J308" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="L308" s="11"/>
+      <c r="L308" s="10"/>
     </row>
     <row r="309" spans="1:12" ht="15.75">
       <c r="A309" s="3" t="s">
@@ -14363,7 +14362,7 @@
       <c r="J309" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="L309" s="11"/>
+      <c r="L309" s="10"/>
     </row>
     <row r="310" spans="1:12" ht="15.75">
       <c r="A310" s="3" t="s">
@@ -14391,7 +14390,7 @@
       <c r="J310" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L310" s="11"/>
+      <c r="L310" s="10"/>
     </row>
     <row r="311" spans="1:12" ht="15.75">
       <c r="A311" s="3" t="s">
@@ -14419,7 +14418,7 @@
       <c r="J311" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L311" s="11"/>
+      <c r="L311" s="10"/>
     </row>
     <row r="312" spans="1:12" ht="15.75">
       <c r="A312" s="3" t="s">
@@ -14447,7 +14446,7 @@
       <c r="J312" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L312" s="11"/>
+      <c r="L312" s="10"/>
     </row>
     <row r="313" spans="1:12" ht="15.75">
       <c r="A313" s="3" t="s">
@@ -14475,7 +14474,7 @@
       <c r="J313" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="L313" s="11"/>
+      <c r="L313" s="10"/>
     </row>
     <row r="314" spans="1:12" ht="15.75">
       <c r="A314" s="3" t="s">
@@ -14503,7 +14502,7 @@
       <c r="J314" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L314" s="11"/>
+      <c r="L314" s="10"/>
     </row>
     <row r="315" spans="1:12" ht="15.75">
       <c r="A315" s="3" t="s">
@@ -14531,7 +14530,7 @@
       <c r="J315" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L315" s="11"/>
+      <c r="L315" s="10"/>
     </row>
     <row r="316" spans="1:12" ht="15.75">
       <c r="A316" s="3" t="s">
@@ -14559,7 +14558,7 @@
       <c r="J316" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L316" s="11"/>
+      <c r="L316" s="10"/>
     </row>
     <row r="317" spans="1:12" ht="15.75">
       <c r="A317" s="3" t="s">
@@ -14587,7 +14586,7 @@
       <c r="J317" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="L317" s="11"/>
+      <c r="L317" s="10"/>
     </row>
     <row r="318" spans="1:12" ht="15.75">
       <c r="A318" s="3" t="s">
@@ -14615,7 +14614,7 @@
       <c r="J318" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L318" s="11"/>
+      <c r="L318" s="10"/>
     </row>
     <row r="319" spans="1:12" ht="15.75">
       <c r="A319" s="3" t="s">
@@ -14643,7 +14642,7 @@
       <c r="J319" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L319" s="11"/>
+      <c r="L319" s="10"/>
     </row>
     <row r="320" spans="1:12" ht="15.75">
       <c r="A320" s="3" t="s">
@@ -14671,7 +14670,7 @@
       <c r="J320" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L320" s="11"/>
+      <c r="L320" s="10"/>
     </row>
     <row r="321" spans="1:12" ht="15.75">
       <c r="A321" s="3" t="s">
@@ -14699,7 +14698,7 @@
       <c r="J321" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L321" s="11"/>
+      <c r="L321" s="10"/>
     </row>
     <row r="322" spans="1:12" ht="15.75">
       <c r="A322" s="3" t="s">
@@ -14727,7 +14726,7 @@
       <c r="J322" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L322" s="11"/>
+      <c r="L322" s="10"/>
     </row>
     <row r="323" spans="1:12" ht="15.75">
       <c r="A323" s="3" t="s">
@@ -14755,7 +14754,7 @@
       <c r="J323" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L323" s="11"/>
+      <c r="L323" s="10"/>
     </row>
     <row r="324" spans="1:12" ht="15.75">
       <c r="A324" s="3" t="s">
@@ -14783,7 +14782,7 @@
       <c r="J324" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="L324" s="11"/>
+      <c r="L324" s="10"/>
     </row>
     <row r="325" spans="1:12" ht="15.75">
       <c r="A325" s="3" t="s">
@@ -14811,7 +14810,7 @@
       <c r="J325" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="L325" s="11"/>
+      <c r="L325" s="10"/>
     </row>
     <row r="326" spans="1:12" ht="15.75">
       <c r="A326" s="3" t="s">
@@ -14839,7 +14838,7 @@
       <c r="J326" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L326" s="11"/>
+      <c r="L326" s="10"/>
     </row>
     <row r="327" spans="1:12" ht="15.75">
       <c r="A327" s="3" t="s">
@@ -14867,7 +14866,7 @@
       <c r="J327" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L327" s="11"/>
+      <c r="L327" s="10"/>
     </row>
     <row r="328" spans="1:12" ht="15.75">
       <c r="A328" s="3" t="s">
@@ -14895,7 +14894,7 @@
       <c r="J328" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L328" s="11"/>
+      <c r="L328" s="10"/>
     </row>
     <row r="329" spans="1:12" ht="15.75">
       <c r="A329" s="3" t="s">
@@ -14923,7 +14922,7 @@
       <c r="J329" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="L329" s="11"/>
+      <c r="L329" s="10"/>
     </row>
     <row r="330" spans="1:12" ht="15.75">
       <c r="A330" s="3" t="s">
@@ -14951,7 +14950,7 @@
       <c r="J330" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="L330" s="11"/>
+      <c r="L330" s="10"/>
     </row>
     <row r="331" spans="1:12" ht="15.75">
       <c r="A331" s="3" t="s">
@@ -14979,7 +14978,7 @@
       <c r="J331" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L331" s="11"/>
+      <c r="L331" s="10"/>
     </row>
     <row r="332" spans="1:12" ht="15.75">
       <c r="A332" s="3" t="s">
@@ -15007,7 +15006,7 @@
       <c r="J332" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L332" s="11"/>
+      <c r="L332" s="10"/>
     </row>
     <row r="333" spans="1:12" ht="15.75">
       <c r="A333" s="3" t="s">
@@ -15035,7 +15034,7 @@
       <c r="J333" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L333" s="11"/>
+      <c r="L333" s="10"/>
     </row>
     <row r="334" spans="1:12" ht="15.75">
       <c r="A334" s="3" t="s">
@@ -15063,7 +15062,7 @@
       <c r="J334" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="L334" s="11"/>
+      <c r="L334" s="10"/>
     </row>
     <row r="335" spans="1:12" ht="15.75">
       <c r="A335" s="3" t="s">
@@ -15091,7 +15090,7 @@
       <c r="J335" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="L335" s="11"/>
+      <c r="L335" s="10"/>
     </row>
     <row r="336" spans="1:12" ht="15.75">
       <c r="A336" s="3" t="s">
@@ -15119,7 +15118,7 @@
       <c r="J336" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L336" s="11"/>
+      <c r="L336" s="10"/>
     </row>
     <row r="337" spans="1:12" ht="15.75">
       <c r="A337" s="3" t="s">
@@ -15147,7 +15146,7 @@
       <c r="J337" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L337" s="11"/>
+      <c r="L337" s="10"/>
     </row>
     <row r="338" spans="1:12" ht="15.75">
       <c r="A338" s="3" t="s">
@@ -15175,7 +15174,7 @@
       <c r="J338" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L338" s="11"/>
+      <c r="L338" s="10"/>
     </row>
     <row r="339" spans="1:12" ht="15.75">
       <c r="A339" s="3" t="s">
@@ -15203,7 +15202,7 @@
       <c r="J339" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="L339" s="11"/>
+      <c r="L339" s="10"/>
     </row>
     <row r="340" spans="1:12" ht="15.75">
       <c r="A340" s="3" t="s">
@@ -15231,7 +15230,7 @@
       <c r="J340" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="L340" s="11"/>
+      <c r="L340" s="10"/>
     </row>
     <row r="341" spans="1:12" ht="15.75">
       <c r="A341" s="3" t="s">
@@ -15259,7 +15258,7 @@
       <c r="J341" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L341" s="11"/>
+      <c r="L341" s="10"/>
     </row>
     <row r="342" spans="1:12" ht="15.75">
       <c r="A342" s="3" t="s">
@@ -15287,7 +15286,7 @@
       <c r="J342" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L342" s="11"/>
+      <c r="L342" s="10"/>
     </row>
     <row r="343" spans="1:12" ht="15.75">
       <c r="A343" s="3" t="s">
@@ -15315,7 +15314,7 @@
       <c r="J343" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L343" s="11"/>
+      <c r="L343" s="10"/>
     </row>
     <row r="344" spans="1:12" ht="15.75">
       <c r="A344" s="3" t="s">
@@ -15343,7 +15342,7 @@
       <c r="J344" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="L344" s="11"/>
+      <c r="L344" s="10"/>
     </row>
     <row r="345" spans="1:12" ht="15.75">
       <c r="A345" s="3" t="s">
@@ -15371,7 +15370,7 @@
       <c r="J345" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="L345" s="11"/>
+      <c r="L345" s="10"/>
     </row>
     <row r="346" spans="1:12" ht="15.75">
       <c r="A346" s="3" t="s">
@@ -15399,7 +15398,7 @@
       <c r="J346" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L346" s="11"/>
+      <c r="L346" s="10"/>
     </row>
     <row r="347" spans="1:12" ht="15.75">
       <c r="A347" s="3" t="s">
@@ -15427,7 +15426,7 @@
       <c r="J347" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L347" s="11"/>
+      <c r="L347" s="10"/>
     </row>
     <row r="348" spans="1:12" ht="15.75">
       <c r="A348" s="3" t="s">
@@ -15455,7 +15454,7 @@
       <c r="J348" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L348" s="11"/>
+      <c r="L348" s="10"/>
     </row>
     <row r="349" spans="1:12" ht="15.75">
       <c r="A349" s="3" t="s">
@@ -15483,7 +15482,7 @@
       <c r="J349" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L349" s="11"/>
+      <c r="L349" s="10"/>
     </row>
     <row r="350" spans="1:12" ht="15.75">
       <c r="A350" s="3" t="s">
@@ -15511,7 +15510,7 @@
       <c r="J350" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L350" s="11"/>
+      <c r="L350" s="10"/>
     </row>
     <row r="351" spans="1:12" ht="15.75">
       <c r="A351" s="3" t="s">
@@ -15539,7 +15538,7 @@
       <c r="J351" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L351" s="11"/>
+      <c r="L351" s="10"/>
     </row>
     <row r="352" spans="1:12" ht="15.75">
       <c r="A352" s="3" t="s">
@@ -15567,7 +15566,7 @@
       <c r="J352" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L352" s="11"/>
+      <c r="L352" s="10"/>
     </row>
     <row r="353" spans="1:12" ht="15.75">
       <c r="A353" s="3" t="s">
@@ -15595,7 +15594,7 @@
       <c r="J353" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L353" s="11"/>
+      <c r="L353" s="10"/>
     </row>
     <row r="354" spans="1:12" ht="15.75">
       <c r="A354" s="3" t="s">
@@ -15623,7 +15622,7 @@
       <c r="J354" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L354" s="11"/>
+      <c r="L354" s="10"/>
     </row>
     <row r="355" spans="1:12" ht="15.75">
       <c r="A355" s="3" t="s">
@@ -15651,7 +15650,7 @@
       <c r="J355" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L355" s="11"/>
+      <c r="L355" s="10"/>
     </row>
     <row r="356" spans="1:12" ht="15.75">
       <c r="A356" s="3" t="s">
@@ -15679,7 +15678,7 @@
       <c r="J356" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L356" s="11"/>
+      <c r="L356" s="10"/>
     </row>
     <row r="357" spans="1:12" ht="15.75">
       <c r="A357" s="3" t="s">
@@ -15707,7 +15706,7 @@
       <c r="J357" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L357" s="11"/>
+      <c r="L357" s="10"/>
     </row>
     <row r="358" spans="1:12" ht="15.75">
       <c r="A358" s="3" t="s">
@@ -15732,7 +15731,7 @@
       <c r="J358" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="L358" s="11"/>
+      <c r="L358" s="10"/>
     </row>
     <row r="359" spans="1:12" ht="15.75">
       <c r="A359" s="3" t="s">
@@ -15760,7 +15759,7 @@
       <c r="J359" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="L359" s="11"/>
+      <c r="L359" s="10"/>
     </row>
     <row r="360" spans="1:12" ht="15.75">
       <c r="A360" s="3" t="s">
@@ -15788,7 +15787,7 @@
       <c r="J360" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="L360" s="11"/>
+      <c r="L360" s="10"/>
     </row>
     <row r="361" spans="1:12" ht="15.75">
       <c r="A361" s="3" t="s">
@@ -15816,7 +15815,7 @@
       <c r="J361" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="L361" s="11"/>
+      <c r="L361" s="10"/>
     </row>
     <row r="362" spans="1:12" ht="15.75">
       <c r="A362" s="3" t="s">
@@ -15844,7 +15843,7 @@
       <c r="J362" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="L362" s="11"/>
+      <c r="L362" s="10"/>
     </row>
     <row r="363" spans="1:12" ht="15.75">
       <c r="A363" s="3" t="s">
@@ -15872,7 +15871,7 @@
       <c r="J363" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="L363" s="11"/>
+      <c r="L363" s="10"/>
     </row>
     <row r="364" spans="1:12" ht="15.75">
       <c r="A364" s="3" t="s">
@@ -15900,7 +15899,7 @@
       <c r="J364" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="L364" s="11"/>
+      <c r="L364" s="10"/>
     </row>
     <row r="365" spans="1:12" ht="15.75">
       <c r="A365" s="3" t="s">
@@ -15928,7 +15927,7 @@
       <c r="J365" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L365" s="11"/>
+      <c r="L365" s="10"/>
     </row>
     <row r="366" spans="1:12" ht="15.75">
       <c r="A366" s="3" t="s">
@@ -15956,7 +15955,7 @@
       <c r="J366" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L366" s="11"/>
+      <c r="L366" s="10"/>
     </row>
     <row r="367" spans="1:12" ht="15.75">
       <c r="A367" s="3" t="s">
@@ -15984,7 +15983,7 @@
       <c r="J367" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L367" s="11"/>
+      <c r="L367" s="10"/>
     </row>
     <row r="368" spans="1:12" ht="15.75">
       <c r="A368" s="3" t="s">
@@ -16012,7 +16011,7 @@
       <c r="J368" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L368" s="11"/>
+      <c r="L368" s="10"/>
     </row>
     <row r="369" spans="1:12" ht="15.75">
       <c r="A369" s="3" t="s">
@@ -16043,7 +16042,7 @@
       <c r="J369" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L369" s="11"/>
+      <c r="L369" s="10"/>
     </row>
     <row r="370" spans="1:12" ht="15.75">
       <c r="A370" s="3" t="s">
@@ -16071,7 +16070,7 @@
       <c r="J370" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L370" s="11"/>
+      <c r="L370" s="10"/>
     </row>
     <row r="371" spans="1:12" ht="15.75">
       <c r="A371" s="3" t="s">
@@ -16099,7 +16098,7 @@
       <c r="J371" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L371" s="11"/>
+      <c r="L371" s="10"/>
     </row>
     <row r="372" spans="1:12" ht="15.75">
       <c r="A372" s="3" t="s">
@@ -16127,7 +16126,7 @@
       <c r="J372" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L372" s="11"/>
+      <c r="L372" s="10"/>
     </row>
     <row r="373" spans="1:12" ht="15.75">
       <c r="A373" s="3" t="s">
@@ -16155,7 +16154,7 @@
       <c r="J373" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="L373" s="11"/>
+      <c r="L373" s="10"/>
     </row>
     <row r="374" spans="1:12" ht="15.75">
       <c r="A374" s="3" t="s">
@@ -16183,7 +16182,7 @@
       <c r="J374" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L374" s="11"/>
+      <c r="L374" s="10"/>
     </row>
     <row r="375" spans="1:12" ht="15.75">
       <c r="A375" s="3" t="s">
@@ -16211,7 +16210,7 @@
       <c r="J375" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L375" s="11"/>
+      <c r="L375" s="10"/>
     </row>
     <row r="376" spans="1:12" ht="15.75">
       <c r="A376" s="3" t="s">
@@ -16242,7 +16241,7 @@
       <c r="J376" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L376" s="11"/>
+      <c r="L376" s="10"/>
     </row>
     <row r="377" spans="1:12" ht="15.75">
       <c r="A377" s="3" t="s">
@@ -16270,7 +16269,7 @@
       <c r="J377" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L377" s="11"/>
+      <c r="L377" s="10"/>
     </row>
     <row r="378" spans="1:12" ht="15.75">
       <c r="A378" s="3" t="s">
@@ -16298,7 +16297,7 @@
       <c r="J378" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L378" s="11"/>
+      <c r="L378" s="10"/>
     </row>
     <row r="379" spans="1:12" ht="15.75">
       <c r="A379" s="3" t="s">
@@ -16326,7 +16325,7 @@
       <c r="J379" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L379" s="11"/>
+      <c r="L379" s="10"/>
     </row>
     <row r="380" spans="1:12" ht="15.75">
       <c r="A380" s="3" t="s">
@@ -16354,7 +16353,7 @@
       <c r="J380" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="L380" s="11"/>
+      <c r="L380" s="10"/>
     </row>
     <row r="381" spans="1:12" ht="15.75">
       <c r="A381" s="3" t="s">
@@ -16382,7 +16381,7 @@
       <c r="J381" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L381" s="11"/>
+      <c r="L381" s="10"/>
     </row>
     <row r="382" spans="1:12" ht="15.75">
       <c r="A382" s="3" t="s">
@@ -16410,7 +16409,7 @@
       <c r="J382" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L382" s="11"/>
+      <c r="L382" s="10"/>
     </row>
     <row r="383" spans="1:12" ht="15.75">
       <c r="A383" s="3" t="s">
@@ -16438,7 +16437,7 @@
       <c r="J383" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L383" s="11"/>
+      <c r="L383" s="10"/>
     </row>
     <row r="384" spans="1:12" ht="15.75">
       <c r="A384" s="3" t="s">
@@ -16466,7 +16465,7 @@
       <c r="J384" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L384" s="11"/>
+      <c r="L384" s="10"/>
     </row>
     <row r="385" spans="1:12" ht="15.75">
       <c r="A385" s="3" t="s">
@@ -16494,7 +16493,7 @@
       <c r="J385" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="L385" s="11"/>
+      <c r="L385" s="10"/>
     </row>
     <row r="386" spans="1:12" ht="15.75">
       <c r="A386" s="3" t="s">
@@ -16522,7 +16521,7 @@
       <c r="J386" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="L386" s="11"/>
+      <c r="L386" s="10"/>
     </row>
     <row r="387" spans="1:12" ht="15.75">
       <c r="A387" s="3" t="s">
@@ -16550,7 +16549,7 @@
       <c r="J387" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="L387" s="11"/>
+      <c r="L387" s="10"/>
     </row>
     <row r="388" spans="1:12" ht="15.75">
       <c r="A388" s="3" t="s">
@@ -16578,7 +16577,7 @@
       <c r="J388" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="L388" s="11"/>
+      <c r="L388" s="10"/>
     </row>
     <row r="389" spans="1:12" ht="15.75">
       <c r="A389" s="3" t="s">
@@ -16606,7 +16605,7 @@
       <c r="J389" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="L389" s="11"/>
+      <c r="L389" s="10"/>
     </row>
     <row r="390" spans="1:12" ht="15.75">
       <c r="A390" s="3" t="s">
@@ -16634,7 +16633,7 @@
       <c r="J390" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L390" s="11"/>
+      <c r="L390" s="10"/>
     </row>
     <row r="391" spans="1:12" ht="15.75">
       <c r="A391" s="3" t="s">
@@ -16662,7 +16661,7 @@
       <c r="J391" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L391" s="11"/>
+      <c r="L391" s="10"/>
     </row>
     <row r="392" spans="1:12" ht="15.75">
       <c r="A392" s="3" t="s">
@@ -16690,7 +16689,7 @@
       <c r="J392" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="L392" s="11"/>
+      <c r="L392" s="10"/>
     </row>
     <row r="393" spans="1:12" ht="15.75">
       <c r="A393" s="3" t="s">
@@ -16718,7 +16717,7 @@
       <c r="J393" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L393" s="11"/>
+      <c r="L393" s="10"/>
     </row>
     <row r="394" spans="1:12" ht="15.75">
       <c r="A394" s="3" t="s">
@@ -16746,7 +16745,7 @@
       <c r="J394" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L394" s="11"/>
+      <c r="L394" s="10"/>
     </row>
     <row r="395" spans="1:12" ht="15.75">
       <c r="A395" s="3" t="s">
@@ -16774,7 +16773,7 @@
       <c r="J395" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="L395" s="11"/>
+      <c r="L395" s="10"/>
     </row>
     <row r="396" spans="1:12" ht="15.75">
       <c r="A396" s="3" t="s">
@@ -16802,7 +16801,7 @@
       <c r="J396" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L396" s="11"/>
+      <c r="L396" s="10"/>
     </row>
     <row r="397" spans="1:12" ht="15.75">
       <c r="A397" s="3" t="s">
@@ -16830,7 +16829,7 @@
       <c r="J397" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="L397" s="11"/>
+      <c r="L397" s="10"/>
     </row>
     <row r="398" spans="1:12" ht="15.75">
       <c r="A398" s="3" t="s">
@@ -16858,7 +16857,7 @@
       <c r="J398" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="L398" s="11"/>
+      <c r="L398" s="10"/>
     </row>
     <row r="399" spans="1:12" ht="15.75">
       <c r="A399" s="3" t="s">
@@ -16886,7 +16885,7 @@
       <c r="J399" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L399" s="11"/>
+      <c r="L399" s="10"/>
     </row>
     <row r="400" spans="1:12" ht="15.75">
       <c r="A400" s="3" t="s">
@@ -16914,7 +16913,7 @@
       <c r="J400" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="L400" s="11"/>
+      <c r="L400" s="10"/>
     </row>
     <row r="401" spans="1:12" ht="15.75">
       <c r="A401" s="3" t="s">
@@ -16942,7 +16941,7 @@
       <c r="J401" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="L401" s="11"/>
+      <c r="L401" s="10"/>
     </row>
     <row r="402" spans="1:12" ht="15.75">
       <c r="A402" s="3" t="s">
@@ -16973,7 +16972,7 @@
       <c r="J402" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="L402" s="11"/>
+      <c r="L402" s="10"/>
     </row>
     <row r="403" spans="1:12" ht="15.75">
       <c r="A403" s="3" t="s">
@@ -17001,7 +17000,7 @@
       <c r="J403" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="L403" s="11"/>
+      <c r="L403" s="10"/>
     </row>
     <row r="404" spans="1:12" ht="15.75">
       <c r="A404" s="3" t="s">
@@ -17032,7 +17031,7 @@
       <c r="J404" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L404" s="11"/>
+      <c r="L404" s="10"/>
     </row>
     <row r="405" spans="1:12" ht="15.75">
       <c r="A405" s="3" t="s">
@@ -17060,7 +17059,7 @@
       <c r="J405" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L405" s="11"/>
+      <c r="L405" s="10"/>
     </row>
     <row r="406" spans="1:12" ht="15.75">
       <c r="A406" s="3" t="s">
@@ -17091,7 +17090,7 @@
       <c r="J406" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="L406" s="11"/>
+      <c r="L406" s="10"/>
     </row>
     <row r="407" spans="1:12" ht="15.75">
       <c r="A407" s="3" t="s">
@@ -17119,7 +17118,7 @@
       <c r="J407" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="L407" s="11"/>
+      <c r="L407" s="10"/>
     </row>
     <row r="408" spans="1:12" ht="15.75">
       <c r="A408" s="3" t="s">
@@ -17147,7 +17146,7 @@
       <c r="J408" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="L408" s="11"/>
+      <c r="L408" s="10"/>
     </row>
     <row r="409" spans="1:12" ht="15.75">
       <c r="A409" s="3" t="s">
@@ -17175,7 +17174,7 @@
       <c r="J409" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="L409" s="11"/>
+      <c r="L409" s="10"/>
     </row>
     <row r="410" spans="1:12" ht="15.75">
       <c r="A410" s="3" t="s">
@@ -17203,7 +17202,7 @@
       <c r="J410" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L410" s="11"/>
+      <c r="L410" s="10"/>
     </row>
     <row r="411" spans="1:12" ht="15.75">
       <c r="A411" s="3" t="s">
@@ -17231,7 +17230,7 @@
       <c r="J411" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="L411" s="11"/>
+      <c r="L411" s="10"/>
     </row>
     <row r="412" spans="1:12" ht="15.75">
       <c r="A412" s="3" t="s">
@@ -17259,7 +17258,7 @@
       <c r="J412" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="L412" s="11"/>
+      <c r="L412" s="10"/>
     </row>
     <row r="413" spans="1:12" ht="15.75">
       <c r="A413" s="3" t="s">
@@ -17287,7 +17286,7 @@
       <c r="J413" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="L413" s="11"/>
+      <c r="L413" s="10"/>
     </row>
     <row r="414" spans="1:12" ht="15.75">
       <c r="A414" s="3" t="s">
@@ -17315,7 +17314,7 @@
       <c r="J414" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L414" s="11"/>
+      <c r="L414" s="10"/>
     </row>
     <row r="415" spans="1:12" ht="15.75">
       <c r="A415" s="3" t="s">
@@ -17343,7 +17342,7 @@
       <c r="J415" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="L415" s="11"/>
+      <c r="L415" s="10"/>
     </row>
     <row r="416" spans="1:12" ht="15.75">
       <c r="A416" s="3" t="s">
@@ -17371,7 +17370,7 @@
       <c r="J416" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="L416" s="11"/>
+      <c r="L416" s="10"/>
     </row>
     <row r="417" spans="1:16" ht="15.75">
       <c r="A417" s="3" t="s">
@@ -17399,7 +17398,7 @@
       <c r="J417" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="L417" s="11"/>
+      <c r="L417" s="10"/>
     </row>
     <row r="418" spans="1:16" ht="15.75">
       <c r="A418" s="3" t="s">
@@ -17427,7 +17426,7 @@
       <c r="J418" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L418" s="11"/>
+      <c r="L418" s="10"/>
     </row>
     <row r="419" spans="1:16" ht="15.75">
       <c r="A419" s="3" t="s">
@@ -17455,7 +17454,7 @@
       <c r="J419" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="L419" s="11"/>
+      <c r="L419" s="10"/>
     </row>
     <row r="420" spans="1:16" ht="15.75">
       <c r="A420" s="3" t="s">
@@ -17483,7 +17482,7 @@
       <c r="J420" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="L420" s="11"/>
+      <c r="L420" s="10"/>
     </row>
     <row r="421" spans="1:16" ht="15.75">
       <c r="A421" s="3" t="s">
@@ -17511,7 +17510,7 @@
       <c r="J421" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="L421" s="11"/>
+      <c r="L421" s="10"/>
     </row>
     <row r="422" spans="1:16" ht="15.75">
       <c r="A422" s="3" t="s">
@@ -17539,7 +17538,7 @@
       <c r="J422" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L422" s="11"/>
+      <c r="L422" s="10"/>
     </row>
     <row r="423" spans="1:16" ht="15.75">
       <c r="A423" s="3" t="s">
@@ -17567,7 +17566,7 @@
       <c r="J423" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="L423" s="11"/>
+      <c r="L423" s="10"/>
     </row>
     <row r="424" spans="1:16" ht="15.75">
       <c r="A424" s="3" t="s">
@@ -17598,7 +17597,7 @@
       <c r="J424" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="L424" s="11" t="s">
+      <c r="L424" s="10" t="s">
         <v>962</v>
       </c>
       <c r="M424" s="3" t="s">
@@ -17640,7 +17639,7 @@
       <c r="J425" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="L425" s="11"/>
+      <c r="L425" s="10"/>
     </row>
     <row r="426" spans="1:16" ht="15.75">
       <c r="A426" s="3" t="s">
@@ -17668,7 +17667,7 @@
       <c r="J426" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="L426" s="11"/>
+      <c r="L426" s="10"/>
     </row>
     <row r="427" spans="1:16" ht="15.75">
       <c r="A427" s="3" t="s">
@@ -17696,7 +17695,7 @@
       <c r="J427" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L427" s="11"/>
+      <c r="L427" s="10"/>
     </row>
     <row r="428" spans="1:16" ht="15.75">
       <c r="A428" s="3" t="s">
@@ -17724,7 +17723,7 @@
       <c r="J428" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L428" s="11"/>
+      <c r="L428" s="10"/>
     </row>
     <row r="429" spans="1:16" ht="15.75">
       <c r="A429" s="3" t="s">
@@ -17752,7 +17751,7 @@
       <c r="J429" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L429" s="11"/>
+      <c r="L429" s="10"/>
     </row>
     <row r="430" spans="1:16" ht="15.75">
       <c r="A430" s="3" t="s">
@@ -17780,7 +17779,7 @@
       <c r="J430" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="L430" s="11"/>
+      <c r="L430" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrainRoute.xlsx
+++ b/TrainRoute.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="1036">
   <si>
     <t>NSH</t>
   </si>
@@ -2971,6 +2971,159 @@
   </si>
   <si>
     <t>route_tag</t>
+  </si>
+  <si>
+    <t>+201 +102</t>
+  </si>
+  <si>
+    <t>+201 -102 +104</t>
+  </si>
+  <si>
+    <t>+201 -102 -104</t>
+  </si>
+  <si>
+    <t>CHMV3_M110</t>
+  </si>
+  <si>
+    <t>+205 +203</t>
+  </si>
+  <si>
+    <t>+205 -203 -201 +102</t>
+  </si>
+  <si>
+    <t>+205 -203 -201 -102 +104</t>
+  </si>
+  <si>
+    <t>+205 -203 -201 -102 -104</t>
+  </si>
+  <si>
+    <t>CHMV4_M110</t>
+  </si>
+  <si>
+    <t>-207 -205 +203</t>
+  </si>
+  <si>
+    <t>-207 -205 -203 -201 +102</t>
+  </si>
+  <si>
+    <t>-207 -205 -203 -201 -102 +104</t>
+  </si>
+  <si>
+    <t>-207 -205 -203 -201 -102 -104</t>
+  </si>
+  <si>
+    <t>CHMV5_M110</t>
+  </si>
+  <si>
+    <t>-209 +207 -205 +203</t>
+  </si>
+  <si>
+    <t>-209 +207 -205 -203 -201 +102</t>
+  </si>
+  <si>
+    <t>-209 +207 -205 -203 -201 -102 +104</t>
+  </si>
+  <si>
+    <t>-209 +207 -205 -203 -201 -102 -104</t>
+  </si>
+  <si>
+    <t>CHMV6_M110</t>
+  </si>
+  <si>
+    <t>-211 +209 +207 -205 +203</t>
+  </si>
+  <si>
+    <t>-211 +209 +207 -205 -203 -201 +102</t>
+  </si>
+  <si>
+    <t>-211 +209 +207 -205 -203 -201 -102 +104</t>
+  </si>
+  <si>
+    <t>-211 +209 +207 -205 -203 -201 -102 -104</t>
+  </si>
+  <si>
+    <t>CHMV7_M110</t>
+  </si>
+  <si>
+    <t>-213 +211 +209 +207 -205 +203</t>
+  </si>
+  <si>
+    <t>-213 +211 +209 +207 -205 -203 -201 +102</t>
+  </si>
+  <si>
+    <t>-213 +211 +209 +207 -205 -203 -201 -102 +104</t>
+  </si>
+  <si>
+    <t>-213 +211 +209 +207 -205 -203 -201 -102 -104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>M115P</t>
+  </si>
+  <si>
+    <t>Tpk_M117</t>
+  </si>
+  <si>
+    <t>Tpk_M125</t>
+  </si>
+  <si>
+    <t>M310P</t>
+  </si>
+  <si>
+    <t>M316P</t>
+  </si>
+  <si>
+    <t>Tpk_M211</t>
+  </si>
+  <si>
+    <t>M204P</t>
+  </si>
+  <si>
+    <t>Tpk_M13</t>
+  </si>
+  <si>
+    <t>Tpk_M1</t>
+  </si>
+  <si>
+    <t>Tpk_M2</t>
+  </si>
+  <si>
+    <t>Tpk_M3</t>
+  </si>
+  <si>
+    <t>Tpk_M307</t>
+  </si>
+  <si>
+    <t>Tpk_M214</t>
+  </si>
+  <si>
+    <t>Tpk_M216</t>
+  </si>
+  <si>
+    <t>Tpk_M218</t>
+  </si>
+  <si>
+    <t>Tpk_M104</t>
+  </si>
+  <si>
+    <t>Tpk_M106</t>
+  </si>
+  <si>
+    <t>Tpk_M324</t>
+  </si>
+  <si>
+    <t>Tpk_M108</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>NS4_NSH_V4</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3076,6 +3229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3375,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S430"/>
+  <dimension ref="A1:S454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="E438" sqref="E438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3387,7 +3541,7 @@
     <col min="2" max="4" width="18" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
@@ -3464,7 +3618,9 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3509,7 +3665,9 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3551,7 +3709,9 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3593,7 +3753,9 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3635,7 +3797,9 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3677,7 +3841,9 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3885,9 @@
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3929,9 @@
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -3803,7 +3973,9 @@
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>0</v>
       </c>
@@ -3845,7 +4017,9 @@
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +4061,9 @@
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +4105,9 @@
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>0</v>
       </c>
@@ -3941,6 +4119,9 @@
       </c>
       <c r="J13" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1013</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>962</v>
@@ -3971,7 +4152,7 @@
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
@@ -4013,7 +4194,7 @@
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3" t="s">
         <v>54</v>
       </c>
@@ -4055,7 +4236,7 @@
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
@@ -4097,7 +4278,7 @@
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3" t="s">
         <v>56</v>
       </c>
@@ -4142,7 +4323,9 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>60</v>
       </c>
@@ -4184,7 +4367,9 @@
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>61</v>
       </c>
@@ -4226,7 +4411,9 @@
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
@@ -4268,7 +4455,9 @@
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>35</v>
       </c>
@@ -4310,7 +4499,9 @@
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>63</v>
       </c>
@@ -4352,7 +4543,9 @@
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>64</v>
       </c>
@@ -4394,7 +4587,9 @@
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>65</v>
       </c>
@@ -4436,7 +4631,9 @@
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>66</v>
       </c>
@@ -4481,7 +4678,7 @@
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="3" t="s">
         <v>75</v>
       </c>
@@ -4523,7 +4720,7 @@
       <c r="D27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="3" t="s">
         <v>75</v>
       </c>
@@ -4565,7 +4762,7 @@
       <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3" t="s">
         <v>75</v>
       </c>
@@ -4607,7 +4804,7 @@
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="3" t="s">
         <v>75</v>
       </c>
@@ -4649,7 +4846,7 @@
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="3" t="s">
         <v>75</v>
       </c>
@@ -4691,7 +4888,7 @@
       <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="3" t="s">
         <v>75</v>
       </c>
@@ -4733,7 +4930,7 @@
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
         <v>75</v>
       </c>
@@ -4775,7 +4972,7 @@
       <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="3" t="s">
         <v>75</v>
       </c>
@@ -4817,7 +5014,9 @@
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F34" s="3" t="s">
         <v>62</v>
       </c>
@@ -4859,7 +5058,9 @@
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>61</v>
       </c>
@@ -4901,7 +5102,9 @@
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>60</v>
       </c>
@@ -4943,7 +5146,9 @@
       <c r="D37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4985,7 +5190,9 @@
       <c r="D38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>63</v>
       </c>
@@ -5027,7 +5234,9 @@
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>64</v>
       </c>
@@ -5069,7 +5278,9 @@
       <c r="D40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F40" s="3" t="s">
         <v>65</v>
       </c>
@@ -5111,7 +5322,9 @@
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F41" s="3" t="s">
         <v>66</v>
       </c>
@@ -5156,7 +5369,7 @@
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
@@ -5198,7 +5411,7 @@
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
@@ -5240,7 +5453,7 @@
       <c r="D44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
@@ -5282,7 +5495,7 @@
       <c r="D45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
@@ -5324,7 +5537,7 @@
       <c r="D46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
@@ -5366,7 +5579,7 @@
       <c r="D47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -5408,7 +5621,7 @@
       <c r="D48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -5450,7 +5663,7 @@
       <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -5492,7 +5705,7 @@
       <c r="D50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="3" t="s">
         <v>4</v>
       </c>
@@ -5534,7 +5747,7 @@
       <c r="D51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="3" t="s">
         <v>4</v>
       </c>
@@ -5576,7 +5789,7 @@
       <c r="D52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
@@ -5618,7 +5831,7 @@
       <c r="D53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="3" t="s">
         <v>4</v>
       </c>
@@ -5660,7 +5873,7 @@
       <c r="D54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="3" t="s">
         <v>11</v>
       </c>
@@ -5702,7 +5915,7 @@
       <c r="D55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="3" t="s">
         <v>11</v>
       </c>
@@ -5744,7 +5957,7 @@
       <c r="D56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="3" t="s">
         <v>11</v>
       </c>
@@ -5786,7 +5999,7 @@
       <c r="D57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="3" t="s">
         <v>11</v>
       </c>
@@ -5828,7 +6041,7 @@
       <c r="D58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
@@ -5870,7 +6083,7 @@
       <c r="D59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
@@ -5912,7 +6125,7 @@
       <c r="D60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="3" t="s">
         <v>11</v>
       </c>
@@ -5954,7 +6167,7 @@
       <c r="D61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="3" t="s">
         <v>17</v>
       </c>
@@ -5999,7 +6212,7 @@
       <c r="D62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="3" t="s">
         <v>17</v>
       </c>
@@ -6044,7 +6257,7 @@
       <c r="D63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="3" t="s">
         <v>17</v>
       </c>
@@ -6089,7 +6302,7 @@
       <c r="D64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="3" t="s">
         <v>17</v>
       </c>
@@ -6134,7 +6347,7 @@
       <c r="D65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="3" t="s">
         <v>17</v>
       </c>
@@ -6179,7 +6392,7 @@
       <c r="D66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="3" t="s">
         <v>17</v>
       </c>
@@ -6224,7 +6437,7 @@
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="3" t="s">
         <v>17</v>
       </c>
@@ -6269,7 +6482,7 @@
       <c r="D68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="3" t="s">
         <v>134</v>
       </c>
@@ -6314,7 +6527,7 @@
       <c r="D69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="3" t="s">
         <v>134</v>
       </c>
@@ -6359,7 +6572,7 @@
       <c r="D70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="3" t="s">
         <v>134</v>
       </c>
@@ -6404,7 +6617,7 @@
       <c r="D71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="3" t="s">
         <v>165</v>
       </c>
@@ -6446,7 +6659,7 @@
       <c r="D72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="3" t="s">
         <v>165</v>
       </c>
@@ -6488,7 +6701,7 @@
       <c r="D73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="3" t="s">
         <v>165</v>
       </c>
@@ -6530,7 +6743,7 @@
       <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="3" t="s">
         <v>165</v>
       </c>
@@ -6572,7 +6785,7 @@
       <c r="D75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="1"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="3" t="s">
         <v>166</v>
       </c>
@@ -6614,7 +6827,7 @@
       <c r="D76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="3" t="s">
         <v>166</v>
       </c>
@@ -6656,7 +6869,7 @@
       <c r="D77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="3" t="s">
         <v>166</v>
       </c>
@@ -6698,7 +6911,7 @@
       <c r="D78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="1"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="3" t="s">
         <v>166</v>
       </c>
@@ -6740,7 +6953,7 @@
       <c r="D79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="3" t="s">
         <v>173</v>
       </c>
@@ -6782,7 +6995,7 @@
       <c r="D80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="3" t="s">
         <v>173</v>
       </c>
@@ -6824,7 +7037,7 @@
       <c r="D81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="3" t="s">
         <v>173</v>
       </c>
@@ -6866,7 +7079,7 @@
       <c r="D82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="3" t="s">
         <v>173</v>
       </c>
@@ -6908,7 +7121,7 @@
       <c r="D83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="3" t="s">
         <v>174</v>
       </c>
@@ -6950,7 +7163,7 @@
       <c r="D84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="3" t="s">
         <v>174</v>
       </c>
@@ -6992,7 +7205,7 @@
       <c r="D85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="3" t="s">
         <v>174</v>
       </c>
@@ -7034,7 +7247,7 @@
       <c r="D86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="3" t="s">
         <v>174</v>
       </c>
@@ -7076,7 +7289,7 @@
       <c r="D87" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="3" t="s">
         <v>180</v>
       </c>
@@ -7118,7 +7331,7 @@
       <c r="D88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="3" t="s">
         <v>180</v>
       </c>
@@ -7160,7 +7373,7 @@
       <c r="D89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="3" t="s">
         <v>180</v>
       </c>
@@ -7202,7 +7415,7 @@
       <c r="D90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="3" t="s">
         <v>180</v>
       </c>
@@ -7244,7 +7457,7 @@
       <c r="D91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="3" t="s">
         <v>26</v>
       </c>
@@ -7286,7 +7499,7 @@
       <c r="D92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="3" t="s">
         <v>202</v>
       </c>
@@ -7328,7 +7541,9 @@
       <c r="D93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F93" s="3" t="s">
         <v>204</v>
       </c>
@@ -7370,7 +7585,9 @@
       <c r="D94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F94" s="3" t="s">
         <v>204</v>
       </c>
@@ -7412,7 +7629,9 @@
       <c r="D95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F95" s="3" t="s">
         <v>204</v>
       </c>
@@ -7454,7 +7673,9 @@
       <c r="D96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E96" s="1"/>
+      <c r="E96" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F96" s="3" t="s">
         <v>204</v>
       </c>
@@ -7496,7 +7717,9 @@
       <c r="D97" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="1"/>
+      <c r="E97" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F97" s="3" t="s">
         <v>204</v>
       </c>
@@ -7538,7 +7761,9 @@
       <c r="D98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F98" s="3" t="s">
         <v>204</v>
       </c>
@@ -7580,7 +7805,9 @@
       <c r="D99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F99" s="3" t="s">
         <v>204</v>
       </c>
@@ -7622,7 +7849,9 @@
       <c r="D100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F100" s="3" t="s">
         <v>204</v>
       </c>
@@ -7664,7 +7893,9 @@
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F101" s="3" t="s">
         <v>204</v>
       </c>
@@ -7706,7 +7937,9 @@
       <c r="D102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F102" s="3" t="s">
         <v>204</v>
       </c>
@@ -7748,7 +7981,9 @@
       <c r="D103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F103" s="3" t="s">
         <v>204</v>
       </c>
@@ -7790,7 +8025,9 @@
       <c r="D104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F104" s="3" t="s">
         <v>204</v>
       </c>
@@ -7832,7 +8069,9 @@
       <c r="D105" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F105" s="3" t="s">
         <v>204</v>
       </c>
@@ -7874,7 +8113,9 @@
       <c r="D106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F106" s="3" t="s">
         <v>204</v>
       </c>
@@ -7916,7 +8157,7 @@
       <c r="D107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="11"/>
       <c r="F107" s="3" t="s">
         <v>117</v>
       </c>
@@ -7961,7 +8202,7 @@
       <c r="D108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="11"/>
       <c r="F108" s="3" t="s">
         <v>115</v>
       </c>
@@ -8003,7 +8244,7 @@
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="11"/>
       <c r="F109" s="3" t="s">
         <v>105</v>
       </c>
@@ -8045,7 +8286,7 @@
       <c r="D110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="11"/>
       <c r="F110" s="3" t="s">
         <v>106</v>
       </c>
@@ -8087,7 +8328,7 @@
       <c r="D111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E111" s="1"/>
+      <c r="E111" s="11"/>
       <c r="F111" s="3" t="s">
         <v>107</v>
       </c>
@@ -8129,7 +8370,7 @@
       <c r="D112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="11"/>
       <c r="F112" s="3" t="s">
         <v>108</v>
       </c>
@@ -8171,7 +8412,7 @@
       <c r="D113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="11"/>
       <c r="F113" s="3" t="s">
         <v>109</v>
       </c>
@@ -8213,7 +8454,9 @@
       <c r="D114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F114" s="3" t="s">
         <v>21</v>
       </c>
@@ -8255,7 +8498,9 @@
       <c r="D115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="1"/>
+      <c r="E115" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F115" s="3" t="s">
         <v>199</v>
       </c>
@@ -8297,7 +8542,7 @@
       <c r="D116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="11"/>
       <c r="F116" s="3" t="s">
         <v>30</v>
       </c>
@@ -8339,7 +8584,9 @@
       <c r="D117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E117" s="1"/>
+      <c r="E117" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F117" s="3" t="s">
         <v>34</v>
       </c>
@@ -8381,7 +8628,9 @@
       <c r="D118" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F118" s="3" t="s">
         <v>38</v>
       </c>
@@ -8423,7 +8672,9 @@
       <c r="D119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E119" s="1"/>
+      <c r="E119" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F119" s="3" t="s">
         <v>44</v>
       </c>
@@ -8465,7 +8716,9 @@
       <c r="D120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F120" s="3" t="s">
         <v>47</v>
       </c>
@@ -8507,7 +8760,9 @@
       <c r="D121" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E121" s="1"/>
+      <c r="E121" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F121" s="3" t="s">
         <v>50</v>
       </c>
@@ -8552,7 +8807,7 @@
       <c r="D122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E122" s="1"/>
+      <c r="E122" s="11"/>
       <c r="F122" s="3" t="s">
         <v>258</v>
       </c>
@@ -8594,7 +8849,7 @@
       <c r="D123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E123" s="1"/>
+      <c r="E123" s="11"/>
       <c r="F123" s="3" t="s">
         <v>258</v>
       </c>
@@ -8636,7 +8891,7 @@
       <c r="D124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E124" s="1"/>
+      <c r="E124" s="11"/>
       <c r="F124" s="3" t="s">
         <v>258</v>
       </c>
@@ -8678,7 +8933,7 @@
       <c r="D125" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E125" s="1"/>
+      <c r="E125" s="11"/>
       <c r="F125" s="3" t="s">
         <v>258</v>
       </c>
@@ -8720,7 +8975,7 @@
       <c r="D126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E126" s="1"/>
+      <c r="E126" s="11"/>
       <c r="F126" s="3" t="s">
         <v>258</v>
       </c>
@@ -8762,7 +9017,7 @@
       <c r="D127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="1"/>
+      <c r="E127" s="11"/>
       <c r="F127" s="3" t="s">
         <v>258</v>
       </c>
@@ -8804,7 +9059,7 @@
       <c r="D128" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E128" s="1"/>
+      <c r="E128" s="11"/>
       <c r="F128" s="3" t="s">
         <v>258</v>
       </c>
@@ -8846,7 +9101,7 @@
       <c r="D129" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E129" s="1"/>
+      <c r="E129" s="11"/>
       <c r="F129" s="3" t="s">
         <v>258</v>
       </c>
@@ -8888,7 +9143,7 @@
       <c r="D130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E130" s="1"/>
+      <c r="E130" s="11"/>
       <c r="F130" s="3" t="s">
         <v>30</v>
       </c>
@@ -8930,7 +9185,9 @@
       <c r="D131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E131" s="1"/>
+      <c r="E131" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F131" s="3" t="s">
         <v>199</v>
       </c>
@@ -8972,7 +9229,9 @@
       <c r="D132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F132" s="3" t="s">
         <v>21</v>
       </c>
@@ -9014,7 +9273,9 @@
       <c r="D133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F133" s="3" t="s">
         <v>34</v>
       </c>
@@ -9056,7 +9317,9 @@
       <c r="D134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F134" s="3" t="s">
         <v>38</v>
       </c>
@@ -9098,7 +9361,9 @@
       <c r="D135" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F135" s="3" t="s">
         <v>44</v>
       </c>
@@ -9127,7 +9392,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" ht="15.75">
       <c r="A136" t="s">
         <v>281</v>
       </c>
@@ -9140,7 +9405,9 @@
       <c r="D136" t="s">
         <v>1</v>
       </c>
-      <c r="E136"/>
+      <c r="E136" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F136" s="3" t="s">
         <v>47</v>
       </c>
@@ -9169,7 +9436,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" ht="15.75">
       <c r="A137" t="s">
         <v>282</v>
       </c>
@@ -9182,7 +9449,9 @@
       <c r="D137" t="s">
         <v>1</v>
       </c>
-      <c r="E137"/>
+      <c r="E137" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F137" s="3" t="s">
         <v>50</v>
       </c>
@@ -9227,7 +9496,6 @@
       <c r="D138" t="s">
         <v>1</v>
       </c>
-      <c r="E138"/>
       <c r="F138" s="3" t="s">
         <v>75</v>
       </c>
@@ -9272,7 +9540,6 @@
       <c r="D139" t="s">
         <v>1</v>
       </c>
-      <c r="E139"/>
       <c r="F139" s="3" t="s">
         <v>75</v>
       </c>
@@ -9317,7 +9584,6 @@
       <c r="D140" t="s">
         <v>1</v>
       </c>
-      <c r="E140"/>
       <c r="F140" s="3" t="s">
         <v>75</v>
       </c>
@@ -9362,7 +9628,6 @@
       <c r="D141" t="s">
         <v>1</v>
       </c>
-      <c r="E141"/>
       <c r="F141" s="3" t="s">
         <v>75</v>
       </c>
@@ -9407,7 +9672,6 @@
       <c r="D142" t="s">
         <v>1</v>
       </c>
-      <c r="E142"/>
       <c r="F142" s="3" t="s">
         <v>75</v>
       </c>
@@ -9452,7 +9716,6 @@
       <c r="D143" t="s">
         <v>1</v>
       </c>
-      <c r="E143"/>
       <c r="F143" s="3" t="s">
         <v>75</v>
       </c>
@@ -9497,7 +9760,6 @@
       <c r="D144" t="s">
         <v>1</v>
       </c>
-      <c r="E144"/>
       <c r="F144" s="3" t="s">
         <v>75</v>
       </c>
@@ -9542,7 +9804,6 @@
       <c r="D145" t="s">
         <v>1</v>
       </c>
-      <c r="E145"/>
       <c r="F145" s="3" t="s">
         <v>75</v>
       </c>
@@ -9587,7 +9848,9 @@
       <c r="D146" t="s">
         <v>1</v>
       </c>
-      <c r="E146"/>
+      <c r="E146" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="F146" s="3" t="s">
         <v>62</v>
       </c>
@@ -9632,7 +9895,9 @@
       <c r="D147" t="s">
         <v>1</v>
       </c>
-      <c r="E147"/>
+      <c r="E147" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="F147" s="3" t="s">
         <v>35</v>
       </c>
@@ -9677,7 +9942,9 @@
       <c r="D148" t="s">
         <v>1</v>
       </c>
-      <c r="E148"/>
+      <c r="E148" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="F148" s="3" t="s">
         <v>35</v>
       </c>
@@ -9722,7 +9989,9 @@
       <c r="D149" t="s">
         <v>1</v>
       </c>
-      <c r="E149"/>
+      <c r="E149" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="F149" s="3" t="s">
         <v>35</v>
       </c>
@@ -9767,7 +10036,9 @@
       <c r="D150" t="s">
         <v>1</v>
       </c>
-      <c r="E150"/>
+      <c r="E150" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="F150" s="3" t="s">
         <v>63</v>
       </c>
@@ -9812,7 +10083,9 @@
       <c r="D151" t="s">
         <v>1</v>
       </c>
-      <c r="E151"/>
+      <c r="E151" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="F151" s="3" t="s">
         <v>64</v>
       </c>
@@ -9857,7 +10130,9 @@
       <c r="D152" t="s">
         <v>1</v>
       </c>
-      <c r="E152"/>
+      <c r="E152" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="F152" s="3" t="s">
         <v>65</v>
       </c>
@@ -9902,7 +10177,9 @@
       <c r="D153" t="s">
         <v>1</v>
       </c>
-      <c r="E153"/>
+      <c r="E153" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="F153" s="3" t="s">
         <v>66</v>
       </c>
@@ -9917,6 +10194,9 @@
       </c>
       <c r="J153" s="3" t="s">
         <v>75</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>842</v>
       </c>
       <c r="L153" s="10" t="s">
         <v>962</v>
@@ -9947,7 +10227,9 @@
       <c r="D154" t="s">
         <v>1</v>
       </c>
-      <c r="E154"/>
+      <c r="E154" s="3" t="s">
+        <v>1034</v>
+      </c>
       <c r="F154" s="3" t="s">
         <v>204</v>
       </c>
@@ -9992,7 +10274,9 @@
       <c r="D155" t="s">
         <v>1</v>
       </c>
-      <c r="E155"/>
+      <c r="E155" s="3" t="s">
+        <v>1034</v>
+      </c>
       <c r="F155" s="3" t="s">
         <v>204</v>
       </c>
@@ -10037,7 +10321,9 @@
       <c r="D156" t="s">
         <v>1</v>
       </c>
-      <c r="E156"/>
+      <c r="E156" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F156" s="3" t="s">
         <v>21</v>
       </c>
@@ -10082,7 +10368,9 @@
       <c r="D157" t="s">
         <v>1</v>
       </c>
-      <c r="E157"/>
+      <c r="E157" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="F157" s="3" t="s">
         <v>199</v>
       </c>
@@ -10127,7 +10415,7 @@
       <c r="D158" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="1"/>
+      <c r="E158" s="11"/>
       <c r="F158" s="3" t="s">
         <v>318</v>
       </c>
@@ -10152,7 +10440,7 @@
       <c r="D159" t="s">
         <v>319</v>
       </c>
-      <c r="E159" s="1"/>
+      <c r="E159" s="11"/>
       <c r="F159" s="3" t="s">
         <v>324</v>
       </c>
@@ -10177,7 +10465,7 @@
       <c r="D160" t="s">
         <v>319</v>
       </c>
-      <c r="E160" s="1"/>
+      <c r="E160" s="11"/>
       <c r="F160" s="3" t="s">
         <v>322</v>
       </c>
@@ -10205,7 +10493,7 @@
       <c r="D161" t="s">
         <v>319</v>
       </c>
-      <c r="E161" s="1"/>
+      <c r="E161" s="11"/>
       <c r="F161" s="3" t="s">
         <v>322</v>
       </c>
@@ -10233,7 +10521,7 @@
       <c r="D162" t="s">
         <v>319</v>
       </c>
-      <c r="E162" s="1"/>
+      <c r="E162" s="11"/>
       <c r="F162" s="3" t="s">
         <v>333</v>
       </c>
@@ -10261,7 +10549,7 @@
       <c r="D163" t="s">
         <v>319</v>
       </c>
-      <c r="E163" s="1"/>
+      <c r="E163" s="11"/>
       <c r="F163" s="3" t="s">
         <v>328</v>
       </c>
@@ -10289,7 +10577,7 @@
       <c r="D164" t="s">
         <v>319</v>
       </c>
-      <c r="E164" s="1"/>
+      <c r="E164" s="11"/>
       <c r="F164" s="3" t="s">
         <v>338</v>
       </c>
@@ -10317,7 +10605,7 @@
       <c r="D165" t="s">
         <v>319</v>
       </c>
-      <c r="E165" s="1"/>
+      <c r="E165" s="11"/>
       <c r="F165" s="3" t="s">
         <v>331</v>
       </c>
@@ -10345,7 +10633,7 @@
       <c r="D166" t="s">
         <v>319</v>
       </c>
-      <c r="E166" s="1"/>
+      <c r="E166" s="11"/>
       <c r="F166" s="3" t="s">
         <v>331</v>
       </c>
@@ -10373,7 +10661,7 @@
       <c r="D167" t="s">
         <v>319</v>
       </c>
-      <c r="E167" s="1"/>
+      <c r="E167" s="11"/>
       <c r="F167" s="3" t="s">
         <v>331</v>
       </c>
@@ -10401,7 +10689,7 @@
       <c r="D168" t="s">
         <v>319</v>
       </c>
-      <c r="E168" s="1"/>
+      <c r="E168" s="11"/>
       <c r="F168" s="3" t="s">
         <v>331</v>
       </c>
@@ -10429,7 +10717,7 @@
       <c r="D169" t="s">
         <v>319</v>
       </c>
-      <c r="E169" s="1"/>
+      <c r="E169" s="11"/>
       <c r="F169" s="3" t="s">
         <v>331</v>
       </c>
@@ -10457,7 +10745,7 @@
       <c r="D170" t="s">
         <v>319</v>
       </c>
-      <c r="E170" s="1"/>
+      <c r="E170" s="11"/>
       <c r="F170" s="3" t="s">
         <v>347</v>
       </c>
@@ -10465,7 +10753,7 @@
         <v>362</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>363</v>
+        <v>1015</v>
       </c>
       <c r="J170" s="3" t="s">
         <v>363</v>
@@ -10485,7 +10773,7 @@
       <c r="D171" t="s">
         <v>319</v>
       </c>
-      <c r="E171" s="1"/>
+      <c r="E171" s="11"/>
       <c r="F171" s="3" t="s">
         <v>347</v>
       </c>
@@ -10513,7 +10801,7 @@
       <c r="D172" t="s">
         <v>319</v>
       </c>
-      <c r="E172" s="1"/>
+      <c r="E172" s="11"/>
       <c r="F172" s="3" t="s">
         <v>363</v>
       </c>
@@ -10521,7 +10809,7 @@
         <v>362</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>347</v>
+        <v>1014</v>
       </c>
       <c r="J172" s="3" t="s">
         <v>347</v>
@@ -10541,7 +10829,7 @@
       <c r="D173" t="s">
         <v>319</v>
       </c>
-      <c r="E173" s="1"/>
+      <c r="E173" s="11"/>
       <c r="F173" s="3" t="s">
         <v>368</v>
       </c>
@@ -10569,7 +10857,7 @@
       <c r="D174" t="s">
         <v>319</v>
       </c>
-      <c r="E174" s="1"/>
+      <c r="E174" s="11"/>
       <c r="F174" s="3" t="s">
         <v>366</v>
       </c>
@@ -10597,7 +10885,7 @@
       <c r="D175" t="s">
         <v>319</v>
       </c>
-      <c r="E175" s="1"/>
+      <c r="E175" s="11"/>
       <c r="F175" s="3" t="s">
         <v>366</v>
       </c>
@@ -10625,7 +10913,7 @@
       <c r="D176" t="s">
         <v>319</v>
       </c>
-      <c r="E176" s="1"/>
+      <c r="E176" s="11"/>
       <c r="F176" s="3" t="s">
         <v>366</v>
       </c>
@@ -10653,7 +10941,7 @@
       <c r="D177" t="s">
         <v>319</v>
       </c>
-      <c r="E177" s="1"/>
+      <c r="E177" s="11"/>
       <c r="F177" s="3" t="s">
         <v>345</v>
       </c>
@@ -10681,7 +10969,7 @@
       <c r="D178" t="s">
         <v>319</v>
       </c>
-      <c r="E178" s="1"/>
+      <c r="E178" s="11"/>
       <c r="F178" s="3" t="s">
         <v>345</v>
       </c>
@@ -10709,7 +10997,7 @@
       <c r="D179" t="s">
         <v>319</v>
       </c>
-      <c r="E179" s="1"/>
+      <c r="E179" s="11"/>
       <c r="F179" s="3" t="s">
         <v>381</v>
       </c>
@@ -10737,7 +11025,7 @@
       <c r="D180" t="s">
         <v>319</v>
       </c>
-      <c r="E180" s="1"/>
+      <c r="E180" s="11"/>
       <c r="F180" s="3" t="s">
         <v>384</v>
       </c>
@@ -10745,7 +11033,7 @@
         <v>383</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>381</v>
+        <v>1016</v>
       </c>
       <c r="J180" s="3" t="s">
         <v>381</v>
@@ -10765,7 +11053,7 @@
       <c r="D181" t="s">
         <v>319</v>
       </c>
-      <c r="E181" s="1"/>
+      <c r="E181" s="11"/>
       <c r="F181" s="3" t="s">
         <v>384</v>
       </c>
@@ -10773,7 +11061,7 @@
         <v>387</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>347</v>
+        <v>1014</v>
       </c>
       <c r="J181" s="3" t="s">
         <v>347</v>
@@ -10793,7 +11081,7 @@
       <c r="D182" t="s">
         <v>319</v>
       </c>
-      <c r="E182" s="1"/>
+      <c r="E182" s="11"/>
       <c r="F182" s="3" t="s">
         <v>384</v>
       </c>
@@ -10821,7 +11109,7 @@
       <c r="D183" t="s">
         <v>1</v>
       </c>
-      <c r="E183" s="1"/>
+      <c r="E183" s="11"/>
       <c r="F183" s="3" t="s">
         <v>54</v>
       </c>
@@ -10849,7 +11137,7 @@
       <c r="D184" t="s">
         <v>1</v>
       </c>
-      <c r="E184" s="1"/>
+      <c r="E184" s="11"/>
       <c r="F184" s="3" t="s">
         <v>5</v>
       </c>
@@ -10877,7 +11165,7 @@
       <c r="D185" t="s">
         <v>1</v>
       </c>
-      <c r="E185" s="1"/>
+      <c r="E185" s="11"/>
       <c r="F185" s="3" t="s">
         <v>55</v>
       </c>
@@ -10885,7 +11173,7 @@
         <v>394</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>347</v>
+        <v>1014</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>347</v>
@@ -10905,7 +11193,7 @@
       <c r="D186" t="s">
         <v>1</v>
       </c>
-      <c r="E186" s="1"/>
+      <c r="E186" s="11"/>
       <c r="F186" s="3" t="s">
         <v>55</v>
       </c>
@@ -10933,7 +11221,7 @@
       <c r="D187" t="s">
         <v>1</v>
       </c>
-      <c r="E187" s="1"/>
+      <c r="E187" s="11"/>
       <c r="F187" s="3" t="s">
         <v>56</v>
       </c>
@@ -10941,7 +11229,7 @@
         <v>398</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>347</v>
+        <v>1014</v>
       </c>
       <c r="J187" s="3" t="s">
         <v>347</v>
@@ -10961,7 +11249,7 @@
       <c r="D188" t="s">
         <v>1</v>
       </c>
-      <c r="E188" s="1"/>
+      <c r="E188" s="11"/>
       <c r="F188" s="3" t="s">
         <v>56</v>
       </c>
@@ -10989,7 +11277,7 @@
       <c r="D189" t="s">
         <v>319</v>
       </c>
-      <c r="E189" s="1"/>
+      <c r="E189" s="11"/>
       <c r="F189" s="3" t="s">
         <v>399</v>
       </c>
@@ -11017,7 +11305,7 @@
       <c r="D190" t="s">
         <v>319</v>
       </c>
-      <c r="E190" s="1"/>
+      <c r="E190" s="11"/>
       <c r="F190" s="3" t="s">
         <v>399</v>
       </c>
@@ -11045,7 +11333,7 @@
       <c r="D191" t="s">
         <v>319</v>
       </c>
-      <c r="E191" s="1"/>
+      <c r="E191" s="11"/>
       <c r="F191" s="3" t="s">
         <v>399</v>
       </c>
@@ -11073,7 +11361,7 @@
       <c r="D192" t="s">
         <v>319</v>
       </c>
-      <c r="E192" s="1"/>
+      <c r="E192" s="11"/>
       <c r="F192" s="3" t="s">
         <v>407</v>
       </c>
@@ -11081,7 +11369,7 @@
         <v>409</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>336</v>
+        <v>1032</v>
       </c>
       <c r="J192" s="3" t="s">
         <v>336</v>
@@ -11101,7 +11389,7 @@
       <c r="D193" t="s">
         <v>319</v>
       </c>
-      <c r="E193" s="1"/>
+      <c r="E193" s="11"/>
       <c r="F193" s="3" t="s">
         <v>407</v>
       </c>
@@ -11129,7 +11417,7 @@
       <c r="D194" t="s">
         <v>319</v>
       </c>
-      <c r="E194" s="1"/>
+      <c r="E194" s="11"/>
       <c r="F194" s="3" t="s">
         <v>412</v>
       </c>
@@ -11137,7 +11425,7 @@
         <v>415</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>336</v>
+        <v>1032</v>
       </c>
       <c r="J194" s="3" t="s">
         <v>336</v>
@@ -11157,7 +11445,7 @@
       <c r="D195" t="s">
         <v>319</v>
       </c>
-      <c r="E195" s="1"/>
+      <c r="E195" s="11"/>
       <c r="F195" s="3" t="s">
         <v>412</v>
       </c>
@@ -11185,7 +11473,7 @@
       <c r="D196" t="s">
         <v>319</v>
       </c>
-      <c r="E196" s="1"/>
+      <c r="E196" s="11"/>
       <c r="F196" s="3" t="s">
         <v>336</v>
       </c>
@@ -11193,7 +11481,7 @@
         <v>409</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>407</v>
+        <v>1029</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>407</v>
@@ -11213,7 +11501,7 @@
       <c r="D197" t="s">
         <v>319</v>
       </c>
-      <c r="E197" s="1"/>
+      <c r="E197" s="11"/>
       <c r="F197" s="3" t="s">
         <v>336</v>
       </c>
@@ -11221,7 +11509,7 @@
         <v>415</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>412</v>
+        <v>1030</v>
       </c>
       <c r="J197" s="3" t="s">
         <v>412</v>
@@ -11241,7 +11529,7 @@
       <c r="D198" t="s">
         <v>319</v>
       </c>
-      <c r="E198" s="1"/>
+      <c r="E198" s="11"/>
       <c r="F198" s="3" t="s">
         <v>336</v>
       </c>
@@ -11249,7 +11537,7 @@
         <v>420</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>421</v>
+        <v>1031</v>
       </c>
       <c r="J198" s="3" t="s">
         <v>421</v>
@@ -11269,7 +11557,7 @@
       <c r="D199" t="s">
         <v>319</v>
       </c>
-      <c r="E199" s="1"/>
+      <c r="E199" s="11"/>
       <c r="F199" s="3" t="s">
         <v>422</v>
       </c>
@@ -11297,7 +11585,7 @@
       <c r="D200" t="s">
         <v>319</v>
       </c>
-      <c r="E200" s="1"/>
+      <c r="E200" s="11"/>
       <c r="F200" s="3" t="s">
         <v>425</v>
       </c>
@@ -11325,7 +11613,7 @@
       <c r="D201" t="s">
         <v>319</v>
       </c>
-      <c r="E201" s="1"/>
+      <c r="E201" s="11"/>
       <c r="F201" s="3" t="s">
         <v>425</v>
       </c>
@@ -11353,7 +11641,7 @@
       <c r="D202" t="s">
         <v>319</v>
       </c>
-      <c r="E202" s="1"/>
+      <c r="E202" s="11"/>
       <c r="F202" s="3" t="s">
         <v>346</v>
       </c>
@@ -11381,7 +11669,7 @@
       <c r="D203" t="s">
         <v>1</v>
       </c>
-      <c r="E203" s="1"/>
+      <c r="E203" s="11"/>
       <c r="F203" s="3" t="s">
         <v>12</v>
       </c>
@@ -11409,7 +11697,7 @@
       <c r="D204" t="s">
         <v>1</v>
       </c>
-      <c r="E204" s="1"/>
+      <c r="E204" s="11"/>
       <c r="F204" s="3" t="s">
         <v>12</v>
       </c>
@@ -11417,7 +11705,7 @@
         <v>411</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>407</v>
+        <v>1029</v>
       </c>
       <c r="J204" s="3" t="s">
         <v>407</v>
@@ -11437,7 +11725,7 @@
       <c r="D205" t="s">
         <v>1</v>
       </c>
-      <c r="E205" s="1"/>
+      <c r="E205" s="11"/>
       <c r="F205" s="3" t="s">
         <v>12</v>
       </c>
@@ -11445,7 +11733,7 @@
         <v>416</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>412</v>
+        <v>1030</v>
       </c>
       <c r="J205" s="3" t="s">
         <v>412</v>
@@ -11465,7 +11753,7 @@
       <c r="D206" t="s">
         <v>1</v>
       </c>
-      <c r="E206" s="1"/>
+      <c r="E206" s="11"/>
       <c r="F206" s="3" t="s">
         <v>12</v>
       </c>
@@ -11473,7 +11761,7 @@
         <v>437</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>421</v>
+        <v>1031</v>
       </c>
       <c r="J206" s="3" t="s">
         <v>421</v>
@@ -11493,7 +11781,7 @@
       <c r="D207" t="s">
         <v>1</v>
       </c>
-      <c r="E207" s="1"/>
+      <c r="E207" s="11"/>
       <c r="F207" s="3" t="s">
         <v>4</v>
       </c>
@@ -11521,7 +11809,7 @@
       <c r="D208" t="s">
         <v>1</v>
       </c>
-      <c r="E208" s="1"/>
+      <c r="E208" s="11"/>
       <c r="F208" s="3" t="s">
         <v>4</v>
       </c>
@@ -11549,7 +11837,7 @@
       <c r="D209" t="s">
         <v>1</v>
       </c>
-      <c r="E209" s="1"/>
+      <c r="E209" s="11"/>
       <c r="F209" s="3" t="s">
         <v>4</v>
       </c>
@@ -11577,7 +11865,7 @@
       <c r="D210" t="s">
         <v>1</v>
       </c>
-      <c r="E210" s="1"/>
+      <c r="E210" s="11"/>
       <c r="F210" s="3" t="s">
         <v>4</v>
       </c>
@@ -11605,7 +11893,7 @@
       <c r="D211" t="s">
         <v>1</v>
       </c>
-      <c r="E211" s="1"/>
+      <c r="E211" s="11"/>
       <c r="F211" s="3" t="s">
         <v>11</v>
       </c>
@@ -11633,7 +11921,7 @@
       <c r="D212" t="s">
         <v>1</v>
       </c>
-      <c r="E212" s="1"/>
+      <c r="E212" s="11"/>
       <c r="F212" s="3" t="s">
         <v>11</v>
       </c>
@@ -11661,7 +11949,7 @@
       <c r="D213" t="s">
         <v>1</v>
       </c>
-      <c r="E213" s="1"/>
+      <c r="E213" s="11"/>
       <c r="F213" s="3" t="s">
         <v>11</v>
       </c>
@@ -11689,7 +11977,7 @@
       <c r="D214" t="s">
         <v>1</v>
       </c>
-      <c r="E214" s="1"/>
+      <c r="E214" s="11"/>
       <c r="F214" s="3" t="s">
         <v>11</v>
       </c>
@@ -11717,7 +12005,7 @@
       <c r="D215" t="s">
         <v>1</v>
       </c>
-      <c r="E215" s="1"/>
+      <c r="E215" s="11"/>
       <c r="F215" s="3" t="s">
         <v>17</v>
       </c>
@@ -11745,7 +12033,7 @@
       <c r="D216" t="s">
         <v>1</v>
       </c>
-      <c r="E216" s="1"/>
+      <c r="E216" s="11"/>
       <c r="F216" s="3" t="s">
         <v>17</v>
       </c>
@@ -11773,7 +12061,7 @@
       <c r="D217" t="s">
         <v>1</v>
       </c>
-      <c r="E217" s="1"/>
+      <c r="E217" s="11"/>
       <c r="F217" s="3" t="s">
         <v>17</v>
       </c>
@@ -11801,7 +12089,7 @@
       <c r="D218" t="s">
         <v>1</v>
       </c>
-      <c r="E218" s="1"/>
+      <c r="E218" s="11"/>
       <c r="F218" s="3" t="s">
         <v>17</v>
       </c>
@@ -11829,7 +12117,7 @@
       <c r="D219" t="s">
         <v>319</v>
       </c>
-      <c r="E219" s="1"/>
+      <c r="E219" s="11"/>
       <c r="F219" s="3" t="s">
         <v>406</v>
       </c>
@@ -11857,7 +12145,7 @@
       <c r="D220" t="s">
         <v>319</v>
       </c>
-      <c r="E220" s="1"/>
+      <c r="E220" s="11"/>
       <c r="F220" s="3" t="s">
         <v>440</v>
       </c>
@@ -11885,7 +12173,7 @@
       <c r="D221" t="s">
         <v>319</v>
       </c>
-      <c r="E221" s="1"/>
+      <c r="E221" s="11"/>
       <c r="F221" s="3" t="s">
         <v>440</v>
       </c>
@@ -11913,7 +12201,7 @@
       <c r="D222" t="s">
         <v>319</v>
       </c>
-      <c r="E222" s="1"/>
+      <c r="E222" s="11"/>
       <c r="F222" s="3" t="s">
         <v>460</v>
       </c>
@@ -11941,7 +12229,7 @@
       <c r="D223" t="s">
         <v>319</v>
       </c>
-      <c r="E223" s="1"/>
+      <c r="E223" s="11"/>
       <c r="F223" s="3" t="s">
         <v>460</v>
       </c>
@@ -11949,7 +12237,7 @@
         <v>472</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>473</v>
+        <v>1019</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>473</v>
@@ -11969,7 +12257,7 @@
       <c r="D224" t="s">
         <v>319</v>
       </c>
-      <c r="E224" s="1"/>
+      <c r="E224" s="11"/>
       <c r="F224" s="3" t="s">
         <v>474</v>
       </c>
@@ -11997,7 +12285,7 @@
       <c r="D225" t="s">
         <v>319</v>
       </c>
-      <c r="E225" s="1"/>
+      <c r="E225" s="11"/>
       <c r="F225" s="3" t="s">
         <v>477</v>
       </c>
@@ -12025,7 +12313,7 @@
       <c r="D226" t="s">
         <v>319</v>
       </c>
-      <c r="E226" s="1"/>
+      <c r="E226" s="11"/>
       <c r="F226" s="3" t="s">
         <v>473</v>
       </c>
@@ -12053,7 +12341,7 @@
       <c r="D227" t="s">
         <v>319</v>
       </c>
-      <c r="E227" s="1"/>
+      <c r="E227" s="11"/>
       <c r="F227" s="3" t="s">
         <v>473</v>
       </c>
@@ -12081,7 +12369,7 @@
       <c r="D228" t="s">
         <v>319</v>
       </c>
-      <c r="E228" s="1"/>
+      <c r="E228" s="11"/>
       <c r="F228" s="3" t="s">
         <v>473</v>
       </c>
@@ -12109,7 +12397,7 @@
       <c r="D229" t="s">
         <v>319</v>
       </c>
-      <c r="E229" s="1"/>
+      <c r="E229" s="11"/>
       <c r="F229" s="3" t="s">
         <v>473</v>
       </c>
@@ -12137,7 +12425,7 @@
       <c r="D230" t="s">
         <v>319</v>
       </c>
-      <c r="E230" s="1"/>
+      <c r="E230" s="11"/>
       <c r="F230" s="3" t="s">
         <v>489</v>
       </c>
@@ -12165,7 +12453,7 @@
       <c r="D231" t="s">
         <v>319</v>
       </c>
-      <c r="E231" s="1"/>
+      <c r="E231" s="11"/>
       <c r="F231" s="3" t="s">
         <v>489</v>
       </c>
@@ -12193,7 +12481,7 @@
       <c r="D232" t="s">
         <v>319</v>
       </c>
-      <c r="E232" s="1"/>
+      <c r="E232" s="11"/>
       <c r="F232" s="3" t="s">
         <v>489</v>
       </c>
@@ -12221,7 +12509,7 @@
       <c r="D233" t="s">
         <v>319</v>
       </c>
-      <c r="E233" s="1"/>
+      <c r="E233" s="11"/>
       <c r="F233" s="3" t="s">
         <v>489</v>
       </c>
@@ -12249,7 +12537,7 @@
       <c r="D234" t="s">
         <v>319</v>
       </c>
-      <c r="E234" s="1"/>
+      <c r="E234" s="11"/>
       <c r="F234" s="3" t="s">
         <v>498</v>
       </c>
@@ -12277,7 +12565,7 @@
       <c r="D235" t="s">
         <v>319</v>
       </c>
-      <c r="E235" s="1"/>
+      <c r="E235" s="11"/>
       <c r="F235" s="3" t="s">
         <v>498</v>
       </c>
@@ -12305,7 +12593,7 @@
       <c r="D236" t="s">
         <v>319</v>
       </c>
-      <c r="E236" s="1"/>
+      <c r="E236" s="11"/>
       <c r="F236" s="3" t="s">
         <v>498</v>
       </c>
@@ -12333,7 +12621,7 @@
       <c r="D237" t="s">
         <v>319</v>
       </c>
-      <c r="E237" s="1"/>
+      <c r="E237" s="11"/>
       <c r="F237" s="3" t="s">
         <v>498</v>
       </c>
@@ -12361,7 +12649,7 @@
       <c r="D238" t="s">
         <v>319</v>
       </c>
-      <c r="E238" s="1"/>
+      <c r="E238" s="11"/>
       <c r="F238" s="3" t="s">
         <v>498</v>
       </c>
@@ -12389,7 +12677,7 @@
       <c r="D239" t="s">
         <v>319</v>
       </c>
-      <c r="E239" s="1"/>
+      <c r="E239" s="11"/>
       <c r="F239" s="3" t="s">
         <v>498</v>
       </c>
@@ -12397,7 +12685,7 @@
         <v>514</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>512</v>
+        <v>1026</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>512</v>
@@ -12417,7 +12705,7 @@
       <c r="D240" t="s">
         <v>319</v>
       </c>
-      <c r="E240" s="1"/>
+      <c r="E240" s="11"/>
       <c r="F240" s="3" t="s">
         <v>498</v>
       </c>
@@ -12425,7 +12713,7 @@
         <v>515</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>516</v>
+        <v>1027</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>516</v>
@@ -12445,7 +12733,7 @@
       <c r="D241" t="s">
         <v>319</v>
       </c>
-      <c r="E241" s="1"/>
+      <c r="E241" s="11"/>
       <c r="F241" s="3" t="s">
         <v>498</v>
       </c>
@@ -12453,7 +12741,7 @@
         <v>518</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>519</v>
+        <v>1028</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>519</v>
@@ -12473,7 +12761,7 @@
       <c r="D242" t="s">
         <v>319</v>
       </c>
-      <c r="E242" s="1"/>
+      <c r="E242" s="11"/>
       <c r="F242" s="3" t="s">
         <v>498</v>
       </c>
@@ -12501,7 +12789,7 @@
       <c r="D243" t="s">
         <v>319</v>
       </c>
-      <c r="E243" s="1"/>
+      <c r="E243" s="11"/>
       <c r="F243" s="3" t="s">
         <v>505</v>
       </c>
@@ -12529,7 +12817,7 @@
       <c r="D244" t="s">
         <v>319</v>
       </c>
-      <c r="E244" s="1"/>
+      <c r="E244" s="11"/>
       <c r="F244" s="3" t="s">
         <v>505</v>
       </c>
@@ -12557,7 +12845,7 @@
       <c r="D245" t="s">
         <v>319</v>
       </c>
-      <c r="E245" s="1"/>
+      <c r="E245" s="11"/>
       <c r="F245" s="3" t="s">
         <v>505</v>
       </c>
@@ -12585,7 +12873,7 @@
       <c r="D246" t="s">
         <v>319</v>
       </c>
-      <c r="E246" s="1"/>
+      <c r="E246" s="11"/>
       <c r="F246" s="3" t="s">
         <v>505</v>
       </c>
@@ -12593,7 +12881,7 @@
         <v>534</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>512</v>
+        <v>1026</v>
       </c>
       <c r="J246" s="3" t="s">
         <v>512</v>
@@ -12613,7 +12901,7 @@
       <c r="D247" t="s">
         <v>319</v>
       </c>
-      <c r="E247" s="1"/>
+      <c r="E247" s="11"/>
       <c r="F247" s="3" t="s">
         <v>505</v>
       </c>
@@ -12621,7 +12909,7 @@
         <v>535</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>516</v>
+        <v>1027</v>
       </c>
       <c r="J247" s="3" t="s">
         <v>516</v>
@@ -12641,7 +12929,7 @@
       <c r="D248" t="s">
         <v>319</v>
       </c>
-      <c r="E248" s="1"/>
+      <c r="E248" s="11"/>
       <c r="F248" s="3" t="s">
         <v>505</v>
       </c>
@@ -12649,7 +12937,7 @@
         <v>536</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>519</v>
+        <v>1028</v>
       </c>
       <c r="J248" s="3" t="s">
         <v>519</v>
@@ -12669,7 +12957,7 @@
       <c r="D249" t="s">
         <v>319</v>
       </c>
-      <c r="E249" s="1"/>
+      <c r="E249" s="11"/>
       <c r="F249" s="3" t="s">
         <v>505</v>
       </c>
@@ -12697,7 +12985,7 @@
       <c r="D250" t="s">
         <v>319</v>
       </c>
-      <c r="E250" s="1"/>
+      <c r="E250" s="11"/>
       <c r="F250" s="3" t="s">
         <v>501</v>
       </c>
@@ -12725,7 +13013,7 @@
       <c r="D251" t="s">
         <v>319</v>
       </c>
-      <c r="E251" s="1"/>
+      <c r="E251" s="11"/>
       <c r="F251" s="3" t="s">
         <v>501</v>
       </c>
@@ -12753,7 +13041,7 @@
       <c r="D252" t="s">
         <v>319</v>
       </c>
-      <c r="E252" s="1"/>
+      <c r="E252" s="11"/>
       <c r="F252" s="3" t="s">
         <v>501</v>
       </c>
@@ -12781,7 +13069,7 @@
       <c r="D253" t="s">
         <v>319</v>
       </c>
-      <c r="E253" s="1"/>
+      <c r="E253" s="11"/>
       <c r="F253" s="3" t="s">
         <v>506</v>
       </c>
@@ -12789,7 +13077,7 @@
         <v>545</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>505</v>
+        <v>1020</v>
       </c>
       <c r="J253" s="3" t="s">
         <v>505</v>
@@ -12809,7 +13097,7 @@
       <c r="D254" t="s">
         <v>319</v>
       </c>
-      <c r="E254" s="1"/>
+      <c r="E254" s="11"/>
       <c r="F254" s="3" t="s">
         <v>506</v>
       </c>
@@ -12837,7 +13125,7 @@
       <c r="D255" t="s">
         <v>319</v>
       </c>
-      <c r="E255" s="1"/>
+      <c r="E255" s="11"/>
       <c r="F255" s="3" t="s">
         <v>503</v>
       </c>
@@ -12865,7 +13153,7 @@
       <c r="D256" t="s">
         <v>319</v>
       </c>
-      <c r="E256" s="1"/>
+      <c r="E256" s="11"/>
       <c r="F256" s="3" t="s">
         <v>503</v>
       </c>
@@ -12893,7 +13181,7 @@
       <c r="D257" t="s">
         <v>319</v>
       </c>
-      <c r="E257" s="1"/>
+      <c r="E257" s="11"/>
       <c r="F257" s="3" t="s">
         <v>469</v>
       </c>
@@ -12901,7 +13189,7 @@
         <v>509</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>505</v>
+        <v>1020</v>
       </c>
       <c r="J257" s="3" t="s">
         <v>505</v>
@@ -12921,7 +13209,7 @@
       <c r="D258" t="s">
         <v>319</v>
       </c>
-      <c r="E258" s="1"/>
+      <c r="E258" s="11"/>
       <c r="F258" s="3" t="s">
         <v>469</v>
       </c>
@@ -12949,7 +13237,7 @@
       <c r="D259" t="s">
         <v>319</v>
       </c>
-      <c r="E259" s="1"/>
+      <c r="E259" s="11"/>
       <c r="F259" s="3" t="s">
         <v>512</v>
       </c>
@@ -12957,7 +13245,7 @@
         <v>514</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>505</v>
+        <v>1020</v>
       </c>
       <c r="J259" s="3" t="s">
         <v>505</v>
@@ -12977,7 +13265,7 @@
       <c r="D260" t="s">
         <v>319</v>
       </c>
-      <c r="E260" s="1"/>
+      <c r="E260" s="11"/>
       <c r="F260" s="3" t="s">
         <v>512</v>
       </c>
@@ -13005,7 +13293,7 @@
       <c r="D261" t="s">
         <v>319</v>
       </c>
-      <c r="E261" s="1"/>
+      <c r="E261" s="11"/>
       <c r="F261" s="3" t="s">
         <v>516</v>
       </c>
@@ -13013,7 +13301,7 @@
         <v>515</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>505</v>
+        <v>1020</v>
       </c>
       <c r="J261" s="3" t="s">
         <v>505</v>
@@ -13033,7 +13321,7 @@
       <c r="D262" t="s">
         <v>319</v>
       </c>
-      <c r="E262" s="1"/>
+      <c r="E262" s="11"/>
       <c r="F262" s="3" t="s">
         <v>516</v>
       </c>
@@ -13061,7 +13349,7 @@
       <c r="D263" t="s">
         <v>319</v>
       </c>
-      <c r="E263" s="1"/>
+      <c r="E263" s="11"/>
       <c r="F263" s="3" t="s">
         <v>519</v>
       </c>
@@ -13069,7 +13357,7 @@
         <v>518</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>505</v>
+        <v>1020</v>
       </c>
       <c r="J263" s="3" t="s">
         <v>505</v>
@@ -13089,7 +13377,7 @@
       <c r="D264" t="s">
         <v>319</v>
       </c>
-      <c r="E264" s="1"/>
+      <c r="E264" s="11"/>
       <c r="F264" s="3" t="s">
         <v>519</v>
       </c>
@@ -13117,7 +13405,7 @@
       <c r="D265" t="s">
         <v>1</v>
       </c>
-      <c r="E265" s="1"/>
+      <c r="E265" s="11"/>
       <c r="F265" s="3" t="s">
         <v>115</v>
       </c>
@@ -13145,7 +13433,7 @@
       <c r="D266" t="s">
         <v>1</v>
       </c>
-      <c r="E266" s="1"/>
+      <c r="E266" s="11"/>
       <c r="F266" s="3" t="s">
         <v>117</v>
       </c>
@@ -13173,7 +13461,7 @@
       <c r="D267" t="s">
         <v>1</v>
       </c>
-      <c r="E267" s="1"/>
+      <c r="E267" s="11"/>
       <c r="F267" s="3" t="s">
         <v>105</v>
       </c>
@@ -13201,7 +13489,7 @@
       <c r="D268" t="s">
         <v>1</v>
       </c>
-      <c r="E268" s="1"/>
+      <c r="E268" s="11"/>
       <c r="F268" s="3" t="s">
         <v>106</v>
       </c>
@@ -13229,7 +13517,7 @@
       <c r="D269" t="s">
         <v>1</v>
       </c>
-      <c r="E269" s="1"/>
+      <c r="E269" s="11"/>
       <c r="F269" s="3" t="s">
         <v>107</v>
       </c>
@@ -13257,7 +13545,7 @@
       <c r="D270" t="s">
         <v>1</v>
       </c>
-      <c r="E270" s="1"/>
+      <c r="E270" s="11"/>
       <c r="F270" s="3" t="s">
         <v>108</v>
       </c>
@@ -13265,7 +13553,7 @@
         <v>531</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>505</v>
+        <v>1020</v>
       </c>
       <c r="J270" s="3" t="s">
         <v>505</v>
@@ -13285,7 +13573,7 @@
       <c r="D271" t="s">
         <v>1</v>
       </c>
-      <c r="E271" s="1"/>
+      <c r="E271" s="11"/>
       <c r="F271" s="3" t="s">
         <v>108</v>
       </c>
@@ -13313,7 +13601,7 @@
       <c r="D272" t="s">
         <v>1</v>
       </c>
-      <c r="E272" s="1"/>
+      <c r="E272" s="11"/>
       <c r="F272" s="3" t="s">
         <v>109</v>
       </c>
@@ -13321,7 +13609,7 @@
         <v>532</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>505</v>
+        <v>1020</v>
       </c>
       <c r="J272" s="3" t="s">
         <v>505</v>
@@ -13341,7 +13629,7 @@
       <c r="D273" t="s">
         <v>1</v>
       </c>
-      <c r="E273" s="1"/>
+      <c r="E273" s="11"/>
       <c r="F273" s="3" t="s">
         <v>109</v>
       </c>
@@ -13369,7 +13657,7 @@
       <c r="D274" t="s">
         <v>319</v>
       </c>
-      <c r="E274" s="1"/>
+      <c r="E274" s="11"/>
       <c r="F274" s="3" t="s">
         <v>577</v>
       </c>
@@ -13397,7 +13685,7 @@
       <c r="D275" t="s">
         <v>319</v>
       </c>
-      <c r="E275" s="1"/>
+      <c r="E275" s="11"/>
       <c r="F275" s="3" t="s">
         <v>577</v>
       </c>
@@ -13405,7 +13693,7 @@
         <v>582</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>583</v>
+        <v>1025</v>
       </c>
       <c r="J275" s="3" t="s">
         <v>583</v>
@@ -13425,7 +13713,7 @@
       <c r="D276" t="s">
         <v>319</v>
       </c>
-      <c r="E276" s="1"/>
+      <c r="E276" s="11"/>
       <c r="F276" s="3" t="s">
         <v>522</v>
       </c>
@@ -13453,7 +13741,7 @@
       <c r="D277" t="s">
         <v>319</v>
       </c>
-      <c r="E277" s="1"/>
+      <c r="E277" s="11"/>
       <c r="F277" s="3" t="s">
         <v>522</v>
       </c>
@@ -13461,7 +13749,7 @@
         <v>587</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>583</v>
+        <v>1025</v>
       </c>
       <c r="J277" s="3" t="s">
         <v>583</v>
@@ -13481,7 +13769,7 @@
       <c r="D278" t="s">
         <v>319</v>
       </c>
-      <c r="E278" s="1"/>
+      <c r="E278" s="11"/>
       <c r="F278" s="3" t="s">
         <v>580</v>
       </c>
@@ -13509,7 +13797,7 @@
       <c r="D279" t="s">
         <v>319</v>
       </c>
-      <c r="E279" s="1"/>
+      <c r="E279" s="11"/>
       <c r="F279" s="3" t="s">
         <v>580</v>
       </c>
@@ -13537,7 +13825,7 @@
       <c r="D280" t="s">
         <v>319</v>
       </c>
-      <c r="E280" s="1"/>
+      <c r="E280" s="11"/>
       <c r="F280" s="3" t="s">
         <v>580</v>
       </c>
@@ -13565,7 +13853,7 @@
       <c r="D281" t="s">
         <v>319</v>
       </c>
-      <c r="E281" s="1"/>
+      <c r="E281" s="11"/>
       <c r="F281" s="3" t="s">
         <v>580</v>
       </c>
@@ -13593,7 +13881,7 @@
       <c r="D282" t="s">
         <v>319</v>
       </c>
-      <c r="E282" s="1"/>
+      <c r="E282" s="11"/>
       <c r="F282" s="3" t="s">
         <v>580</v>
       </c>
@@ -13621,7 +13909,7 @@
       <c r="D283" t="s">
         <v>319</v>
       </c>
-      <c r="E283" s="1"/>
+      <c r="E283" s="11"/>
       <c r="F283" s="3" t="s">
         <v>580</v>
       </c>
@@ -13649,7 +13937,7 @@
       <c r="D284" t="s">
         <v>319</v>
       </c>
-      <c r="E284" s="1"/>
+      <c r="E284" s="11"/>
       <c r="F284" s="3" t="s">
         <v>580</v>
       </c>
@@ -13657,7 +13945,7 @@
         <v>612</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>616</v>
+        <v>1021</v>
       </c>
       <c r="J284" s="3" t="s">
         <v>616</v>
@@ -13677,7 +13965,7 @@
       <c r="D285" t="s">
         <v>319</v>
       </c>
-      <c r="E285" s="1"/>
+      <c r="E285" s="11"/>
       <c r="F285" s="3" t="s">
         <v>580</v>
       </c>
@@ -13685,7 +13973,7 @@
         <v>613</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>617</v>
+        <v>1022</v>
       </c>
       <c r="J285" s="3" t="s">
         <v>617</v>
@@ -13705,7 +13993,7 @@
       <c r="D286" t="s">
         <v>319</v>
       </c>
-      <c r="E286" s="1"/>
+      <c r="E286" s="11"/>
       <c r="F286" s="3" t="s">
         <v>580</v>
       </c>
@@ -13713,7 +14001,7 @@
         <v>614</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>618</v>
+        <v>1023</v>
       </c>
       <c r="J286" s="3" t="s">
         <v>618</v>
@@ -13733,7 +14021,7 @@
       <c r="D287" t="s">
         <v>319</v>
       </c>
-      <c r="E287" s="1"/>
+      <c r="E287" s="11"/>
       <c r="F287" s="3" t="s">
         <v>580</v>
       </c>
@@ -13741,7 +14029,7 @@
         <v>615</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>619</v>
+        <v>1024</v>
       </c>
       <c r="J287" s="3" t="s">
         <v>619</v>
@@ -13761,7 +14049,7 @@
       <c r="D288" t="s">
         <v>319</v>
       </c>
-      <c r="E288" s="1"/>
+      <c r="E288" s="11"/>
       <c r="F288" s="3" t="s">
         <v>583</v>
       </c>
@@ -13789,7 +14077,7 @@
       <c r="D289" t="s">
         <v>319</v>
       </c>
-      <c r="E289" s="1"/>
+      <c r="E289" s="11"/>
       <c r="F289" s="3" t="s">
         <v>583</v>
       </c>
@@ -13817,7 +14105,7 @@
       <c r="D290" t="s">
         <v>319</v>
       </c>
-      <c r="E290" s="1"/>
+      <c r="E290" s="11"/>
       <c r="F290" s="3" t="s">
         <v>592</v>
       </c>
@@ -13845,7 +14133,7 @@
       <c r="D291" t="s">
         <v>319</v>
       </c>
-      <c r="E291" s="1"/>
+      <c r="E291" s="11"/>
       <c r="F291" s="3" t="s">
         <v>593</v>
       </c>
@@ -13873,7 +14161,7 @@
       <c r="D292" t="s">
         <v>319</v>
       </c>
-      <c r="E292" s="1"/>
+      <c r="E292" s="11"/>
       <c r="F292" s="3" t="s">
         <v>594</v>
       </c>
@@ -13901,7 +14189,7 @@
       <c r="D293" t="s">
         <v>319</v>
       </c>
-      <c r="E293" s="1"/>
+      <c r="E293" s="11"/>
       <c r="F293" s="3" t="s">
         <v>594</v>
       </c>
@@ -13929,7 +14217,7 @@
       <c r="D294" t="s">
         <v>319</v>
       </c>
-      <c r="E294" s="1"/>
+      <c r="E294" s="11"/>
       <c r="F294" s="3" t="s">
         <v>594</v>
       </c>
@@ -13957,7 +14245,7 @@
       <c r="D295" t="s">
         <v>319</v>
       </c>
-      <c r="E295" s="1"/>
+      <c r="E295" s="11"/>
       <c r="F295" s="3" t="s">
         <v>594</v>
       </c>
@@ -13985,7 +14273,7 @@
       <c r="D296" t="s">
         <v>319</v>
       </c>
-      <c r="E296" s="1"/>
+      <c r="E296" s="11"/>
       <c r="F296" s="3" t="s">
         <v>594</v>
       </c>
@@ -14013,7 +14301,7 @@
       <c r="D297" t="s">
         <v>319</v>
       </c>
-      <c r="E297" s="1"/>
+      <c r="E297" s="11"/>
       <c r="F297" s="3" t="s">
         <v>638</v>
       </c>
@@ -14041,7 +14329,7 @@
       <c r="D298" t="s">
         <v>319</v>
       </c>
-      <c r="E298" s="1"/>
+      <c r="E298" s="11"/>
       <c r="F298" s="3" t="s">
         <v>638</v>
       </c>
@@ -14069,7 +14357,7 @@
       <c r="D299" t="s">
         <v>319</v>
       </c>
-      <c r="E299" s="1"/>
+      <c r="E299" s="11"/>
       <c r="F299" s="3" t="s">
         <v>628</v>
       </c>
@@ -14097,7 +14385,7 @@
       <c r="D300" t="s">
         <v>319</v>
       </c>
-      <c r="E300" s="1"/>
+      <c r="E300" s="11"/>
       <c r="F300" s="3" t="s">
         <v>628</v>
       </c>
@@ -14125,7 +14413,7 @@
       <c r="D301" t="s">
         <v>319</v>
       </c>
-      <c r="E301" s="1"/>
+      <c r="E301" s="11"/>
       <c r="F301" s="3" t="s">
         <v>608</v>
       </c>
@@ -14153,7 +14441,7 @@
       <c r="D302" t="s">
         <v>319</v>
       </c>
-      <c r="E302" s="1"/>
+      <c r="E302" s="11"/>
       <c r="F302" s="3" t="s">
         <v>608</v>
       </c>
@@ -14181,7 +14469,7 @@
       <c r="D303" t="s">
         <v>319</v>
       </c>
-      <c r="E303" s="1"/>
+      <c r="E303" s="11"/>
       <c r="F303" s="3" t="s">
         <v>608</v>
       </c>
@@ -14209,7 +14497,7 @@
       <c r="D304" t="s">
         <v>319</v>
       </c>
-      <c r="E304" s="1"/>
+      <c r="E304" s="11"/>
       <c r="F304" s="3" t="s">
         <v>608</v>
       </c>
@@ -14237,7 +14525,7 @@
       <c r="D305" t="s">
         <v>319</v>
       </c>
-      <c r="E305" s="1"/>
+      <c r="E305" s="11"/>
       <c r="F305" s="3" t="s">
         <v>608</v>
       </c>
@@ -14265,7 +14553,7 @@
       <c r="D306" t="s">
         <v>319</v>
       </c>
-      <c r="E306" s="1"/>
+      <c r="E306" s="11"/>
       <c r="F306" s="3" t="s">
         <v>590</v>
       </c>
@@ -14293,7 +14581,7 @@
       <c r="D307" t="s">
         <v>319</v>
       </c>
-      <c r="E307" s="1"/>
+      <c r="E307" s="11"/>
       <c r="F307" s="3" t="s">
         <v>590</v>
       </c>
@@ -14321,7 +14609,7 @@
       <c r="D308" t="s">
         <v>319</v>
       </c>
-      <c r="E308" s="1"/>
+      <c r="E308" s="11"/>
       <c r="F308" s="3" t="s">
         <v>664</v>
       </c>
@@ -14349,7 +14637,7 @@
       <c r="D309" t="s">
         <v>319</v>
       </c>
-      <c r="E309" s="1"/>
+      <c r="E309" s="11"/>
       <c r="F309" s="3" t="s">
         <v>664</v>
       </c>
@@ -14377,7 +14665,7 @@
       <c r="D310" t="s">
         <v>319</v>
       </c>
-      <c r="E310" s="1"/>
+      <c r="E310" s="11"/>
       <c r="F310" s="3" t="s">
         <v>664</v>
       </c>
@@ -14405,7 +14693,7 @@
       <c r="D311" t="s">
         <v>319</v>
       </c>
-      <c r="E311" s="1"/>
+      <c r="E311" s="11"/>
       <c r="F311" s="3" t="s">
         <v>664</v>
       </c>
@@ -14433,7 +14721,7 @@
       <c r="D312" t="s">
         <v>319</v>
       </c>
-      <c r="E312" s="1"/>
+      <c r="E312" s="11"/>
       <c r="F312" s="3" t="s">
         <v>664</v>
       </c>
@@ -14461,7 +14749,7 @@
       <c r="D313" t="s">
         <v>1</v>
       </c>
-      <c r="E313" s="1"/>
+      <c r="E313" s="11"/>
       <c r="F313" s="3" t="s">
         <v>199</v>
       </c>
@@ -14489,7 +14777,7 @@
       <c r="D314" t="s">
         <v>1</v>
       </c>
-      <c r="E314" s="1"/>
+      <c r="E314" s="11"/>
       <c r="F314" s="3" t="s">
         <v>199</v>
       </c>
@@ -14517,7 +14805,7 @@
       <c r="D315" t="s">
         <v>1</v>
       </c>
-      <c r="E315" s="1"/>
+      <c r="E315" s="11"/>
       <c r="F315" s="3" t="s">
         <v>199</v>
       </c>
@@ -14545,7 +14833,7 @@
       <c r="D316" t="s">
         <v>1</v>
       </c>
-      <c r="E316" s="1"/>
+      <c r="E316" s="11"/>
       <c r="F316" s="3" t="s">
         <v>199</v>
       </c>
@@ -14573,7 +14861,7 @@
       <c r="D317" t="s">
         <v>1</v>
       </c>
-      <c r="E317" s="1"/>
+      <c r="E317" s="11"/>
       <c r="F317" s="3" t="s">
         <v>21</v>
       </c>
@@ -14601,7 +14889,7 @@
       <c r="D318" t="s">
         <v>1</v>
       </c>
-      <c r="E318" s="1"/>
+      <c r="E318" s="11"/>
       <c r="F318" s="3" t="s">
         <v>21</v>
       </c>
@@ -14629,7 +14917,7 @@
       <c r="D319" t="s">
         <v>1</v>
       </c>
-      <c r="E319" s="1"/>
+      <c r="E319" s="11"/>
       <c r="F319" s="3" t="s">
         <v>21</v>
       </c>
@@ -14657,7 +14945,7 @@
       <c r="D320" t="s">
         <v>1</v>
       </c>
-      <c r="E320" s="1"/>
+      <c r="E320" s="11"/>
       <c r="F320" s="3" t="s">
         <v>21</v>
       </c>
@@ -14685,7 +14973,7 @@
       <c r="D321" t="s">
         <v>1</v>
       </c>
-      <c r="E321" s="1"/>
+      <c r="E321" s="11"/>
       <c r="F321" s="3" t="s">
         <v>30</v>
       </c>
@@ -14713,7 +15001,7 @@
       <c r="D322" t="s">
         <v>1</v>
       </c>
-      <c r="E322" s="1"/>
+      <c r="E322" s="11"/>
       <c r="F322" s="3" t="s">
         <v>30</v>
       </c>
@@ -14741,7 +15029,7 @@
       <c r="D323" t="s">
         <v>1</v>
       </c>
-      <c r="E323" s="1"/>
+      <c r="E323" s="11"/>
       <c r="F323" s="3" t="s">
         <v>30</v>
       </c>
@@ -14769,7 +15057,7 @@
       <c r="D324" t="s">
         <v>1</v>
       </c>
-      <c r="E324" s="1"/>
+      <c r="E324" s="11"/>
       <c r="F324" s="3" t="s">
         <v>34</v>
       </c>
@@ -14797,7 +15085,7 @@
       <c r="D325" t="s">
         <v>1</v>
       </c>
-      <c r="E325" s="1"/>
+      <c r="E325" s="11"/>
       <c r="F325" s="3" t="s">
         <v>34</v>
       </c>
@@ -14825,7 +15113,7 @@
       <c r="D326" t="s">
         <v>1</v>
       </c>
-      <c r="E326" s="1"/>
+      <c r="E326" s="11"/>
       <c r="F326" s="3" t="s">
         <v>34</v>
       </c>
@@ -14853,7 +15141,7 @@
       <c r="D327" t="s">
         <v>1</v>
       </c>
-      <c r="E327" s="1"/>
+      <c r="E327" s="11"/>
       <c r="F327" s="3" t="s">
         <v>34</v>
       </c>
@@ -14881,7 +15169,7 @@
       <c r="D328" t="s">
         <v>1</v>
       </c>
-      <c r="E328" s="1"/>
+      <c r="E328" s="11"/>
       <c r="F328" s="3" t="s">
         <v>34</v>
       </c>
@@ -14909,7 +15197,7 @@
       <c r="D329" t="s">
         <v>1</v>
       </c>
-      <c r="E329" s="1"/>
+      <c r="E329" s="11"/>
       <c r="F329" s="3" t="s">
         <v>38</v>
       </c>
@@ -14937,7 +15225,7 @@
       <c r="D330" t="s">
         <v>1</v>
       </c>
-      <c r="E330" s="1"/>
+      <c r="E330" s="11"/>
       <c r="F330" s="3" t="s">
         <v>38</v>
       </c>
@@ -14965,7 +15253,7 @@
       <c r="D331" t="s">
         <v>1</v>
       </c>
-      <c r="E331" s="1"/>
+      <c r="E331" s="11"/>
       <c r="F331" s="3" t="s">
         <v>38</v>
       </c>
@@ -14993,7 +15281,7 @@
       <c r="D332" t="s">
         <v>1</v>
       </c>
-      <c r="E332" s="1"/>
+      <c r="E332" s="11"/>
       <c r="F332" s="3" t="s">
         <v>38</v>
       </c>
@@ -15021,7 +15309,7 @@
       <c r="D333" t="s">
         <v>1</v>
       </c>
-      <c r="E333" s="1"/>
+      <c r="E333" s="11"/>
       <c r="F333" s="3" t="s">
         <v>38</v>
       </c>
@@ -15049,7 +15337,7 @@
       <c r="D334" t="s">
         <v>1</v>
       </c>
-      <c r="E334" s="1"/>
+      <c r="E334" s="11"/>
       <c r="F334" s="3" t="s">
         <v>44</v>
       </c>
@@ -15077,7 +15365,7 @@
       <c r="D335" t="s">
         <v>1</v>
       </c>
-      <c r="E335" s="1"/>
+      <c r="E335" s="11"/>
       <c r="F335" s="3" t="s">
         <v>44</v>
       </c>
@@ -15105,7 +15393,7 @@
       <c r="D336" t="s">
         <v>1</v>
       </c>
-      <c r="E336" s="1"/>
+      <c r="E336" s="11"/>
       <c r="F336" s="3" t="s">
         <v>44</v>
       </c>
@@ -15133,7 +15421,7 @@
       <c r="D337" t="s">
         <v>1</v>
       </c>
-      <c r="E337" s="1"/>
+      <c r="E337" s="11"/>
       <c r="F337" s="3" t="s">
         <v>44</v>
       </c>
@@ -15161,7 +15449,7 @@
       <c r="D338" t="s">
         <v>1</v>
       </c>
-      <c r="E338" s="1"/>
+      <c r="E338" s="11"/>
       <c r="F338" s="3" t="s">
         <v>44</v>
       </c>
@@ -15189,7 +15477,7 @@
       <c r="D339" t="s">
         <v>1</v>
       </c>
-      <c r="E339" s="1"/>
+      <c r="E339" s="11"/>
       <c r="F339" s="3" t="s">
         <v>47</v>
       </c>
@@ -15217,7 +15505,7 @@
       <c r="D340" t="s">
         <v>1</v>
       </c>
-      <c r="E340" s="1"/>
+      <c r="E340" s="11"/>
       <c r="F340" s="3" t="s">
         <v>47</v>
       </c>
@@ -15245,7 +15533,7 @@
       <c r="D341" t="s">
         <v>1</v>
       </c>
-      <c r="E341" s="1"/>
+      <c r="E341" s="11"/>
       <c r="F341" s="3" t="s">
         <v>47</v>
       </c>
@@ -15273,7 +15561,7 @@
       <c r="D342" t="s">
         <v>1</v>
       </c>
-      <c r="E342" s="1"/>
+      <c r="E342" s="11"/>
       <c r="F342" s="3" t="s">
         <v>47</v>
       </c>
@@ -15301,7 +15589,7 @@
       <c r="D343" t="s">
         <v>1</v>
       </c>
-      <c r="E343" s="1"/>
+      <c r="E343" s="11"/>
       <c r="F343" s="3" t="s">
         <v>47</v>
       </c>
@@ -15329,7 +15617,7 @@
       <c r="D344" t="s">
         <v>1</v>
       </c>
-      <c r="E344" s="1"/>
+      <c r="E344" s="11"/>
       <c r="F344" s="3" t="s">
         <v>50</v>
       </c>
@@ -15357,7 +15645,7 @@
       <c r="D345" t="s">
         <v>1</v>
       </c>
-      <c r="E345" s="1"/>
+      <c r="E345" s="11"/>
       <c r="F345" s="3" t="s">
         <v>50</v>
       </c>
@@ -15385,7 +15673,7 @@
       <c r="D346" t="s">
         <v>1</v>
       </c>
-      <c r="E346" s="1"/>
+      <c r="E346" s="11"/>
       <c r="F346" s="3" t="s">
         <v>50</v>
       </c>
@@ -15413,7 +15701,7 @@
       <c r="D347" t="s">
         <v>1</v>
       </c>
-      <c r="E347" s="1"/>
+      <c r="E347" s="11"/>
       <c r="F347" s="3" t="s">
         <v>50</v>
       </c>
@@ -15441,7 +15729,7 @@
       <c r="D348" t="s">
         <v>1</v>
       </c>
-      <c r="E348" s="1"/>
+      <c r="E348" s="11"/>
       <c r="F348" s="3" t="s">
         <v>50</v>
       </c>
@@ -15469,7 +15757,7 @@
       <c r="D349" t="s">
         <v>1</v>
       </c>
-      <c r="E349" s="1"/>
+      <c r="E349" s="11"/>
       <c r="F349" s="3" t="s">
         <v>26</v>
       </c>
@@ -15497,7 +15785,7 @@
       <c r="D350" t="s">
         <v>319</v>
       </c>
-      <c r="E350" s="1"/>
+      <c r="E350" s="11"/>
       <c r="F350" s="3" t="s">
         <v>617</v>
       </c>
@@ -15525,7 +15813,7 @@
       <c r="D351" t="s">
         <v>319</v>
       </c>
-      <c r="E351" s="1"/>
+      <c r="E351" s="11"/>
       <c r="F351" s="3" t="s">
         <v>617</v>
       </c>
@@ -15553,7 +15841,7 @@
       <c r="D352" t="s">
         <v>319</v>
       </c>
-      <c r="E352" s="1"/>
+      <c r="E352" s="11"/>
       <c r="F352" s="3" t="s">
         <v>618</v>
       </c>
@@ -15581,7 +15869,7 @@
       <c r="D353" t="s">
         <v>319</v>
       </c>
-      <c r="E353" s="1"/>
+      <c r="E353" s="11"/>
       <c r="F353" s="3" t="s">
         <v>618</v>
       </c>
@@ -15609,7 +15897,7 @@
       <c r="D354" t="s">
         <v>319</v>
       </c>
-      <c r="E354" s="1"/>
+      <c r="E354" s="11"/>
       <c r="F354" s="3" t="s">
         <v>619</v>
       </c>
@@ -15637,7 +15925,7 @@
       <c r="D355" t="s">
         <v>319</v>
       </c>
-      <c r="E355" s="1"/>
+      <c r="E355" s="11"/>
       <c r="F355" s="3" t="s">
         <v>619</v>
       </c>
@@ -15665,7 +15953,7 @@
       <c r="D356" t="s">
         <v>319</v>
       </c>
-      <c r="E356" s="1"/>
+      <c r="E356" s="11"/>
       <c r="F356" s="3" t="s">
         <v>616</v>
       </c>
@@ -15693,7 +15981,7 @@
       <c r="D357" t="s">
         <v>319</v>
       </c>
-      <c r="E357" s="1"/>
+      <c r="E357" s="11"/>
       <c r="F357" s="3" t="s">
         <v>616</v>
       </c>
@@ -15721,7 +16009,7 @@
       <c r="D358" t="s">
         <v>319</v>
       </c>
-      <c r="E358" s="1"/>
+      <c r="E358" s="11"/>
       <c r="F358" s="3" t="s">
         <v>767</v>
       </c>
@@ -15746,7 +16034,7 @@
       <c r="D359" t="s">
         <v>319</v>
       </c>
-      <c r="E359" s="1"/>
+      <c r="E359" s="11"/>
       <c r="F359" s="3" t="s">
         <v>768</v>
       </c>
@@ -15774,7 +16062,7 @@
       <c r="D360" t="s">
         <v>319</v>
       </c>
-      <c r="E360" s="1"/>
+      <c r="E360" s="11"/>
       <c r="F360" s="3" t="s">
         <v>768</v>
       </c>
@@ -15802,7 +16090,7 @@
       <c r="D361" t="s">
         <v>319</v>
       </c>
-      <c r="E361" s="1"/>
+      <c r="E361" s="11"/>
       <c r="F361" s="3" t="s">
         <v>351</v>
       </c>
@@ -15810,7 +16098,7 @@
         <v>780</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>779</v>
+        <v>1017</v>
       </c>
       <c r="J361" s="3" t="s">
         <v>779</v>
@@ -15830,7 +16118,7 @@
       <c r="D362" t="s">
         <v>319</v>
       </c>
-      <c r="E362" s="1"/>
+      <c r="E362" s="11"/>
       <c r="F362" s="3" t="s">
         <v>351</v>
       </c>
@@ -15858,7 +16146,7 @@
       <c r="D363" t="s">
         <v>319</v>
       </c>
-      <c r="E363" s="1"/>
+      <c r="E363" s="11"/>
       <c r="F363" s="3" t="s">
         <v>783</v>
       </c>
@@ -15886,7 +16174,7 @@
       <c r="D364" t="s">
         <v>319</v>
       </c>
-      <c r="E364" s="1"/>
+      <c r="E364" s="11"/>
       <c r="F364" s="3" t="s">
         <v>779</v>
       </c>
@@ -15914,7 +16202,7 @@
       <c r="D365" t="s">
         <v>319</v>
       </c>
-      <c r="E365" s="1"/>
+      <c r="E365" s="11"/>
       <c r="F365" s="3" t="s">
         <v>776</v>
       </c>
@@ -15942,7 +16230,7 @@
       <c r="D366" t="s">
         <v>319</v>
       </c>
-      <c r="E366" s="1"/>
+      <c r="E366" s="11"/>
       <c r="F366" s="3" t="s">
         <v>776</v>
       </c>
@@ -15970,7 +16258,7 @@
       <c r="D367" t="s">
         <v>319</v>
       </c>
-      <c r="E367" s="1"/>
+      <c r="E367" s="11"/>
       <c r="F367" s="3" t="s">
         <v>776</v>
       </c>
@@ -15998,7 +16286,7 @@
       <c r="D368" t="s">
         <v>319</v>
       </c>
-      <c r="E368" s="1"/>
+      <c r="E368" s="11"/>
       <c r="F368" s="3" t="s">
         <v>776</v>
       </c>
@@ -16026,7 +16314,7 @@
       <c r="D369" t="s">
         <v>319</v>
       </c>
-      <c r="E369" s="1"/>
+      <c r="E369" s="11"/>
       <c r="F369" s="3" t="s">
         <v>776</v>
       </c>
@@ -16057,7 +16345,7 @@
       <c r="D370" t="s">
         <v>319</v>
       </c>
-      <c r="E370" s="1"/>
+      <c r="E370" s="11"/>
       <c r="F370" s="3" t="s">
         <v>776</v>
       </c>
@@ -16085,7 +16373,7 @@
       <c r="D371" t="s">
         <v>319</v>
       </c>
-      <c r="E371" s="1"/>
+      <c r="E371" s="11"/>
       <c r="F371" s="3" t="s">
         <v>776</v>
       </c>
@@ -16113,7 +16401,7 @@
       <c r="D372" t="s">
         <v>319</v>
       </c>
-      <c r="E372" s="1"/>
+      <c r="E372" s="11"/>
       <c r="F372" s="3" t="s">
         <v>776</v>
       </c>
@@ -16141,7 +16429,7 @@
       <c r="D373" t="s">
         <v>319</v>
       </c>
-      <c r="E373" s="1"/>
+      <c r="E373" s="11"/>
       <c r="F373" s="3" t="s">
         <v>776</v>
       </c>
@@ -16169,7 +16457,7 @@
       <c r="D374" t="s">
         <v>319</v>
       </c>
-      <c r="E374" s="1"/>
+      <c r="E374" s="11"/>
       <c r="F374" s="3" t="s">
         <v>773</v>
       </c>
@@ -16197,7 +16485,7 @@
       <c r="D375" t="s">
         <v>319</v>
       </c>
-      <c r="E375" s="1"/>
+      <c r="E375" s="11"/>
       <c r="F375" s="3" t="s">
         <v>773</v>
       </c>
@@ -16225,7 +16513,7 @@
       <c r="D376" t="s">
         <v>319</v>
       </c>
-      <c r="E376" s="1"/>
+      <c r="E376" s="11"/>
       <c r="F376" s="3" t="s">
         <v>773</v>
       </c>
@@ -16256,7 +16544,7 @@
       <c r="D377" t="s">
         <v>319</v>
       </c>
-      <c r="E377" s="1"/>
+      <c r="E377" s="11"/>
       <c r="F377" s="3" t="s">
         <v>773</v>
       </c>
@@ -16284,7 +16572,7 @@
       <c r="D378" t="s">
         <v>319</v>
       </c>
-      <c r="E378" s="1"/>
+      <c r="E378" s="11"/>
       <c r="F378" s="3" t="s">
         <v>773</v>
       </c>
@@ -16312,7 +16600,7 @@
       <c r="D379" t="s">
         <v>319</v>
       </c>
-      <c r="E379" s="1"/>
+      <c r="E379" s="11"/>
       <c r="F379" s="3" t="s">
         <v>773</v>
       </c>
@@ -16340,7 +16628,7 @@
       <c r="D380" t="s">
         <v>319</v>
       </c>
-      <c r="E380" s="1"/>
+      <c r="E380" s="11"/>
       <c r="F380" s="3" t="s">
         <v>773</v>
       </c>
@@ -16368,7 +16656,7 @@
       <c r="D381" t="s">
         <v>319</v>
       </c>
-      <c r="E381" s="1"/>
+      <c r="E381" s="11"/>
       <c r="F381" s="3" t="s">
         <v>830</v>
       </c>
@@ -16396,7 +16684,7 @@
       <c r="D382" t="s">
         <v>319</v>
       </c>
-      <c r="E382" s="1"/>
+      <c r="E382" s="11"/>
       <c r="F382" s="3" t="s">
         <v>830</v>
       </c>
@@ -16424,7 +16712,7 @@
       <c r="D383" t="s">
         <v>319</v>
       </c>
-      <c r="E383" s="1"/>
+      <c r="E383" s="11"/>
       <c r="F383" s="3" t="s">
         <v>830</v>
       </c>
@@ -16452,7 +16740,7 @@
       <c r="D384" t="s">
         <v>319</v>
       </c>
-      <c r="E384" s="1"/>
+      <c r="E384" s="11"/>
       <c r="F384" s="3" t="s">
         <v>830</v>
       </c>
@@ -16480,7 +16768,7 @@
       <c r="D385" t="s">
         <v>319</v>
       </c>
-      <c r="E385" s="1"/>
+      <c r="E385" s="11"/>
       <c r="F385" s="3" t="s">
         <v>830</v>
       </c>
@@ -16508,7 +16796,7 @@
       <c r="D386" t="s">
         <v>319</v>
       </c>
-      <c r="E386" s="1"/>
+      <c r="E386" s="11"/>
       <c r="F386" s="3" t="s">
         <v>814</v>
       </c>
@@ -16536,7 +16824,7 @@
       <c r="D387" t="s">
         <v>319</v>
       </c>
-      <c r="E387" s="1"/>
+      <c r="E387" s="11"/>
       <c r="F387" s="3" t="s">
         <v>814</v>
       </c>
@@ -16564,7 +16852,7 @@
       <c r="D388" t="s">
         <v>319</v>
       </c>
-      <c r="E388" s="1"/>
+      <c r="E388" s="11"/>
       <c r="F388" s="3" t="s">
         <v>649</v>
       </c>
@@ -16592,7 +16880,7 @@
       <c r="D389" t="s">
         <v>319</v>
       </c>
-      <c r="E389" s="1"/>
+      <c r="E389" s="11"/>
       <c r="F389" s="3" t="s">
         <v>610</v>
       </c>
@@ -16620,7 +16908,7 @@
       <c r="D390" t="s">
         <v>319</v>
       </c>
-      <c r="E390" s="1"/>
+      <c r="E390" s="11"/>
       <c r="F390" s="3" t="s">
         <v>421</v>
       </c>
@@ -16648,7 +16936,7 @@
       <c r="D391" t="s">
         <v>319</v>
       </c>
-      <c r="E391" s="1"/>
+      <c r="E391" s="11"/>
       <c r="F391" s="3" t="s">
         <v>421</v>
       </c>
@@ -16676,7 +16964,7 @@
       <c r="D392" t="s">
         <v>319</v>
       </c>
-      <c r="E392" s="1"/>
+      <c r="E392" s="11"/>
       <c r="F392" s="3" t="s">
         <v>421</v>
       </c>
@@ -16684,7 +16972,7 @@
         <v>856</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>336</v>
+        <v>1032</v>
       </c>
       <c r="J392" s="3" t="s">
         <v>336</v>
@@ -16704,7 +16992,7 @@
       <c r="D393" t="s">
         <v>1</v>
       </c>
-      <c r="E393" s="1"/>
+      <c r="E393" s="11"/>
       <c r="F393" s="3" t="s">
         <v>202</v>
       </c>
@@ -16732,7 +17020,7 @@
       <c r="D394" t="s">
         <v>1</v>
       </c>
-      <c r="E394" s="1"/>
+      <c r="E394" s="11"/>
       <c r="F394" s="3" t="s">
         <v>61</v>
       </c>
@@ -16760,7 +17048,7 @@
       <c r="D395" t="s">
         <v>1</v>
       </c>
-      <c r="E395" s="1"/>
+      <c r="E395" s="11"/>
       <c r="F395" s="3" t="s">
         <v>61</v>
       </c>
@@ -16788,7 +17076,7 @@
       <c r="D396" t="s">
         <v>1</v>
       </c>
-      <c r="E396" s="1"/>
+      <c r="E396" s="11"/>
       <c r="F396" s="3" t="s">
         <v>60</v>
       </c>
@@ -16816,7 +17104,7 @@
       <c r="D397" t="s">
         <v>1</v>
       </c>
-      <c r="E397" s="1"/>
+      <c r="E397" s="11"/>
       <c r="F397" s="3" t="s">
         <v>60</v>
       </c>
@@ -16844,7 +17132,7 @@
       <c r="D398" t="s">
         <v>1</v>
       </c>
-      <c r="E398" s="1"/>
+      <c r="E398" s="11"/>
       <c r="F398" s="3" t="s">
         <v>62</v>
       </c>
@@ -16872,7 +17160,7 @@
       <c r="D399" t="s">
         <v>1</v>
       </c>
-      <c r="E399" s="1"/>
+      <c r="E399" s="11"/>
       <c r="F399" s="3" t="s">
         <v>62</v>
       </c>
@@ -16900,7 +17188,7 @@
       <c r="D400" t="s">
         <v>1</v>
       </c>
-      <c r="E400" s="1"/>
+      <c r="E400" s="11"/>
       <c r="F400" s="3" t="s">
         <v>62</v>
       </c>
@@ -16928,7 +17216,7 @@
       <c r="D401" t="s">
         <v>1</v>
       </c>
-      <c r="E401" s="1"/>
+      <c r="E401" s="11"/>
       <c r="F401" s="3" t="s">
         <v>35</v>
       </c>
@@ -16936,7 +17224,7 @@
         <v>873</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>830</v>
+        <v>1018</v>
       </c>
       <c r="J401" s="3" t="s">
         <v>830</v>
@@ -16956,7 +17244,7 @@
       <c r="D402" t="s">
         <v>1</v>
       </c>
-      <c r="E402" s="1"/>
+      <c r="E402" s="11"/>
       <c r="F402" s="3" t="s">
         <v>35</v>
       </c>
@@ -16987,7 +17275,7 @@
       <c r="D403" t="s">
         <v>1</v>
       </c>
-      <c r="E403" s="1"/>
+      <c r="E403" s="11"/>
       <c r="F403" s="3" t="s">
         <v>35</v>
       </c>
@@ -17015,7 +17303,7 @@
       <c r="D404" t="s">
         <v>1</v>
       </c>
-      <c r="E404" s="1"/>
+      <c r="E404" s="11"/>
       <c r="F404" s="3" t="s">
         <v>35</v>
       </c>
@@ -17046,7 +17334,7 @@
       <c r="D405" t="s">
         <v>1</v>
       </c>
-      <c r="E405" s="1"/>
+      <c r="E405" s="11"/>
       <c r="F405" s="3" t="s">
         <v>35</v>
       </c>
@@ -17074,7 +17362,7 @@
       <c r="D406" t="s">
         <v>1</v>
       </c>
-      <c r="E406" s="1"/>
+      <c r="E406" s="11"/>
       <c r="F406" s="3" t="s">
         <v>35</v>
       </c>
@@ -17105,7 +17393,7 @@
       <c r="D407" t="s">
         <v>1</v>
       </c>
-      <c r="E407" s="1"/>
+      <c r="E407" s="11"/>
       <c r="F407" s="3" t="s">
         <v>35</v>
       </c>
@@ -17133,7 +17421,7 @@
       <c r="D408" t="s">
         <v>1</v>
       </c>
-      <c r="E408" s="1"/>
+      <c r="E408" s="11"/>
       <c r="F408" s="3" t="s">
         <v>63</v>
       </c>
@@ -17141,7 +17429,7 @@
         <v>887</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>830</v>
+        <v>1018</v>
       </c>
       <c r="J408" s="3" t="s">
         <v>830</v>
@@ -17161,7 +17449,7 @@
       <c r="D409" t="s">
         <v>1</v>
       </c>
-      <c r="E409" s="1"/>
+      <c r="E409" s="11"/>
       <c r="F409" s="3" t="s">
         <v>63</v>
       </c>
@@ -17189,7 +17477,7 @@
       <c r="D410" t="s">
         <v>1</v>
       </c>
-      <c r="E410" s="1"/>
+      <c r="E410" s="11"/>
       <c r="F410" s="3" t="s">
         <v>63</v>
       </c>
@@ -17217,7 +17505,7 @@
       <c r="D411" t="s">
         <v>1</v>
       </c>
-      <c r="E411" s="1"/>
+      <c r="E411" s="11"/>
       <c r="F411" s="3" t="s">
         <v>63</v>
       </c>
@@ -17245,7 +17533,7 @@
       <c r="D412" t="s">
         <v>1</v>
       </c>
-      <c r="E412" s="1"/>
+      <c r="E412" s="11"/>
       <c r="F412" s="3" t="s">
         <v>64</v>
       </c>
@@ -17253,7 +17541,7 @@
         <v>898</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>830</v>
+        <v>1018</v>
       </c>
       <c r="J412" s="3" t="s">
         <v>830</v>
@@ -17273,7 +17561,7 @@
       <c r="D413" t="s">
         <v>1</v>
       </c>
-      <c r="E413" s="1"/>
+      <c r="E413" s="11"/>
       <c r="F413" s="3" t="s">
         <v>64</v>
       </c>
@@ -17301,7 +17589,7 @@
       <c r="D414" t="s">
         <v>1</v>
       </c>
-      <c r="E414" s="1"/>
+      <c r="E414" s="11"/>
       <c r="F414" s="3" t="s">
         <v>64</v>
       </c>
@@ -17329,7 +17617,7 @@
       <c r="D415" t="s">
         <v>1</v>
       </c>
-      <c r="E415" s="1"/>
+      <c r="E415" s="11"/>
       <c r="F415" s="3" t="s">
         <v>64</v>
       </c>
@@ -17357,7 +17645,7 @@
       <c r="D416" t="s">
         <v>1</v>
       </c>
-      <c r="E416" s="1"/>
+      <c r="E416" s="11"/>
       <c r="F416" s="3" t="s">
         <v>65</v>
       </c>
@@ -17365,7 +17653,7 @@
         <v>906</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>830</v>
+        <v>1018</v>
       </c>
       <c r="J416" s="3" t="s">
         <v>830</v>
@@ -17385,7 +17673,7 @@
       <c r="D417" t="s">
         <v>1</v>
       </c>
-      <c r="E417" s="1"/>
+      <c r="E417" s="11"/>
       <c r="F417" s="3" t="s">
         <v>65</v>
       </c>
@@ -17413,7 +17701,7 @@
       <c r="D418" t="s">
         <v>1</v>
       </c>
-      <c r="E418" s="1"/>
+      <c r="E418" s="11"/>
       <c r="F418" s="3" t="s">
         <v>65</v>
       </c>
@@ -17441,7 +17729,7 @@
       <c r="D419" t="s">
         <v>1</v>
       </c>
-      <c r="E419" s="1"/>
+      <c r="E419" s="11"/>
       <c r="F419" s="3" t="s">
         <v>65</v>
       </c>
@@ -17469,7 +17757,7 @@
       <c r="D420" t="s">
         <v>1</v>
       </c>
-      <c r="E420" s="1"/>
+      <c r="E420" s="11"/>
       <c r="F420" s="3" t="s">
         <v>66</v>
       </c>
@@ -17477,7 +17765,7 @@
         <v>914</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>830</v>
+        <v>1018</v>
       </c>
       <c r="J420" s="3" t="s">
         <v>830</v>
@@ -17497,7 +17785,7 @@
       <c r="D421" t="s">
         <v>1</v>
       </c>
-      <c r="E421" s="1"/>
+      <c r="E421" s="11"/>
       <c r="F421" s="3" t="s">
         <v>66</v>
       </c>
@@ -17525,7 +17813,7 @@
       <c r="D422" t="s">
         <v>1</v>
       </c>
-      <c r="E422" s="1"/>
+      <c r="E422" s="11"/>
       <c r="F422" s="3" t="s">
         <v>66</v>
       </c>
@@ -17553,7 +17841,7 @@
       <c r="D423" t="s">
         <v>1</v>
       </c>
-      <c r="E423" s="1"/>
+      <c r="E423" s="11"/>
       <c r="F423" s="3" t="s">
         <v>66</v>
       </c>
@@ -17581,7 +17869,9 @@
       <c r="D424" t="s">
         <v>1</v>
       </c>
-      <c r="E424" s="1"/>
+      <c r="E424" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F424" s="3" t="s">
         <v>0</v>
       </c>
@@ -17615,91 +17905,110 @@
     </row>
     <row r="425" spans="1:16" ht="15.75">
       <c r="A425" s="3" t="s">
-        <v>922</v>
+        <v>1035</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>320</v>
+        <v>3</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>338</v>
+        <v>35</v>
       </c>
       <c r="D425" t="s">
-        <v>319</v>
-      </c>
-      <c r="E425" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="F425" s="3" t="s">
-        <v>338</v>
+        <v>35</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>923</v>
+        <v>968</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L425" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="L425" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="M425" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="N425" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="O425" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="P425" s="3" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="426" spans="1:16" ht="15.75">
       <c r="A426" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D426" t="s">
         <v>319</v>
       </c>
-      <c r="E426" s="1"/>
+      <c r="E426" s="11"/>
       <c r="F426" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>429</v>
+        <v>923</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>925</v>
+        <v>324</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="L426" s="10"/>
     </row>
     <row r="427" spans="1:16" ht="15.75">
       <c r="A427" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="D427" t="s">
         <v>319</v>
       </c>
-      <c r="E427" s="1"/>
+      <c r="E427" s="11"/>
       <c r="F427" s="3" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>927</v>
+        <v>429</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>162</v>
+        <v>428</v>
       </c>
       <c r="L427" s="10"/>
     </row>
     <row r="428" spans="1:16" ht="15.75">
       <c r="A428" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>320</v>
@@ -17710,24 +18019,24 @@
       <c r="D428" t="s">
         <v>319</v>
       </c>
-      <c r="E428" s="1"/>
+      <c r="E428" s="11"/>
       <c r="F428" s="3" t="s">
         <v>406</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J428" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L428" s="10"/>
     </row>
     <row r="429" spans="1:16" ht="15.75">
       <c r="A429" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>320</v>
@@ -17738,48 +18047,697 @@
       <c r="D429" t="s">
         <v>319</v>
       </c>
-      <c r="E429" s="1"/>
+      <c r="E429" s="11"/>
       <c r="F429" s="3" t="s">
         <v>406</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J429" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L429" s="10"/>
     </row>
     <row r="430" spans="1:16" ht="15.75">
       <c r="A430" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D430" t="s">
+        <v>319</v>
+      </c>
+      <c r="E430" s="11"/>
+      <c r="F430" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L430" s="10"/>
+    </row>
+    <row r="431" spans="1:16" ht="15.75">
+      <c r="A431" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C430" s="3" t="s">
+      <c r="B431" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D430" t="s">
-        <v>1</v>
-      </c>
-      <c r="E430" s="1"/>
-      <c r="F430" s="3" t="s">
+      <c r="D431" t="s">
+        <v>1</v>
+      </c>
+      <c r="E431" s="11"/>
+      <c r="F431" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G430" s="3" t="s">
+      <c r="G431" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="H430" s="3" t="s">
+      <c r="H431" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J431" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="J430" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="L430" s="10"/>
+      <c r="L431" s="10"/>
+    </row>
+    <row r="432" spans="1:16" ht="15.75">
+      <c r="A432" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J432" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L432" s="10"/>
+    </row>
+    <row r="433" spans="1:12" ht="15.75">
+      <c r="A433" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J433" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L433" s="10"/>
+    </row>
+    <row r="434" spans="1:12" ht="15.75">
+      <c r="A434" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J434" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="L434" s="10"/>
+    </row>
+    <row r="435" spans="1:12" ht="15.75">
+      <c r="A435" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J435" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="L435" s="10"/>
+    </row>
+    <row r="436" spans="1:12" ht="15.75">
+      <c r="A436" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J436" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L436" s="10"/>
+    </row>
+    <row r="437" spans="1:12" ht="15.75">
+      <c r="A437" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J437" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L437" s="10"/>
+    </row>
+    <row r="438" spans="1:12" ht="15.75">
+      <c r="A438" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="L438" s="10"/>
+    </row>
+    <row r="439" spans="1:12" ht="15.75">
+      <c r="A439" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J439" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="L439" s="10"/>
+    </row>
+    <row r="440" spans="1:12" ht="15.75">
+      <c r="A440" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J440" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L440" s="10"/>
+    </row>
+    <row r="441" spans="1:12" ht="15.75">
+      <c r="A441" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J441" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L441" s="10"/>
+    </row>
+    <row r="442" spans="1:12" ht="15.75">
+      <c r="A442" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="L442" s="10"/>
+    </row>
+    <row r="443" spans="1:12" ht="15.75">
+      <c r="A443" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J443" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="L443" s="10"/>
+    </row>
+    <row r="444" spans="1:12" ht="15.75">
+      <c r="A444" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L444" s="10"/>
+    </row>
+    <row r="445" spans="1:12" ht="15.75">
+      <c r="A445" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J445" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L445" s="10"/>
+    </row>
+    <row r="446" spans="1:12" ht="15.75">
+      <c r="A446" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="L446" s="10"/>
+    </row>
+    <row r="447" spans="1:12" ht="15.75">
+      <c r="A447" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J447" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="L447" s="10"/>
+    </row>
+    <row r="448" spans="1:12" ht="15.75">
+      <c r="A448" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J448" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L448" s="10"/>
+    </row>
+    <row r="449" spans="1:12" ht="15.75">
+      <c r="A449" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J449" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L449" s="10"/>
+    </row>
+    <row r="450" spans="1:12" ht="15.75">
+      <c r="A450" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="L450" s="10"/>
+    </row>
+    <row r="451" spans="1:12" ht="15.75">
+      <c r="A451" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J451" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="L451" s="10"/>
+    </row>
+    <row r="452" spans="1:12" ht="15.75">
+      <c r="A452" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L452" s="10"/>
+    </row>
+    <row r="453" spans="1:12" ht="15.75">
+      <c r="A453" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J453" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L453" s="10"/>
+    </row>
+    <row r="454" spans="1:12" ht="15.75">
+      <c r="A454" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J454" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="L454" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrainRoute.xlsx
+++ b/TrainRoute.xlsx
@@ -2880,9 +2880,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>ZHM</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -3121,6 +3118,9 @@
   </si>
   <si>
     <t>V1</t>
+  </si>
+  <si>
+    <t>ZHM_Z</t>
   </si>
 </sst>
 </file>
@@ -3527,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3557,52 +3557,52 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75">
       <c r="A1" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
@@ -4256,10 +4256,10 @@
         <v>950</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>953</v>
@@ -4301,10 +4301,10 @@
         <v>950</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>953</v>
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>60</v>
@@ -4345,10 +4345,10 @@
         <v>950</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>953</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>61</v>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>62</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>35</v>
@@ -4477,10 +4477,10 @@
         <v>950</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>953</v>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>63</v>
@@ -4521,10 +4521,10 @@
         <v>950</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>953</v>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>64</v>
@@ -4565,10 +4565,10 @@
         <v>950</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>953</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>65</v>
@@ -4609,10 +4609,10 @@
         <v>950</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>953</v>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>66</v>
@@ -4656,10 +4656,10 @@
         <v>950</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>953</v>
@@ -4701,10 +4701,10 @@
         <v>953</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>954</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75">
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>62</v>
@@ -5030,19 +5030,19 @@
         <v>75</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75">
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>61</v>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>60</v>
@@ -5118,19 +5118,19 @@
         <v>75</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>35</v>
@@ -5162,19 +5162,19 @@
         <v>75</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75">
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>63</v>
@@ -5206,19 +5206,19 @@
         <v>75</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75">
@@ -5235,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>64</v>
@@ -5250,19 +5250,19 @@
         <v>75</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75">
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>65</v>
@@ -5294,19 +5294,19 @@
         <v>75</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75">
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>66</v>
@@ -5341,19 +5341,19 @@
         <v>835</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75">
@@ -5395,7 +5395,7 @@
         <v>953</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>954</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75">
@@ -5641,10 +5641,10 @@
         <v>950</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>953</v>
@@ -5935,10 +5935,10 @@
         <v>950</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>953</v>
@@ -5983,7 +5983,7 @@
         <v>953</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75">
@@ -6235,10 +6235,10 @@
         <v>950</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>953</v>
@@ -6286,7 +6286,7 @@
         <v>953</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75">
@@ -6511,7 +6511,7 @@
         <v>953</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>954</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15.75">
@@ -6643,7 +6643,7 @@
         <v>953</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>954</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.75">
@@ -6811,7 +6811,7 @@
         <v>953</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15.75">
@@ -6853,7 +6853,7 @@
         <v>953</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="15.75">
@@ -6979,7 +6979,7 @@
         <v>953</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15.75">
@@ -7021,7 +7021,7 @@
         <v>953</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15.75">
@@ -7147,7 +7147,7 @@
         <v>953</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="15.75">
@@ -7189,7 +7189,7 @@
         <v>953</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="15.75">
@@ -7315,7 +7315,7 @@
         <v>953</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75">
@@ -7357,7 +7357,7 @@
         <v>953</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75">
@@ -7483,7 +7483,7 @@
         <v>953</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>954</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="15.75">
@@ -7525,7 +7525,7 @@
         <v>953</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>954</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="15.75">
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>204</v>
@@ -7563,13 +7563,13 @@
         <v>950</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>953</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>954</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="15.75">
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>204</v>
@@ -7630,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>204</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>204</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>204</v>
@@ -7762,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>204</v>
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>204</v>
@@ -7850,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>204</v>
@@ -7894,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>204</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>204</v>
@@ -7982,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>204</v>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>204</v>
@@ -8070,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>204</v>
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>204</v>
@@ -8180,10 +8180,10 @@
         <v>950</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>953</v>
@@ -8222,10 +8222,10 @@
         <v>950</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>953</v>
@@ -8306,10 +8306,10 @@
         <v>950</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P110" s="3" t="s">
         <v>953</v>
@@ -8348,10 +8348,10 @@
         <v>950</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>953</v>
@@ -8390,10 +8390,10 @@
         <v>950</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>953</v>
@@ -8432,10 +8432,10 @@
         <v>950</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>953</v>
@@ -8455,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>21</v>
@@ -8476,10 +8476,10 @@
         <v>950</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>953</v>
@@ -8499,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>199</v>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>34</v>
@@ -8606,10 +8606,10 @@
         <v>950</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>953</v>
@@ -8629,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>38</v>
@@ -8650,10 +8650,10 @@
         <v>950</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>953</v>
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>44</v>
@@ -8694,10 +8694,10 @@
         <v>950</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>953</v>
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>47</v>
@@ -8738,10 +8738,10 @@
         <v>950</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>953</v>
@@ -8761,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>50</v>
@@ -8785,10 +8785,10 @@
         <v>950</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>953</v>
@@ -8830,10 +8830,10 @@
         <v>953</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>954</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="15.75">
@@ -9157,19 +9157,19 @@
         <v>258</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O130" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="15.75">
@@ -9186,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>199</v>
@@ -9230,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>21</v>
@@ -9245,19 +9245,19 @@
         <v>258</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O132" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="15.75">
@@ -9274,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>34</v>
@@ -9289,19 +9289,19 @@
         <v>258</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O133" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15.75">
@@ -9318,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>38</v>
@@ -9333,19 +9333,19 @@
         <v>258</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O134" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P134" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15.75">
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>44</v>
@@ -9377,19 +9377,19 @@
         <v>258</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O135" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="15.75">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>47</v>
@@ -9421,19 +9421,19 @@
         <v>258</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O136" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75">
@@ -9450,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>50</v>
@@ -9468,19 +9468,19 @@
         <v>835</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M137" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O137" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75">
@@ -9506,7 +9506,7 @@
         <v>30</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>31</v>
@@ -9550,7 +9550,7 @@
         <v>34</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>36</v>
@@ -9594,7 +9594,7 @@
         <v>34</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>36</v>
@@ -9638,7 +9638,7 @@
         <v>34</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>36</v>
@@ -9682,7 +9682,7 @@
         <v>38</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J142" s="3" t="s">
         <v>39</v>
@@ -9726,7 +9726,7 @@
         <v>44</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>45</v>
@@ -9770,7 +9770,7 @@
         <v>47</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>48</v>
@@ -9814,7 +9814,7 @@
         <v>50</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>51</v>
@@ -9849,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>62</v>
@@ -9861,7 +9861,7 @@
         <v>911</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>75</v>
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>35</v>
@@ -9908,7 +9908,7 @@
         <v>911</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>75</v>
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>35</v>
@@ -9955,7 +9955,7 @@
         <v>911</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>75</v>
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>35</v>
@@ -10002,7 +10002,7 @@
         <v>911</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J149" s="3" t="s">
         <v>75</v>
@@ -10037,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>63</v>
@@ -10049,7 +10049,7 @@
         <v>911</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>75</v>
@@ -10084,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>64</v>
@@ -10096,7 +10096,7 @@
         <v>911</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>75</v>
@@ -10131,7 +10131,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>65</v>
@@ -10143,7 +10143,7 @@
         <v>911</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>75</v>
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>66</v>
@@ -10190,7 +10190,7 @@
         <v>911</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>75</v>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>204</v>
@@ -10240,7 +10240,7 @@
         <v>60</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>226</v>
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>204</v>
@@ -10287,7 +10287,7 @@
         <v>202</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>311</v>
@@ -10322,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>21</v>
@@ -10334,7 +10334,7 @@
         <v>912</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>204</v>
@@ -10346,10 +10346,10 @@
         <v>950</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O156" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P156" s="3" t="s">
         <v>953</v>
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>199</v>
@@ -10381,7 +10381,7 @@
         <v>912</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>204</v>
@@ -10753,7 +10753,7 @@
         <v>358</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J170" s="3" t="s">
         <v>359</v>
@@ -10809,7 +10809,7 @@
         <v>358</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J172" s="3" t="s">
         <v>343</v>
@@ -10949,7 +10949,7 @@
         <v>374</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>170</v>
@@ -11033,7 +11033,7 @@
         <v>379</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J180" s="3" t="s">
         <v>377</v>
@@ -11061,7 +11061,7 @@
         <v>383</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J181" s="3" t="s">
         <v>343</v>
@@ -11173,7 +11173,7 @@
         <v>390</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>343</v>
@@ -11229,7 +11229,7 @@
         <v>394</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J187" s="3" t="s">
         <v>343</v>
@@ -11369,7 +11369,7 @@
         <v>405</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J192" s="3" t="s">
         <v>332</v>
@@ -11425,7 +11425,7 @@
         <v>411</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J194" s="3" t="s">
         <v>332</v>
@@ -11481,7 +11481,7 @@
         <v>405</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>403</v>
@@ -11509,7 +11509,7 @@
         <v>411</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J197" s="3" t="s">
         <v>408</v>
@@ -11537,7 +11537,7 @@
         <v>416</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J198" s="3" t="s">
         <v>417</v>
@@ -11593,7 +11593,7 @@
         <v>422</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J200" s="3" t="s">
         <v>353</v>
@@ -11618,7 +11618,7 @@
         <v>421</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>380</v>
@@ -11705,7 +11705,7 @@
         <v>407</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J204" s="3" t="s">
         <v>403</v>
@@ -11733,7 +11733,7 @@
         <v>412</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J205" s="3" t="s">
         <v>408</v>
@@ -11761,7 +11761,7 @@
         <v>432</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J206" s="3" t="s">
         <v>417</v>
@@ -12181,7 +12181,7 @@
         <v>459</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>461</v>
@@ -12237,7 +12237,7 @@
         <v>467</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>468</v>
@@ -12265,7 +12265,7 @@
         <v>459</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>471</v>
@@ -12293,7 +12293,7 @@
         <v>474</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J225" s="3" t="s">
         <v>471</v>
@@ -12349,7 +12349,7 @@
         <v>479</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J227" s="3" t="s">
         <v>6</v>
@@ -12461,7 +12461,7 @@
         <v>490</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J231" s="3" t="s">
         <v>6</v>
@@ -12685,7 +12685,7 @@
         <v>509</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>507</v>
@@ -12713,7 +12713,7 @@
         <v>510</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>511</v>
@@ -12741,7 +12741,7 @@
         <v>513</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>514</v>
@@ -12881,7 +12881,7 @@
         <v>529</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J246" s="3" t="s">
         <v>507</v>
@@ -12909,7 +12909,7 @@
         <v>530</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J247" s="3" t="s">
         <v>511</v>
@@ -12937,7 +12937,7 @@
         <v>531</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J248" s="3" t="s">
         <v>514</v>
@@ -13077,7 +13077,7 @@
         <v>540</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J253" s="3" t="s">
         <v>500</v>
@@ -13189,7 +13189,7 @@
         <v>504</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J257" s="3" t="s">
         <v>500</v>
@@ -13245,7 +13245,7 @@
         <v>509</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J259" s="3" t="s">
         <v>500</v>
@@ -13301,7 +13301,7 @@
         <v>510</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J261" s="3" t="s">
         <v>500</v>
@@ -13357,7 +13357,7 @@
         <v>513</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J263" s="3" t="s">
         <v>500</v>
@@ -13553,7 +13553,7 @@
         <v>526</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J270" s="3" t="s">
         <v>500</v>
@@ -13609,7 +13609,7 @@
         <v>527</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J272" s="3" t="s">
         <v>500</v>
@@ -13693,7 +13693,7 @@
         <v>577</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J275" s="3" t="s">
         <v>578</v>
@@ -13749,7 +13749,7 @@
         <v>582</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J277" s="3" t="s">
         <v>578</v>
@@ -13861,7 +13861,7 @@
         <v>601</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J281" s="3" t="s">
         <v>31</v>
@@ -13945,7 +13945,7 @@
         <v>607</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J284" s="3" t="s">
         <v>611</v>
@@ -13973,7 +13973,7 @@
         <v>608</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J285" s="3" t="s">
         <v>612</v>
@@ -14001,7 +14001,7 @@
         <v>609</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J286" s="3" t="s">
         <v>613</v>
@@ -14029,7 +14029,7 @@
         <v>610</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J287" s="3" t="s">
         <v>614</v>
@@ -14225,7 +14225,7 @@
         <v>267</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J294" s="3" t="s">
         <v>31</v>
@@ -16098,7 +16098,7 @@
         <v>774</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J361" s="3" t="s">
         <v>773</v>
@@ -16266,7 +16266,7 @@
         <v>790</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J367" s="3" t="s">
         <v>31</v>
@@ -16325,7 +16325,7 @@
         <v>793</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J369" s="3" t="s">
         <v>36</v>
@@ -16465,7 +16465,7 @@
         <v>816</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J374" s="3" t="s">
         <v>31</v>
@@ -16524,7 +16524,7 @@
         <v>793</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J376" s="3" t="s">
         <v>36</v>
@@ -16804,7 +16804,7 @@
         <v>835</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J386" s="3" t="s">
         <v>653</v>
@@ -16972,7 +16972,7 @@
         <v>848</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J392" s="3" t="s">
         <v>332</v>
@@ -17224,7 +17224,7 @@
         <v>865</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J401" s="3" t="s">
         <v>823</v>
@@ -17255,7 +17255,7 @@
         <v>762</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J402" s="3" t="s">
         <v>762</v>
@@ -17314,7 +17314,7 @@
         <v>777</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J404" s="3" t="s">
         <v>777</v>
@@ -17373,7 +17373,7 @@
         <v>364</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J406" s="3" t="s">
         <v>782</v>
@@ -17429,7 +17429,7 @@
         <v>879</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J408" s="3" t="s">
         <v>823</v>
@@ -17541,7 +17541,7 @@
         <v>890</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J412" s="3" t="s">
         <v>823</v>
@@ -17653,7 +17653,7 @@
         <v>898</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J416" s="3" t="s">
         <v>823</v>
@@ -17765,7 +17765,7 @@
         <v>906</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J420" s="3" t="s">
         <v>823</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="424" spans="1:16" ht="15.75">
       <c r="A424" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>3</v>
@@ -17870,19 +17870,19 @@
         <v>1</v>
       </c>
       <c r="E424" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H424" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J424" s="3" t="s">
         <v>229</v>
@@ -17905,7 +17905,7 @@
     </row>
     <row r="425" spans="1:16" ht="15.75">
       <c r="A425" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>3</v>
@@ -17917,19 +17917,19 @@
         <v>1</v>
       </c>
       <c r="E425" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F425" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H425" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J425" s="3" t="s">
         <v>0</v>
@@ -17941,10 +17941,10 @@
         <v>950</v>
       </c>
       <c r="N425" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O425" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P425" s="3" t="s">
         <v>953</v>
@@ -17996,7 +17996,7 @@
         <v>344</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H427" s="3" t="s">
         <v>917</v>
@@ -18111,7 +18111,7 @@
         <v>928</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J431" s="3" t="s">
         <v>417</v>
@@ -18135,7 +18135,7 @@
         <v>134</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H432" s="3" t="s">
         <v>5</v>
@@ -18162,7 +18162,7 @@
         <v>134</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H433" s="3" t="s">
         <v>55</v>
@@ -18189,7 +18189,7 @@
         <v>134</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H434" s="3" t="s">
         <v>421</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="435" spans="1:12" ht="15.75">
       <c r="A435" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>316</v>
@@ -18216,7 +18216,7 @@
         <v>165</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H435" s="3" t="s">
         <v>418</v>
@@ -18243,7 +18243,7 @@
         <v>165</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H436" s="3" t="s">
         <v>5</v>
@@ -18270,7 +18270,7 @@
         <v>165</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H437" s="3" t="s">
         <v>55</v>
@@ -18297,7 +18297,7 @@
         <v>165</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H438" s="3" t="s">
         <v>421</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="439" spans="1:12" ht="15.75">
       <c r="A439" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>316</v>
@@ -18324,7 +18324,7 @@
         <v>166</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H439" s="3" t="s">
         <v>418</v>
@@ -18351,7 +18351,7 @@
         <v>166</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H440" s="3" t="s">
         <v>5</v>
@@ -18378,7 +18378,7 @@
         <v>166</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H441" s="3" t="s">
         <v>55</v>
@@ -18405,7 +18405,7 @@
         <v>166</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H442" s="3" t="s">
         <v>421</v>
@@ -18417,7 +18417,7 @@
     </row>
     <row r="443" spans="1:12" ht="15.75">
       <c r="A443" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>316</v>
@@ -18432,7 +18432,7 @@
         <v>173</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H443" s="3" t="s">
         <v>418</v>
@@ -18459,7 +18459,7 @@
         <v>173</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H444" s="3" t="s">
         <v>5</v>
@@ -18486,7 +18486,7 @@
         <v>173</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H445" s="3" t="s">
         <v>55</v>
@@ -18513,7 +18513,7 @@
         <v>173</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H446" s="3" t="s">
         <v>421</v>
@@ -18525,7 +18525,7 @@
     </row>
     <row r="447" spans="1:12" ht="15.75">
       <c r="A447" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>316</v>
@@ -18540,7 +18540,7 @@
         <v>174</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H447" s="3" t="s">
         <v>418</v>
@@ -18567,7 +18567,7 @@
         <v>174</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H448" s="3" t="s">
         <v>5</v>
@@ -18594,7 +18594,7 @@
         <v>174</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H449" s="3" t="s">
         <v>55</v>
@@ -18621,7 +18621,7 @@
         <v>174</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H450" s="3" t="s">
         <v>421</v>
@@ -18633,7 +18633,7 @@
     </row>
     <row r="451" spans="1:12" ht="15.75">
       <c r="A451" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>316</v>
@@ -18648,7 +18648,7 @@
         <v>180</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H451" s="3" t="s">
         <v>418</v>
@@ -18675,7 +18675,7 @@
         <v>180</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H452" s="3" t="s">
         <v>5</v>
@@ -18702,7 +18702,7 @@
         <v>180</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H453" s="3" t="s">
         <v>55</v>
@@ -18729,7 +18729,7 @@
         <v>180</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H454" s="3" t="s">
         <v>421</v>
